--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20346000</v>
+        <v>19128600</v>
       </c>
       <c r="E8" s="3">
-        <v>16563100</v>
+        <v>18311400</v>
       </c>
       <c r="F8" s="3">
-        <v>14319700</v>
+        <v>14906800</v>
       </c>
       <c r="G8" s="3">
-        <v>15627300</v>
+        <v>12887700</v>
       </c>
       <c r="H8" s="3">
-        <v>19791600</v>
+        <v>14064600</v>
       </c>
       <c r="I8" s="3">
-        <v>21128600</v>
+        <v>17812400</v>
       </c>
       <c r="J8" s="3">
+        <v>19015800</v>
+      </c>
+      <c r="K8" s="3">
         <v>20060100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20069100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12350900</v>
+        <v>12138500</v>
       </c>
       <c r="E9" s="3">
-        <v>11068000</v>
+        <v>11115800</v>
       </c>
       <c r="F9" s="3">
-        <v>10271000</v>
+        <v>9961200</v>
       </c>
       <c r="G9" s="3">
-        <v>11098400</v>
+        <v>9243900</v>
       </c>
       <c r="H9" s="3">
-        <v>13075300</v>
+        <v>9988500</v>
       </c>
       <c r="I9" s="3">
-        <v>24848500</v>
+        <v>11767800</v>
       </c>
       <c r="J9" s="3">
+        <v>22363600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11506100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10726200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7995100</v>
+        <v>6990100</v>
       </c>
       <c r="E10" s="3">
-        <v>5495000</v>
+        <v>7195600</v>
       </c>
       <c r="F10" s="3">
-        <v>4048700</v>
+        <v>4945500</v>
       </c>
       <c r="G10" s="3">
-        <v>4528900</v>
+        <v>3643900</v>
       </c>
       <c r="H10" s="3">
-        <v>6716300</v>
+        <v>4076000</v>
       </c>
       <c r="I10" s="3">
-        <v>-3719800</v>
+        <v>6044600</v>
       </c>
       <c r="J10" s="3">
+        <v>-3347900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8554000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9342800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>416200</v>
+        <v>206100</v>
       </c>
       <c r="E12" s="3">
-        <v>402600</v>
+        <v>374600</v>
       </c>
       <c r="F12" s="3">
-        <v>218600</v>
+        <v>362300</v>
       </c>
       <c r="G12" s="3">
-        <v>475300</v>
+        <v>196700</v>
       </c>
       <c r="H12" s="3">
-        <v>772900</v>
+        <v>427700</v>
       </c>
       <c r="I12" s="3">
-        <v>406500</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+        <v>695600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>365900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,29 +887,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>128100</v>
+        <v>215100</v>
       </c>
       <c r="E14" s="3">
-        <v>-525500</v>
+        <v>115300</v>
       </c>
       <c r="F14" s="3">
-        <v>218700</v>
+        <v>-473000</v>
       </c>
       <c r="G14" s="3">
-        <v>2423400</v>
+        <v>196800</v>
       </c>
       <c r="H14" s="3">
-        <v>630300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>2181000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>567200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -901,39 +920,45 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>25500</v>
+        <v>75100</v>
       </c>
       <c r="E15" s="3">
-        <v>44800</v>
+        <v>23000</v>
       </c>
       <c r="F15" s="3">
-        <v>66900</v>
+        <v>40300</v>
       </c>
       <c r="G15" s="3">
-        <v>51200</v>
+        <v>60200</v>
       </c>
       <c r="H15" s="3">
-        <v>148300</v>
+        <v>46100</v>
       </c>
       <c r="I15" s="3">
-        <v>114000</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>133400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>102600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13832600</v>
+        <v>13616500</v>
       </c>
       <c r="E17" s="3">
-        <v>11911700</v>
+        <v>12449300</v>
       </c>
       <c r="F17" s="3">
-        <v>11843800</v>
+        <v>10720500</v>
       </c>
       <c r="G17" s="3">
-        <v>15190500</v>
+        <v>10659400</v>
       </c>
       <c r="H17" s="3">
-        <v>15456900</v>
+        <v>13671400</v>
       </c>
       <c r="I17" s="3">
-        <v>14578200</v>
+        <v>13911200</v>
       </c>
       <c r="J17" s="3">
+        <v>13120400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12993100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12493400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6513400</v>
+        <v>5512100</v>
       </c>
       <c r="E18" s="3">
-        <v>4651400</v>
+        <v>5862100</v>
       </c>
       <c r="F18" s="3">
-        <v>2475900</v>
+        <v>4186200</v>
       </c>
       <c r="G18" s="3">
-        <v>436800</v>
+        <v>2228300</v>
       </c>
       <c r="H18" s="3">
-        <v>4334700</v>
+        <v>393100</v>
       </c>
       <c r="I18" s="3">
-        <v>6550400</v>
+        <v>3901200</v>
       </c>
       <c r="J18" s="3">
+        <v>5895400</v>
+      </c>
+      <c r="K18" s="3">
         <v>7067100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7575600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>163200</v>
+        <v>156100</v>
       </c>
       <c r="E20" s="3">
-        <v>-24500</v>
+        <v>146900</v>
       </c>
       <c r="F20" s="3">
-        <v>471500</v>
+        <v>-22100</v>
       </c>
       <c r="G20" s="3">
-        <v>-649100</v>
+        <v>424400</v>
       </c>
       <c r="H20" s="3">
-        <v>-773100</v>
+        <v>-584200</v>
       </c>
       <c r="I20" s="3">
-        <v>192000</v>
+        <v>-695800</v>
       </c>
       <c r="J20" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-343000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-69500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8983600</v>
+        <v>7981600</v>
       </c>
       <c r="E21" s="3">
-        <v>7106800</v>
+        <v>8085200</v>
       </c>
       <c r="F21" s="3">
-        <v>5225100</v>
+        <v>6396100</v>
       </c>
       <c r="G21" s="3">
-        <v>1818800</v>
+        <v>4702600</v>
       </c>
       <c r="H21" s="3">
-        <v>6757200</v>
+        <v>1636900</v>
       </c>
       <c r="I21" s="3">
-        <v>8397900</v>
+        <v>6081500</v>
       </c>
       <c r="J21" s="3">
+        <v>7558100</v>
+      </c>
+      <c r="K21" s="3">
         <v>8217100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9141300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>719800</v>
+        <v>511500</v>
       </c>
       <c r="E22" s="3">
-        <v>715800</v>
+        <v>647800</v>
       </c>
       <c r="F22" s="3">
-        <v>829500</v>
+        <v>644200</v>
       </c>
       <c r="G22" s="3">
-        <v>530600</v>
+        <v>746600</v>
       </c>
       <c r="H22" s="3">
-        <v>226300</v>
+        <v>477500</v>
       </c>
       <c r="I22" s="3">
-        <v>177800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>203700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>160000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5956800</v>
+        <v>5156700</v>
       </c>
       <c r="E23" s="3">
-        <v>3911100</v>
+        <v>5361100</v>
       </c>
       <c r="F23" s="3">
-        <v>2117900</v>
+        <v>3520000</v>
       </c>
       <c r="G23" s="3">
-        <v>-742900</v>
+        <v>1906100</v>
       </c>
       <c r="H23" s="3">
-        <v>3335300</v>
+        <v>-668600</v>
       </c>
       <c r="I23" s="3">
-        <v>6564700</v>
+        <v>3001800</v>
       </c>
       <c r="J23" s="3">
+        <v>5908200</v>
+      </c>
+      <c r="K23" s="3">
         <v>6724000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7506100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2196600</v>
+        <v>1241000</v>
       </c>
       <c r="E24" s="3">
-        <v>1690500</v>
+        <v>1976900</v>
       </c>
       <c r="F24" s="3">
-        <v>1396600</v>
+        <v>1521400</v>
       </c>
       <c r="G24" s="3">
-        <v>182000</v>
+        <v>1257000</v>
       </c>
       <c r="H24" s="3">
-        <v>1430700</v>
+        <v>163800</v>
       </c>
       <c r="I24" s="3">
-        <v>2426700</v>
+        <v>1287700</v>
       </c>
       <c r="J24" s="3">
+        <v>2184000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2257800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2687700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3760100</v>
+        <v>3915700</v>
       </c>
       <c r="E26" s="3">
-        <v>2220600</v>
+        <v>3384100</v>
       </c>
       <c r="F26" s="3">
-        <v>721300</v>
+        <v>1998500</v>
       </c>
       <c r="G26" s="3">
-        <v>-924900</v>
+        <v>649100</v>
       </c>
       <c r="H26" s="3">
-        <v>1904600</v>
+        <v>-832400</v>
       </c>
       <c r="I26" s="3">
-        <v>4138000</v>
+        <v>1714100</v>
       </c>
       <c r="J26" s="3">
+        <v>3724200</v>
+      </c>
+      <c r="K26" s="3">
         <v>4466200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4818400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3466900</v>
+        <v>3577900</v>
       </c>
       <c r="E27" s="3">
-        <v>1986100</v>
+        <v>3120200</v>
       </c>
       <c r="F27" s="3">
-        <v>469400</v>
+        <v>1787500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1196300</v>
+        <v>422500</v>
       </c>
       <c r="H27" s="3">
-        <v>1717700</v>
+        <v>-1076700</v>
       </c>
       <c r="I27" s="3">
-        <v>3932000</v>
+        <v>1545900</v>
       </c>
       <c r="J27" s="3">
+        <v>3538800</v>
+      </c>
+      <c r="K27" s="3">
         <v>4408700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4741500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-163200</v>
+        <v>-156100</v>
       </c>
       <c r="E32" s="3">
-        <v>24500</v>
+        <v>-146900</v>
       </c>
       <c r="F32" s="3">
-        <v>-471500</v>
+        <v>22100</v>
       </c>
       <c r="G32" s="3">
-        <v>649100</v>
+        <v>-424400</v>
       </c>
       <c r="H32" s="3">
-        <v>773100</v>
+        <v>584200</v>
       </c>
       <c r="I32" s="3">
-        <v>-192000</v>
+        <v>695800</v>
       </c>
       <c r="J32" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="K32" s="3">
         <v>343000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>69500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3466900</v>
+        <v>3577900</v>
       </c>
       <c r="E33" s="3">
-        <v>1986100</v>
+        <v>3120200</v>
       </c>
       <c r="F33" s="3">
-        <v>469400</v>
+        <v>1787500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1196300</v>
+        <v>422500</v>
       </c>
       <c r="H33" s="3">
-        <v>1717700</v>
+        <v>-1076700</v>
       </c>
       <c r="I33" s="3">
-        <v>3932000</v>
+        <v>1545900</v>
       </c>
       <c r="J33" s="3">
+        <v>3538800</v>
+      </c>
+      <c r="K33" s="3">
         <v>4408700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4741500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3466900</v>
+        <v>3577900</v>
       </c>
       <c r="E35" s="3">
-        <v>1986100</v>
+        <v>3120200</v>
       </c>
       <c r="F35" s="3">
-        <v>469400</v>
+        <v>1787500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1196300</v>
+        <v>422500</v>
       </c>
       <c r="H35" s="3">
-        <v>1717700</v>
+        <v>-1076700</v>
       </c>
       <c r="I35" s="3">
-        <v>3932000</v>
+        <v>1545900</v>
       </c>
       <c r="J35" s="3">
+        <v>3538800</v>
+      </c>
+      <c r="K35" s="3">
         <v>4408700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4741500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1893500</v>
+        <v>1910500</v>
       </c>
       <c r="E41" s="3">
-        <v>2383800</v>
+        <v>1704200</v>
       </c>
       <c r="F41" s="3">
-        <v>2523100</v>
+        <v>2145400</v>
       </c>
       <c r="G41" s="3">
-        <v>1965100</v>
+        <v>2270800</v>
       </c>
       <c r="H41" s="3">
-        <v>4695300</v>
+        <v>1768600</v>
       </c>
       <c r="I41" s="3">
-        <v>5277400</v>
+        <v>4225700</v>
       </c>
       <c r="J41" s="3">
+        <v>4749700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2391700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2263500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1596300</v>
+        <v>477600</v>
       </c>
       <c r="E42" s="3">
-        <v>890400</v>
+        <v>1436700</v>
       </c>
       <c r="F42" s="3">
-        <v>1610100</v>
+        <v>801300</v>
       </c>
       <c r="G42" s="3">
-        <v>372800</v>
+        <v>1449100</v>
       </c>
       <c r="H42" s="3">
-        <v>1046000</v>
+        <v>335500</v>
       </c>
       <c r="I42" s="3">
-        <v>988600</v>
+        <v>941400</v>
       </c>
       <c r="J42" s="3">
+        <v>889700</v>
+      </c>
+      <c r="K42" s="3">
         <v>802000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>297000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2929300</v>
+        <v>2213500</v>
       </c>
       <c r="E43" s="3">
-        <v>2194700</v>
+        <v>2636300</v>
       </c>
       <c r="F43" s="3">
-        <v>1825200</v>
+        <v>1975200</v>
       </c>
       <c r="G43" s="3">
-        <v>2516800</v>
+        <v>1642700</v>
       </c>
       <c r="H43" s="3">
-        <v>3461900</v>
+        <v>2265100</v>
       </c>
       <c r="I43" s="3">
-        <v>1853100</v>
+        <v>3115700</v>
       </c>
       <c r="J43" s="3">
+        <v>1667800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1822800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1752000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1530100</v>
+        <v>1527700</v>
       </c>
       <c r="E44" s="3">
-        <v>1380400</v>
+        <v>1377100</v>
       </c>
       <c r="F44" s="3">
-        <v>1152600</v>
+        <v>1242400</v>
       </c>
       <c r="G44" s="3">
-        <v>917400</v>
+        <v>1037300</v>
       </c>
       <c r="H44" s="3">
-        <v>2019300</v>
+        <v>825600</v>
       </c>
       <c r="I44" s="3">
-        <v>2050600</v>
+        <v>1817400</v>
       </c>
       <c r="J44" s="3">
+        <v>1845600</v>
+      </c>
+      <c r="K44" s="3">
         <v>801100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>862800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>159900</v>
+        <v>179200</v>
       </c>
       <c r="E45" s="3">
-        <v>118000</v>
+        <v>143900</v>
       </c>
       <c r="F45" s="3">
-        <v>127700</v>
+        <v>106200</v>
       </c>
       <c r="G45" s="3">
-        <v>261900</v>
+        <v>114900</v>
       </c>
       <c r="H45" s="3">
-        <v>1664200</v>
+        <v>235700</v>
       </c>
       <c r="I45" s="3">
-        <v>2852000</v>
+        <v>1497800</v>
       </c>
       <c r="J45" s="3">
+        <v>2566800</v>
+      </c>
+      <c r="K45" s="3">
         <v>740000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>523800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8109200</v>
+        <v>6308400</v>
       </c>
       <c r="E46" s="3">
-        <v>6967200</v>
+        <v>7298300</v>
       </c>
       <c r="F46" s="3">
-        <v>7238700</v>
+        <v>6270500</v>
       </c>
       <c r="G46" s="3">
-        <v>6034000</v>
+        <v>6514900</v>
       </c>
       <c r="H46" s="3">
-        <v>6192200</v>
+        <v>5430600</v>
       </c>
       <c r="I46" s="3">
-        <v>8795300</v>
+        <v>5573000</v>
       </c>
       <c r="J46" s="3">
+        <v>7915800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6048800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5699000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1628000</v>
+        <v>1994500</v>
       </c>
       <c r="E47" s="3">
-        <v>1702000</v>
+        <v>1465200</v>
       </c>
       <c r="F47" s="3">
-        <v>1096000</v>
+        <v>1531800</v>
       </c>
       <c r="G47" s="3">
-        <v>1131800</v>
+        <v>986400</v>
       </c>
       <c r="H47" s="3">
-        <v>1330100</v>
+        <v>1018600</v>
       </c>
       <c r="I47" s="3">
-        <v>1588000</v>
+        <v>1197100</v>
       </c>
       <c r="J47" s="3">
+        <v>1429200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4023200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2246100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25753700</v>
+        <v>25306800</v>
       </c>
       <c r="E48" s="3">
-        <v>24800400</v>
+        <v>23178300</v>
       </c>
       <c r="F48" s="3">
-        <v>25383000</v>
+        <v>22320400</v>
       </c>
       <c r="G48" s="3">
-        <v>26722200</v>
+        <v>22844700</v>
       </c>
       <c r="H48" s="3">
-        <v>49071000</v>
+        <v>24050000</v>
       </c>
       <c r="I48" s="3">
-        <v>38688500</v>
+        <v>44163900</v>
       </c>
       <c r="J48" s="3">
+        <v>34819700</v>
+      </c>
+      <c r="K48" s="3">
         <v>25117800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13214700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>399100</v>
+        <v>378700</v>
       </c>
       <c r="E49" s="3">
-        <v>389900</v>
+        <v>359200</v>
       </c>
       <c r="F49" s="3">
-        <v>357500</v>
+        <v>350900</v>
       </c>
       <c r="G49" s="3">
-        <v>392200</v>
+        <v>321700</v>
       </c>
       <c r="H49" s="3">
-        <v>574100</v>
+        <v>353000</v>
       </c>
       <c r="I49" s="3">
-        <v>1069000</v>
+        <v>516700</v>
       </c>
       <c r="J49" s="3">
+        <v>962100</v>
+      </c>
+      <c r="K49" s="3">
         <v>379300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>444300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1982200</v>
+        <v>2582500</v>
       </c>
       <c r="E52" s="3">
-        <v>1808200</v>
+        <v>1784000</v>
       </c>
       <c r="F52" s="3">
-        <v>2316900</v>
+        <v>1627400</v>
       </c>
       <c r="G52" s="3">
-        <v>2618500</v>
+        <v>2085200</v>
       </c>
       <c r="H52" s="3">
-        <v>12230700</v>
+        <v>2356700</v>
       </c>
       <c r="I52" s="3">
-        <v>10098900</v>
+        <v>11007600</v>
       </c>
       <c r="J52" s="3">
+        <v>9089100</v>
+      </c>
+      <c r="K52" s="3">
         <v>981000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1086700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37872200</v>
+        <v>36571000</v>
       </c>
       <c r="E54" s="3">
-        <v>35667800</v>
+        <v>34085000</v>
       </c>
       <c r="F54" s="3">
-        <v>36392200</v>
+        <v>32101000</v>
       </c>
       <c r="G54" s="3">
-        <v>36898800</v>
+        <v>32753000</v>
       </c>
       <c r="H54" s="3">
-        <v>33251400</v>
+        <v>33208900</v>
       </c>
       <c r="I54" s="3">
-        <v>39728400</v>
+        <v>29926200</v>
       </c>
       <c r="J54" s="3">
+        <v>35755600</v>
+      </c>
+      <c r="K54" s="3">
         <v>24455800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22690900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2063600</v>
+        <v>2191100</v>
       </c>
       <c r="E57" s="3">
-        <v>1526700</v>
+        <v>1857200</v>
       </c>
       <c r="F57" s="3">
-        <v>1400900</v>
+        <v>1374000</v>
       </c>
       <c r="G57" s="3">
-        <v>1494000</v>
+        <v>1260800</v>
       </c>
       <c r="H57" s="3">
-        <v>4493200</v>
+        <v>1344600</v>
       </c>
       <c r="I57" s="3">
-        <v>4080500</v>
+        <v>4043900</v>
       </c>
       <c r="J57" s="3">
+        <v>3672400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2170000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1613900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1206000</v>
+        <v>1353300</v>
       </c>
       <c r="E58" s="3">
-        <v>1543400</v>
+        <v>1085400</v>
       </c>
       <c r="F58" s="3">
-        <v>1237900</v>
+        <v>1389000</v>
       </c>
       <c r="G58" s="3">
-        <v>1372100</v>
+        <v>1114100</v>
       </c>
       <c r="H58" s="3">
-        <v>1055300</v>
+        <v>1234900</v>
       </c>
       <c r="I58" s="3">
-        <v>270400</v>
+        <v>949700</v>
       </c>
       <c r="J58" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K58" s="3">
         <v>647700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>302800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2077900</v>
+        <v>2326100</v>
       </c>
       <c r="E59" s="3">
-        <v>1983900</v>
+        <v>1870100</v>
       </c>
       <c r="F59" s="3">
-        <v>2277500</v>
+        <v>1785600</v>
       </c>
       <c r="G59" s="3">
-        <v>2367000</v>
+        <v>2049700</v>
       </c>
       <c r="H59" s="3">
-        <v>2357200</v>
+        <v>2130300</v>
       </c>
       <c r="I59" s="3">
-        <v>4807900</v>
+        <v>2121500</v>
       </c>
       <c r="J59" s="3">
+        <v>4327100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2920800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2558000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5347400</v>
+        <v>5870400</v>
       </c>
       <c r="E60" s="3">
-        <v>5054000</v>
+        <v>4812600</v>
       </c>
       <c r="F60" s="3">
-        <v>4916200</v>
+        <v>4548600</v>
       </c>
       <c r="G60" s="3">
-        <v>5233100</v>
+        <v>4424600</v>
       </c>
       <c r="H60" s="3">
-        <v>5053100</v>
+        <v>4709800</v>
       </c>
       <c r="I60" s="3">
-        <v>6670700</v>
+        <v>4547800</v>
       </c>
       <c r="J60" s="3">
+        <v>6003600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5337600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4474700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10212800</v>
+        <v>8971300</v>
       </c>
       <c r="E61" s="3">
-        <v>11521000</v>
+        <v>9191500</v>
       </c>
       <c r="F61" s="3">
-        <v>14428700</v>
+        <v>10368900</v>
       </c>
       <c r="G61" s="3">
-        <v>14594900</v>
+        <v>12985900</v>
       </c>
       <c r="H61" s="3">
-        <v>9457200</v>
+        <v>13135400</v>
       </c>
       <c r="I61" s="3">
-        <v>6427200</v>
+        <v>8511500</v>
       </c>
       <c r="J61" s="3">
+        <v>5784500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4013200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2799300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4520700</v>
+        <v>5436400</v>
       </c>
       <c r="E62" s="3">
-        <v>4158400</v>
+        <v>4068600</v>
       </c>
       <c r="F62" s="3">
-        <v>3451400</v>
+        <v>3742600</v>
       </c>
       <c r="G62" s="3">
-        <v>3501300</v>
+        <v>3106200</v>
       </c>
       <c r="H62" s="3">
-        <v>6784900</v>
+        <v>3151100</v>
       </c>
       <c r="I62" s="3">
-        <v>4014300</v>
+        <v>6106400</v>
       </c>
       <c r="J62" s="3">
+        <v>3612900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3242300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3147000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20708100</v>
+        <v>21339600</v>
       </c>
       <c r="E66" s="3">
-        <v>21298200</v>
+        <v>18637300</v>
       </c>
       <c r="F66" s="3">
-        <v>23290100</v>
+        <v>19168400</v>
       </c>
       <c r="G66" s="3">
-        <v>23891800</v>
+        <v>20961100</v>
       </c>
       <c r="H66" s="3">
-        <v>18844900</v>
+        <v>21502600</v>
       </c>
       <c r="I66" s="3">
-        <v>18392600</v>
+        <v>16960400</v>
       </c>
       <c r="J66" s="3">
+        <v>16553400</v>
+      </c>
+      <c r="K66" s="3">
         <v>13161300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11153200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5335100</v>
+        <v>4941100</v>
       </c>
       <c r="E72" s="3">
-        <v>2966000</v>
+        <v>4801600</v>
       </c>
       <c r="F72" s="3">
-        <v>1263900</v>
+        <v>2669400</v>
       </c>
       <c r="G72" s="3">
-        <v>801600</v>
+        <v>1137500</v>
       </c>
       <c r="H72" s="3">
-        <v>30137000</v>
+        <v>721400</v>
       </c>
       <c r="I72" s="3">
-        <v>23868800</v>
+        <v>27123300</v>
       </c>
       <c r="J72" s="3">
+        <v>21481900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15050300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7271700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17164100</v>
+        <v>15231300</v>
       </c>
       <c r="E76" s="3">
-        <v>14369600</v>
+        <v>15447700</v>
       </c>
       <c r="F76" s="3">
-        <v>13102200</v>
+        <v>12932600</v>
       </c>
       <c r="G76" s="3">
-        <v>13007000</v>
+        <v>11791900</v>
       </c>
       <c r="H76" s="3">
-        <v>14406400</v>
+        <v>11706300</v>
       </c>
       <c r="I76" s="3">
-        <v>21335800</v>
+        <v>12965800</v>
       </c>
       <c r="J76" s="3">
+        <v>19202200</v>
+      </c>
+      <c r="K76" s="3">
         <v>11294500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11537700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3466900</v>
+        <v>3577900</v>
       </c>
       <c r="E81" s="3">
-        <v>1986100</v>
+        <v>3120200</v>
       </c>
       <c r="F81" s="3">
-        <v>469400</v>
+        <v>1787500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1196300</v>
+        <v>422500</v>
       </c>
       <c r="H81" s="3">
-        <v>1717700</v>
+        <v>-1076700</v>
       </c>
       <c r="I81" s="3">
-        <v>3932000</v>
+        <v>1545900</v>
       </c>
       <c r="J81" s="3">
+        <v>3538800</v>
+      </c>
+      <c r="K81" s="3">
         <v>4408700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4741500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2307000</v>
+        <v>2313300</v>
       </c>
       <c r="E83" s="3">
-        <v>2479900</v>
+        <v>2076300</v>
       </c>
       <c r="F83" s="3">
-        <v>2277600</v>
+        <v>2232000</v>
       </c>
       <c r="G83" s="3">
-        <v>2031100</v>
+        <v>2049900</v>
       </c>
       <c r="H83" s="3">
-        <v>3195600</v>
+        <v>1828000</v>
       </c>
       <c r="I83" s="3">
-        <v>1655400</v>
+        <v>2876100</v>
       </c>
       <c r="J83" s="3">
+        <v>1489900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1493100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1635100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6717700</v>
+        <v>7482200</v>
       </c>
       <c r="E89" s="3">
-        <v>5092100</v>
+        <v>6046000</v>
       </c>
       <c r="F89" s="3">
-        <v>4331400</v>
+        <v>4582900</v>
       </c>
       <c r="G89" s="3">
-        <v>3123400</v>
+        <v>3898300</v>
       </c>
       <c r="H89" s="3">
-        <v>4971900</v>
+        <v>2811100</v>
       </c>
       <c r="I89" s="3">
-        <v>5256800</v>
+        <v>4474700</v>
       </c>
       <c r="J89" s="3">
+        <v>4731100</v>
+      </c>
+      <c r="K89" s="3">
         <v>6038200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7091300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2506400</v>
+        <v>-3728900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1736900</v>
+        <v>-2255800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1730500</v>
+        <v>-1563200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4241800</v>
+        <v>-1557400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4188600</v>
+        <v>-3817600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2388000</v>
+        <v>-3769700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2149200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3232100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2592600</v>
+        <v>-2709700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1315100</v>
+        <v>-2333400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2876600</v>
+        <v>-1183600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3463500</v>
+        <v>-2588900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3470700</v>
+        <v>-3117200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2898700</v>
+        <v>-3123600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2608900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4804000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4673200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1328300</v>
+        <v>-3744100</v>
       </c>
       <c r="E96" s="3">
-        <v>-451400</v>
+        <v>-1195500</v>
       </c>
       <c r="F96" s="3">
-        <v>-513700</v>
+        <v>-406300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1648000</v>
+        <v>-462300</v>
       </c>
       <c r="H96" s="3">
-        <v>-536800</v>
+        <v>-1483200</v>
       </c>
       <c r="I96" s="3">
-        <v>-4371100</v>
+        <v>-483100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3934000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2525800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1890200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4737200</v>
+        <v>-4636000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3829200</v>
+        <v>-4263500</v>
       </c>
       <c r="F100" s="3">
-        <v>-828900</v>
+        <v>-3446300</v>
       </c>
       <c r="G100" s="3">
-        <v>-417700</v>
+        <v>-746000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2203900</v>
+        <v>-375900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2123300</v>
+        <v>-1983500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1911000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1037200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>121900</v>
+        <v>69800</v>
       </c>
       <c r="E101" s="3">
-        <v>-87100</v>
+        <v>109700</v>
       </c>
       <c r="F101" s="3">
-        <v>-67900</v>
+        <v>-78400</v>
       </c>
       <c r="G101" s="3">
-        <v>437400</v>
+        <v>-61100</v>
       </c>
       <c r="H101" s="3">
-        <v>346600</v>
+        <v>393700</v>
       </c>
       <c r="I101" s="3">
-        <v>35500</v>
+        <v>311900</v>
       </c>
       <c r="J101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K101" s="3">
         <v>72600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-490200</v>
+        <v>206300</v>
       </c>
       <c r="E102" s="3">
-        <v>-139400</v>
+        <v>-441200</v>
       </c>
       <c r="F102" s="3">
-        <v>558000</v>
+        <v>-125400</v>
       </c>
       <c r="G102" s="3">
-        <v>-320300</v>
+        <v>502200</v>
       </c>
       <c r="H102" s="3">
-        <v>-356100</v>
+        <v>-288300</v>
       </c>
       <c r="I102" s="3">
-        <v>270200</v>
+        <v>-320500</v>
       </c>
       <c r="J102" s="3">
+        <v>243200</v>
+      </c>
+      <c r="K102" s="3">
         <v>269600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1012100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19128600</v>
+        <v>18420200</v>
       </c>
       <c r="E8" s="3">
-        <v>18311400</v>
+        <v>17633200</v>
       </c>
       <c r="F8" s="3">
-        <v>14906800</v>
+        <v>14354700</v>
       </c>
       <c r="G8" s="3">
-        <v>12887700</v>
+        <v>12410400</v>
       </c>
       <c r="H8" s="3">
-        <v>14064600</v>
+        <v>13543600</v>
       </c>
       <c r="I8" s="3">
-        <v>17812400</v>
+        <v>17152700</v>
       </c>
       <c r="J8" s="3">
-        <v>19015800</v>
+        <v>18311500</v>
       </c>
       <c r="K8" s="3">
         <v>20060100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12138500</v>
+        <v>11689000</v>
       </c>
       <c r="E9" s="3">
-        <v>11115800</v>
+        <v>10704100</v>
       </c>
       <c r="F9" s="3">
-        <v>9961200</v>
+        <v>9592300</v>
       </c>
       <c r="G9" s="3">
-        <v>9243900</v>
+        <v>8901500</v>
       </c>
       <c r="H9" s="3">
-        <v>9988500</v>
+        <v>9618600</v>
       </c>
       <c r="I9" s="3">
-        <v>11767800</v>
+        <v>11331900</v>
       </c>
       <c r="J9" s="3">
-        <v>22363600</v>
+        <v>21535300</v>
       </c>
       <c r="K9" s="3">
         <v>11506100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6990100</v>
+        <v>6731200</v>
       </c>
       <c r="E10" s="3">
-        <v>7195600</v>
+        <v>6929100</v>
       </c>
       <c r="F10" s="3">
-        <v>4945500</v>
+        <v>4762400</v>
       </c>
       <c r="G10" s="3">
-        <v>3643900</v>
+        <v>3508900</v>
       </c>
       <c r="H10" s="3">
-        <v>4076000</v>
+        <v>3925100</v>
       </c>
       <c r="I10" s="3">
-        <v>6044600</v>
+        <v>5820800</v>
       </c>
       <c r="J10" s="3">
-        <v>-3347900</v>
+        <v>-3223900</v>
       </c>
       <c r="K10" s="3">
         <v>8554000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>206100</v>
+        <v>198500</v>
       </c>
       <c r="E12" s="3">
-        <v>374600</v>
+        <v>360700</v>
       </c>
       <c r="F12" s="3">
-        <v>362300</v>
+        <v>348900</v>
       </c>
       <c r="G12" s="3">
-        <v>196700</v>
+        <v>189400</v>
       </c>
       <c r="H12" s="3">
-        <v>427700</v>
+        <v>411900</v>
       </c>
       <c r="I12" s="3">
-        <v>695600</v>
+        <v>669800</v>
       </c>
       <c r="J12" s="3">
-        <v>365900</v>
+        <v>352300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>215100</v>
+        <v>207100</v>
       </c>
       <c r="E14" s="3">
-        <v>115300</v>
+        <v>111000</v>
       </c>
       <c r="F14" s="3">
-        <v>-473000</v>
+        <v>-455400</v>
       </c>
       <c r="G14" s="3">
-        <v>196800</v>
+        <v>189500</v>
       </c>
       <c r="H14" s="3">
-        <v>2181000</v>
+        <v>2100200</v>
       </c>
       <c r="I14" s="3">
-        <v>567200</v>
+        <v>546200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>75100</v>
+        <v>72300</v>
       </c>
       <c r="E15" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="F15" s="3">
-        <v>40300</v>
+        <v>38800</v>
       </c>
       <c r="G15" s="3">
-        <v>60200</v>
+        <v>58000</v>
       </c>
       <c r="H15" s="3">
-        <v>46100</v>
+        <v>44400</v>
       </c>
       <c r="I15" s="3">
-        <v>133400</v>
+        <v>128500</v>
       </c>
       <c r="J15" s="3">
-        <v>102600</v>
+        <v>98800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13616500</v>
+        <v>13112200</v>
       </c>
       <c r="E17" s="3">
-        <v>12449300</v>
+        <v>11988200</v>
       </c>
       <c r="F17" s="3">
-        <v>10720500</v>
+        <v>10323500</v>
       </c>
       <c r="G17" s="3">
-        <v>10659400</v>
+        <v>10264600</v>
       </c>
       <c r="H17" s="3">
-        <v>13671400</v>
+        <v>13165100</v>
       </c>
       <c r="I17" s="3">
-        <v>13911200</v>
+        <v>13395900</v>
       </c>
       <c r="J17" s="3">
-        <v>13120400</v>
+        <v>12634400</v>
       </c>
       <c r="K17" s="3">
         <v>12993100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5512100</v>
+        <v>5307900</v>
       </c>
       <c r="E18" s="3">
-        <v>5862100</v>
+        <v>5645000</v>
       </c>
       <c r="F18" s="3">
-        <v>4186200</v>
+        <v>4031200</v>
       </c>
       <c r="G18" s="3">
-        <v>2228300</v>
+        <v>2145800</v>
       </c>
       <c r="H18" s="3">
-        <v>393100</v>
+        <v>378500</v>
       </c>
       <c r="I18" s="3">
-        <v>3901200</v>
+        <v>3756700</v>
       </c>
       <c r="J18" s="3">
-        <v>5895400</v>
+        <v>5677000</v>
       </c>
       <c r="K18" s="3">
         <v>7067100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>156100</v>
+        <v>150400</v>
       </c>
       <c r="E20" s="3">
-        <v>146900</v>
+        <v>141400</v>
       </c>
       <c r="F20" s="3">
-        <v>-22100</v>
+        <v>-21300</v>
       </c>
       <c r="G20" s="3">
-        <v>424400</v>
+        <v>408700</v>
       </c>
       <c r="H20" s="3">
-        <v>-584200</v>
+        <v>-562500</v>
       </c>
       <c r="I20" s="3">
-        <v>-695800</v>
+        <v>-670000</v>
       </c>
       <c r="J20" s="3">
-        <v>172800</v>
+        <v>166400</v>
       </c>
       <c r="K20" s="3">
         <v>-343000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7981600</v>
+        <v>7685900</v>
       </c>
       <c r="E21" s="3">
-        <v>8085200</v>
+        <v>7785800</v>
       </c>
       <c r="F21" s="3">
-        <v>6396100</v>
+        <v>6159200</v>
       </c>
       <c r="G21" s="3">
-        <v>4702600</v>
+        <v>4528400</v>
       </c>
       <c r="H21" s="3">
-        <v>1636900</v>
+        <v>1576300</v>
       </c>
       <c r="I21" s="3">
-        <v>6081500</v>
+        <v>5856300</v>
       </c>
       <c r="J21" s="3">
-        <v>7558100</v>
+        <v>7278200</v>
       </c>
       <c r="K21" s="3">
         <v>8217100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>511500</v>
+        <v>492600</v>
       </c>
       <c r="E22" s="3">
-        <v>647800</v>
+        <v>623800</v>
       </c>
       <c r="F22" s="3">
-        <v>644200</v>
+        <v>620400</v>
       </c>
       <c r="G22" s="3">
-        <v>746600</v>
+        <v>718900</v>
       </c>
       <c r="H22" s="3">
-        <v>477500</v>
+        <v>459800</v>
       </c>
       <c r="I22" s="3">
-        <v>203700</v>
+        <v>196100</v>
       </c>
       <c r="J22" s="3">
-        <v>160000</v>
+        <v>154100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5156700</v>
+        <v>4965700</v>
       </c>
       <c r="E23" s="3">
-        <v>5361100</v>
+        <v>5162500</v>
       </c>
       <c r="F23" s="3">
-        <v>3520000</v>
+        <v>3389600</v>
       </c>
       <c r="G23" s="3">
-        <v>1906100</v>
+        <v>1835500</v>
       </c>
       <c r="H23" s="3">
-        <v>-668600</v>
+        <v>-643800</v>
       </c>
       <c r="I23" s="3">
-        <v>3001800</v>
+        <v>2890600</v>
       </c>
       <c r="J23" s="3">
-        <v>5908200</v>
+        <v>5689400</v>
       </c>
       <c r="K23" s="3">
         <v>6724000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1241000</v>
+        <v>1195100</v>
       </c>
       <c r="E24" s="3">
-        <v>1976900</v>
+        <v>1903700</v>
       </c>
       <c r="F24" s="3">
-        <v>1521400</v>
+        <v>1465100</v>
       </c>
       <c r="G24" s="3">
-        <v>1257000</v>
+        <v>1210400</v>
       </c>
       <c r="H24" s="3">
-        <v>163800</v>
+        <v>157700</v>
       </c>
       <c r="I24" s="3">
-        <v>1287700</v>
+        <v>1240000</v>
       </c>
       <c r="J24" s="3">
-        <v>2184000</v>
+        <v>2103100</v>
       </c>
       <c r="K24" s="3">
         <v>2257800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3915700</v>
+        <v>3770600</v>
       </c>
       <c r="E26" s="3">
-        <v>3384100</v>
+        <v>3258800</v>
       </c>
       <c r="F26" s="3">
-        <v>1998500</v>
+        <v>1924500</v>
       </c>
       <c r="G26" s="3">
-        <v>649100</v>
+        <v>625100</v>
       </c>
       <c r="H26" s="3">
-        <v>-832400</v>
+        <v>-801500</v>
       </c>
       <c r="I26" s="3">
-        <v>1714100</v>
+        <v>1650600</v>
       </c>
       <c r="J26" s="3">
-        <v>3724200</v>
+        <v>3586300</v>
       </c>
       <c r="K26" s="3">
         <v>4466200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="E27" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="F27" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="G27" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="I27" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="J27" s="3">
-        <v>3538800</v>
+        <v>3407700</v>
       </c>
       <c r="K27" s="3">
         <v>4408700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-156100</v>
+        <v>-150400</v>
       </c>
       <c r="E32" s="3">
-        <v>-146900</v>
+        <v>-141400</v>
       </c>
       <c r="F32" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="G32" s="3">
-        <v>-424400</v>
+        <v>-408700</v>
       </c>
       <c r="H32" s="3">
-        <v>584200</v>
+        <v>562500</v>
       </c>
       <c r="I32" s="3">
-        <v>695800</v>
+        <v>670000</v>
       </c>
       <c r="J32" s="3">
-        <v>-172800</v>
+        <v>-166400</v>
       </c>
       <c r="K32" s="3">
         <v>343000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="E33" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="F33" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="G33" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="H33" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="I33" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="J33" s="3">
-        <v>3538800</v>
+        <v>3407700</v>
       </c>
       <c r="K33" s="3">
         <v>4408700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="E35" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="F35" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="G35" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="H35" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="I35" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="J35" s="3">
-        <v>3538800</v>
+        <v>3407700</v>
       </c>
       <c r="K35" s="3">
         <v>4408700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1910500</v>
+        <v>1839700</v>
       </c>
       <c r="E41" s="3">
-        <v>1704200</v>
+        <v>1641100</v>
       </c>
       <c r="F41" s="3">
-        <v>2145400</v>
+        <v>2065900</v>
       </c>
       <c r="G41" s="3">
-        <v>2270800</v>
+        <v>2186700</v>
       </c>
       <c r="H41" s="3">
-        <v>1768600</v>
+        <v>1703100</v>
       </c>
       <c r="I41" s="3">
-        <v>4225700</v>
+        <v>4069200</v>
       </c>
       <c r="J41" s="3">
-        <v>4749700</v>
+        <v>4573800</v>
       </c>
       <c r="K41" s="3">
         <v>2391700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>477600</v>
+        <v>459900</v>
       </c>
       <c r="E42" s="3">
-        <v>1436700</v>
+        <v>1383500</v>
       </c>
       <c r="F42" s="3">
-        <v>801300</v>
+        <v>771600</v>
       </c>
       <c r="G42" s="3">
-        <v>1449100</v>
+        <v>1395500</v>
       </c>
       <c r="H42" s="3">
-        <v>335500</v>
+        <v>323100</v>
       </c>
       <c r="I42" s="3">
-        <v>941400</v>
+        <v>906500</v>
       </c>
       <c r="J42" s="3">
-        <v>889700</v>
+        <v>856800</v>
       </c>
       <c r="K42" s="3">
         <v>802000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2213500</v>
+        <v>2131500</v>
       </c>
       <c r="E43" s="3">
-        <v>2636300</v>
+        <v>2538700</v>
       </c>
       <c r="F43" s="3">
-        <v>1975200</v>
+        <v>1902100</v>
       </c>
       <c r="G43" s="3">
-        <v>1642700</v>
+        <v>1581800</v>
       </c>
       <c r="H43" s="3">
-        <v>2265100</v>
+        <v>2181200</v>
       </c>
       <c r="I43" s="3">
-        <v>3115700</v>
+        <v>3000300</v>
       </c>
       <c r="J43" s="3">
-        <v>1667800</v>
+        <v>1606000</v>
       </c>
       <c r="K43" s="3">
         <v>1822800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1527700</v>
+        <v>1471100</v>
       </c>
       <c r="E44" s="3">
-        <v>1377100</v>
+        <v>1326100</v>
       </c>
       <c r="F44" s="3">
-        <v>1242400</v>
+        <v>1196400</v>
       </c>
       <c r="G44" s="3">
-        <v>1037300</v>
+        <v>998900</v>
       </c>
       <c r="H44" s="3">
-        <v>825600</v>
+        <v>795100</v>
       </c>
       <c r="I44" s="3">
-        <v>1817400</v>
+        <v>1750000</v>
       </c>
       <c r="J44" s="3">
-        <v>1845600</v>
+        <v>1777200</v>
       </c>
       <c r="K44" s="3">
         <v>801100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>179200</v>
+        <v>172500</v>
       </c>
       <c r="E45" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="F45" s="3">
-        <v>106200</v>
+        <v>102200</v>
       </c>
       <c r="G45" s="3">
-        <v>114900</v>
+        <v>110700</v>
       </c>
       <c r="H45" s="3">
-        <v>235700</v>
+        <v>226900</v>
       </c>
       <c r="I45" s="3">
-        <v>1497800</v>
+        <v>1442300</v>
       </c>
       <c r="J45" s="3">
-        <v>2566800</v>
+        <v>2471700</v>
       </c>
       <c r="K45" s="3">
         <v>740000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6308400</v>
+        <v>6074800</v>
       </c>
       <c r="E46" s="3">
-        <v>7298300</v>
+        <v>7028000</v>
       </c>
       <c r="F46" s="3">
-        <v>6270500</v>
+        <v>6038200</v>
       </c>
       <c r="G46" s="3">
-        <v>6514900</v>
+        <v>6273600</v>
       </c>
       <c r="H46" s="3">
-        <v>5430600</v>
+        <v>5229500</v>
       </c>
       <c r="I46" s="3">
-        <v>5573000</v>
+        <v>5366600</v>
       </c>
       <c r="J46" s="3">
-        <v>7915800</v>
+        <v>7622600</v>
       </c>
       <c r="K46" s="3">
         <v>6048800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1994500</v>
+        <v>1920700</v>
       </c>
       <c r="E47" s="3">
-        <v>1465200</v>
+        <v>1410900</v>
       </c>
       <c r="F47" s="3">
-        <v>1531800</v>
+        <v>1475100</v>
       </c>
       <c r="G47" s="3">
-        <v>986400</v>
+        <v>949900</v>
       </c>
       <c r="H47" s="3">
-        <v>1018600</v>
+        <v>980900</v>
       </c>
       <c r="I47" s="3">
-        <v>1197100</v>
+        <v>1152700</v>
       </c>
       <c r="J47" s="3">
-        <v>1429200</v>
+        <v>1376200</v>
       </c>
       <c r="K47" s="3">
         <v>4023200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25306800</v>
+        <v>24369500</v>
       </c>
       <c r="E48" s="3">
-        <v>23178300</v>
+        <v>22319900</v>
       </c>
       <c r="F48" s="3">
-        <v>22320400</v>
+        <v>21493700</v>
       </c>
       <c r="G48" s="3">
-        <v>22844700</v>
+        <v>21998600</v>
       </c>
       <c r="H48" s="3">
-        <v>24050000</v>
+        <v>23159300</v>
       </c>
       <c r="I48" s="3">
-        <v>44163900</v>
+        <v>42528200</v>
       </c>
       <c r="J48" s="3">
-        <v>34819700</v>
+        <v>33530100</v>
       </c>
       <c r="K48" s="3">
         <v>25117800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>378700</v>
+        <v>364700</v>
       </c>
       <c r="E49" s="3">
-        <v>359200</v>
+        <v>345800</v>
       </c>
       <c r="F49" s="3">
-        <v>350900</v>
+        <v>337900</v>
       </c>
       <c r="G49" s="3">
-        <v>321700</v>
+        <v>309800</v>
       </c>
       <c r="H49" s="3">
-        <v>353000</v>
+        <v>339900</v>
       </c>
       <c r="I49" s="3">
-        <v>516700</v>
+        <v>497600</v>
       </c>
       <c r="J49" s="3">
-        <v>962100</v>
+        <v>926500</v>
       </c>
       <c r="K49" s="3">
         <v>379300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2582500</v>
+        <v>2486900</v>
       </c>
       <c r="E52" s="3">
-        <v>1784000</v>
+        <v>1717900</v>
       </c>
       <c r="F52" s="3">
-        <v>1627400</v>
+        <v>1567100</v>
       </c>
       <c r="G52" s="3">
-        <v>2085200</v>
+        <v>2008000</v>
       </c>
       <c r="H52" s="3">
-        <v>2356700</v>
+        <v>2269400</v>
       </c>
       <c r="I52" s="3">
-        <v>11007600</v>
+        <v>10599900</v>
       </c>
       <c r="J52" s="3">
-        <v>9089100</v>
+        <v>8752400</v>
       </c>
       <c r="K52" s="3">
         <v>981000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36571000</v>
+        <v>35216500</v>
       </c>
       <c r="E54" s="3">
-        <v>34085000</v>
+        <v>32822600</v>
       </c>
       <c r="F54" s="3">
-        <v>32101000</v>
+        <v>30912100</v>
       </c>
       <c r="G54" s="3">
-        <v>32753000</v>
+        <v>31539900</v>
       </c>
       <c r="H54" s="3">
-        <v>33208900</v>
+        <v>31978900</v>
       </c>
       <c r="I54" s="3">
-        <v>29926200</v>
+        <v>28817800</v>
       </c>
       <c r="J54" s="3">
-        <v>35755600</v>
+        <v>34431300</v>
       </c>
       <c r="K54" s="3">
         <v>24455800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2191100</v>
+        <v>2109900</v>
       </c>
       <c r="E57" s="3">
-        <v>1857200</v>
+        <v>1788400</v>
       </c>
       <c r="F57" s="3">
-        <v>1374000</v>
+        <v>1323100</v>
       </c>
       <c r="G57" s="3">
-        <v>1260800</v>
+        <v>1214100</v>
       </c>
       <c r="H57" s="3">
-        <v>1344600</v>
+        <v>1294800</v>
       </c>
       <c r="I57" s="3">
-        <v>4043900</v>
+        <v>3894100</v>
       </c>
       <c r="J57" s="3">
-        <v>3672400</v>
+        <v>3536400</v>
       </c>
       <c r="K57" s="3">
         <v>2170000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1353300</v>
+        <v>1303200</v>
       </c>
       <c r="E58" s="3">
-        <v>1085400</v>
+        <v>1045200</v>
       </c>
       <c r="F58" s="3">
-        <v>1389000</v>
+        <v>1337600</v>
       </c>
       <c r="G58" s="3">
-        <v>1114100</v>
+        <v>1072800</v>
       </c>
       <c r="H58" s="3">
-        <v>1234900</v>
+        <v>1189100</v>
       </c>
       <c r="I58" s="3">
-        <v>949700</v>
+        <v>914600</v>
       </c>
       <c r="J58" s="3">
-        <v>243300</v>
+        <v>234300</v>
       </c>
       <c r="K58" s="3">
         <v>647700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2326100</v>
+        <v>2239900</v>
       </c>
       <c r="E59" s="3">
-        <v>1870100</v>
+        <v>1800800</v>
       </c>
       <c r="F59" s="3">
-        <v>1785600</v>
+        <v>1719400</v>
       </c>
       <c r="G59" s="3">
-        <v>2049700</v>
+        <v>1973800</v>
       </c>
       <c r="H59" s="3">
-        <v>2130300</v>
+        <v>2051400</v>
       </c>
       <c r="I59" s="3">
-        <v>2121500</v>
+        <v>2042900</v>
       </c>
       <c r="J59" s="3">
-        <v>4327100</v>
+        <v>4166900</v>
       </c>
       <c r="K59" s="3">
         <v>2920800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5870400</v>
+        <v>5653000</v>
       </c>
       <c r="E60" s="3">
-        <v>4812600</v>
+        <v>4634400</v>
       </c>
       <c r="F60" s="3">
-        <v>4548600</v>
+        <v>4380100</v>
       </c>
       <c r="G60" s="3">
-        <v>4424600</v>
+        <v>4260700</v>
       </c>
       <c r="H60" s="3">
-        <v>4709800</v>
+        <v>4535300</v>
       </c>
       <c r="I60" s="3">
-        <v>4547800</v>
+        <v>4379400</v>
       </c>
       <c r="J60" s="3">
-        <v>6003600</v>
+        <v>5781200</v>
       </c>
       <c r="K60" s="3">
         <v>5337600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8971300</v>
+        <v>8639000</v>
       </c>
       <c r="E61" s="3">
-        <v>9191500</v>
+        <v>8851100</v>
       </c>
       <c r="F61" s="3">
-        <v>10368900</v>
+        <v>9984900</v>
       </c>
       <c r="G61" s="3">
-        <v>12985900</v>
+        <v>12504900</v>
       </c>
       <c r="H61" s="3">
-        <v>13135400</v>
+        <v>12648900</v>
       </c>
       <c r="I61" s="3">
-        <v>8511500</v>
+        <v>8196300</v>
       </c>
       <c r="J61" s="3">
-        <v>5784500</v>
+        <v>5570200</v>
       </c>
       <c r="K61" s="3">
         <v>4013200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5436400</v>
+        <v>5235000</v>
       </c>
       <c r="E62" s="3">
-        <v>4068600</v>
+        <v>3917900</v>
       </c>
       <c r="F62" s="3">
-        <v>3742600</v>
+        <v>3603900</v>
       </c>
       <c r="G62" s="3">
-        <v>3106200</v>
+        <v>2991200</v>
       </c>
       <c r="H62" s="3">
-        <v>3151100</v>
+        <v>3034400</v>
       </c>
       <c r="I62" s="3">
-        <v>6106400</v>
+        <v>5880300</v>
       </c>
       <c r="J62" s="3">
-        <v>3612900</v>
+        <v>3479100</v>
       </c>
       <c r="K62" s="3">
         <v>3242300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21339600</v>
+        <v>20549300</v>
       </c>
       <c r="E66" s="3">
-        <v>18637300</v>
+        <v>17947000</v>
       </c>
       <c r="F66" s="3">
-        <v>19168400</v>
+        <v>18458400</v>
       </c>
       <c r="G66" s="3">
-        <v>20961100</v>
+        <v>20184700</v>
       </c>
       <c r="H66" s="3">
-        <v>21502600</v>
+        <v>20706200</v>
       </c>
       <c r="I66" s="3">
-        <v>16960400</v>
+        <v>16332300</v>
       </c>
       <c r="J66" s="3">
-        <v>16553400</v>
+        <v>15940300</v>
       </c>
       <c r="K66" s="3">
         <v>13161300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4941100</v>
+        <v>4758100</v>
       </c>
       <c r="E72" s="3">
-        <v>4801600</v>
+        <v>4623800</v>
       </c>
       <c r="F72" s="3">
-        <v>2669400</v>
+        <v>2570600</v>
       </c>
       <c r="G72" s="3">
-        <v>1137500</v>
+        <v>1095400</v>
       </c>
       <c r="H72" s="3">
-        <v>721400</v>
+        <v>694700</v>
       </c>
       <c r="I72" s="3">
-        <v>27123300</v>
+        <v>26118800</v>
       </c>
       <c r="J72" s="3">
-        <v>21481900</v>
+        <v>20686300</v>
       </c>
       <c r="K72" s="3">
         <v>15050300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15231300</v>
+        <v>14667200</v>
       </c>
       <c r="E76" s="3">
-        <v>15447700</v>
+        <v>14875500</v>
       </c>
       <c r="F76" s="3">
-        <v>12932600</v>
+        <v>12453600</v>
       </c>
       <c r="G76" s="3">
-        <v>11791900</v>
+        <v>11355200</v>
       </c>
       <c r="H76" s="3">
-        <v>11706300</v>
+        <v>11272700</v>
       </c>
       <c r="I76" s="3">
-        <v>12965800</v>
+        <v>12485600</v>
       </c>
       <c r="J76" s="3">
-        <v>19202200</v>
+        <v>18491000</v>
       </c>
       <c r="K76" s="3">
         <v>11294500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="E81" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="F81" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="G81" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="H81" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="I81" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="J81" s="3">
-        <v>3538800</v>
+        <v>3407700</v>
       </c>
       <c r="K81" s="3">
         <v>4408700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2313300</v>
+        <v>2227700</v>
       </c>
       <c r="E83" s="3">
-        <v>2076300</v>
+        <v>1999400</v>
       </c>
       <c r="F83" s="3">
-        <v>2232000</v>
+        <v>2149300</v>
       </c>
       <c r="G83" s="3">
-        <v>2049900</v>
+        <v>1974000</v>
       </c>
       <c r="H83" s="3">
-        <v>1828000</v>
+        <v>1760300</v>
       </c>
       <c r="I83" s="3">
-        <v>2876100</v>
+        <v>2769600</v>
       </c>
       <c r="J83" s="3">
-        <v>1489900</v>
+        <v>1434700</v>
       </c>
       <c r="K83" s="3">
         <v>1493100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7482200</v>
+        <v>7205100</v>
       </c>
       <c r="E89" s="3">
-        <v>6046000</v>
+        <v>5822000</v>
       </c>
       <c r="F89" s="3">
-        <v>4582900</v>
+        <v>4413100</v>
       </c>
       <c r="G89" s="3">
-        <v>3898300</v>
+        <v>3753900</v>
       </c>
       <c r="H89" s="3">
-        <v>2811100</v>
+        <v>2707000</v>
       </c>
       <c r="I89" s="3">
-        <v>4474700</v>
+        <v>4309000</v>
       </c>
       <c r="J89" s="3">
-        <v>4731100</v>
+        <v>4555900</v>
       </c>
       <c r="K89" s="3">
         <v>6038200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3728900</v>
+        <v>-3590800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2255800</v>
+        <v>-2172200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1563200</v>
+        <v>-1505300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1557400</v>
+        <v>-1499700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3817600</v>
+        <v>-3676200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3769700</v>
+        <v>-3630100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2149200</v>
+        <v>-2069600</v>
       </c>
       <c r="K91" s="3">
         <v>-2805000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2709700</v>
+        <v>-2609400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2333400</v>
+        <v>-2246900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1183600</v>
+        <v>-1139800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2588900</v>
+        <v>-2493000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3117200</v>
+        <v>-3001700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3123600</v>
+        <v>-3007900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2608900</v>
+        <v>-2512200</v>
       </c>
       <c r="K94" s="3">
         <v>-4804000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3744100</v>
+        <v>-3605400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1195500</v>
+        <v>-1151200</v>
       </c>
       <c r="F96" s="3">
-        <v>-406300</v>
+        <v>-391200</v>
       </c>
       <c r="G96" s="3">
-        <v>-462300</v>
+        <v>-445200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1483200</v>
+        <v>-1428300</v>
       </c>
       <c r="I96" s="3">
-        <v>-483100</v>
+        <v>-465200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3934000</v>
+        <v>-3788300</v>
       </c>
       <c r="K96" s="3">
         <v>-2525800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4636000</v>
+        <v>-4464300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4263500</v>
+        <v>-4105600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3446300</v>
+        <v>-3318700</v>
       </c>
       <c r="G100" s="3">
-        <v>-746000</v>
+        <v>-718400</v>
       </c>
       <c r="H100" s="3">
-        <v>-375900</v>
+        <v>-362000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1983500</v>
+        <v>-1910000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1911000</v>
+        <v>-1840200</v>
       </c>
       <c r="K100" s="3">
         <v>-1037200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69800</v>
+        <v>67200</v>
       </c>
       <c r="E101" s="3">
-        <v>109700</v>
+        <v>105600</v>
       </c>
       <c r="F101" s="3">
-        <v>-78400</v>
+        <v>-75500</v>
       </c>
       <c r="G101" s="3">
-        <v>-61100</v>
+        <v>-58800</v>
       </c>
       <c r="H101" s="3">
-        <v>393700</v>
+        <v>379100</v>
       </c>
       <c r="I101" s="3">
-        <v>311900</v>
+        <v>300300</v>
       </c>
       <c r="J101" s="3">
-        <v>31900</v>
+        <v>30700</v>
       </c>
       <c r="K101" s="3">
         <v>72600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>206300</v>
+        <v>198600</v>
       </c>
       <c r="E102" s="3">
-        <v>-441200</v>
+        <v>-424900</v>
       </c>
       <c r="F102" s="3">
-        <v>-125400</v>
+        <v>-120800</v>
       </c>
       <c r="G102" s="3">
-        <v>502200</v>
+        <v>483600</v>
       </c>
       <c r="H102" s="3">
-        <v>-288300</v>
+        <v>-277600</v>
       </c>
       <c r="I102" s="3">
-        <v>-320500</v>
+        <v>-308600</v>
       </c>
       <c r="J102" s="3">
-        <v>243200</v>
+        <v>234200</v>
       </c>
       <c r="K102" s="3">
         <v>269600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18420200</v>
+        <v>19837100</v>
       </c>
       <c r="E8" s="3">
-        <v>17633200</v>
+        <v>18989600</v>
       </c>
       <c r="F8" s="3">
-        <v>14354700</v>
+        <v>15458900</v>
       </c>
       <c r="G8" s="3">
-        <v>12410400</v>
+        <v>13365100</v>
       </c>
       <c r="H8" s="3">
-        <v>13543600</v>
+        <v>14585500</v>
       </c>
       <c r="I8" s="3">
-        <v>17152700</v>
+        <v>18472100</v>
       </c>
       <c r="J8" s="3">
-        <v>18311500</v>
+        <v>19720000</v>
       </c>
       <c r="K8" s="3">
         <v>20060100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11689000</v>
+        <v>12588100</v>
       </c>
       <c r="E9" s="3">
-        <v>10704100</v>
+        <v>11527500</v>
       </c>
       <c r="F9" s="3">
-        <v>9592300</v>
+        <v>10330200</v>
       </c>
       <c r="G9" s="3">
-        <v>8901500</v>
+        <v>9586200</v>
       </c>
       <c r="H9" s="3">
-        <v>9618600</v>
+        <v>10358500</v>
       </c>
       <c r="I9" s="3">
-        <v>11331900</v>
+        <v>12203600</v>
       </c>
       <c r="J9" s="3">
-        <v>21535300</v>
+        <v>23191900</v>
       </c>
       <c r="K9" s="3">
         <v>11506100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6731200</v>
+        <v>7249000</v>
       </c>
       <c r="E10" s="3">
-        <v>6929100</v>
+        <v>7462100</v>
       </c>
       <c r="F10" s="3">
-        <v>4762400</v>
+        <v>5128700</v>
       </c>
       <c r="G10" s="3">
-        <v>3508900</v>
+        <v>3778800</v>
       </c>
       <c r="H10" s="3">
-        <v>3925100</v>
+        <v>4227000</v>
       </c>
       <c r="I10" s="3">
-        <v>5820800</v>
+        <v>6268500</v>
       </c>
       <c r="J10" s="3">
-        <v>-3223900</v>
+        <v>-3471800</v>
       </c>
       <c r="K10" s="3">
         <v>8554000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>198500</v>
+        <v>213800</v>
       </c>
       <c r="E12" s="3">
-        <v>360700</v>
+        <v>388500</v>
       </c>
       <c r="F12" s="3">
-        <v>348900</v>
+        <v>375700</v>
       </c>
       <c r="G12" s="3">
-        <v>189400</v>
+        <v>204000</v>
       </c>
       <c r="H12" s="3">
-        <v>411900</v>
+        <v>443600</v>
       </c>
       <c r="I12" s="3">
-        <v>669800</v>
+        <v>721400</v>
       </c>
       <c r="J12" s="3">
-        <v>352300</v>
+        <v>379400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>207100</v>
+        <v>223100</v>
       </c>
       <c r="E14" s="3">
-        <v>111000</v>
+        <v>119600</v>
       </c>
       <c r="F14" s="3">
-        <v>-455400</v>
+        <v>-490500</v>
       </c>
       <c r="G14" s="3">
-        <v>189500</v>
+        <v>204100</v>
       </c>
       <c r="H14" s="3">
-        <v>2100200</v>
+        <v>2261800</v>
       </c>
       <c r="I14" s="3">
-        <v>546200</v>
+        <v>588200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72300</v>
+        <v>77800</v>
       </c>
       <c r="E15" s="3">
-        <v>22100</v>
+        <v>23800</v>
       </c>
       <c r="F15" s="3">
-        <v>38800</v>
+        <v>41800</v>
       </c>
       <c r="G15" s="3">
-        <v>58000</v>
+        <v>62400</v>
       </c>
       <c r="H15" s="3">
-        <v>44400</v>
+        <v>47800</v>
       </c>
       <c r="I15" s="3">
-        <v>128500</v>
+        <v>138400</v>
       </c>
       <c r="J15" s="3">
-        <v>98800</v>
+        <v>106400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13112200</v>
+        <v>14120900</v>
       </c>
       <c r="E17" s="3">
-        <v>11988200</v>
+        <v>12910400</v>
       </c>
       <c r="F17" s="3">
-        <v>10323500</v>
+        <v>11117600</v>
       </c>
       <c r="G17" s="3">
-        <v>10264600</v>
+        <v>11054200</v>
       </c>
       <c r="H17" s="3">
-        <v>13165100</v>
+        <v>14177800</v>
       </c>
       <c r="I17" s="3">
-        <v>13395900</v>
+        <v>14426400</v>
       </c>
       <c r="J17" s="3">
-        <v>12634400</v>
+        <v>13606300</v>
       </c>
       <c r="K17" s="3">
         <v>12993100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5307900</v>
+        <v>5716200</v>
       </c>
       <c r="E18" s="3">
-        <v>5645000</v>
+        <v>6079200</v>
       </c>
       <c r="F18" s="3">
-        <v>4031200</v>
+        <v>4341300</v>
       </c>
       <c r="G18" s="3">
-        <v>2145800</v>
+        <v>2310800</v>
       </c>
       <c r="H18" s="3">
-        <v>378500</v>
+        <v>407700</v>
       </c>
       <c r="I18" s="3">
-        <v>3756700</v>
+        <v>4045700</v>
       </c>
       <c r="J18" s="3">
-        <v>5677000</v>
+        <v>6113700</v>
       </c>
       <c r="K18" s="3">
         <v>7067100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>150400</v>
+        <v>161900</v>
       </c>
       <c r="E20" s="3">
-        <v>141400</v>
+        <v>152300</v>
       </c>
       <c r="F20" s="3">
-        <v>-21300</v>
+        <v>-22900</v>
       </c>
       <c r="G20" s="3">
-        <v>408700</v>
+        <v>440100</v>
       </c>
       <c r="H20" s="3">
-        <v>-562500</v>
+        <v>-605800</v>
       </c>
       <c r="I20" s="3">
-        <v>-670000</v>
+        <v>-721600</v>
       </c>
       <c r="J20" s="3">
-        <v>166400</v>
+        <v>179200</v>
       </c>
       <c r="K20" s="3">
         <v>-343000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7685900</v>
+        <v>8277200</v>
       </c>
       <c r="E21" s="3">
-        <v>7785800</v>
+        <v>8384700</v>
       </c>
       <c r="F21" s="3">
-        <v>6159200</v>
+        <v>6633000</v>
       </c>
       <c r="G21" s="3">
-        <v>4528400</v>
+        <v>4876700</v>
       </c>
       <c r="H21" s="3">
-        <v>1576300</v>
+        <v>1697600</v>
       </c>
       <c r="I21" s="3">
-        <v>5856300</v>
+        <v>6306700</v>
       </c>
       <c r="J21" s="3">
-        <v>7278200</v>
+        <v>7838000</v>
       </c>
       <c r="K21" s="3">
         <v>8217100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>492600</v>
+        <v>530500</v>
       </c>
       <c r="E22" s="3">
-        <v>623800</v>
+        <v>671800</v>
       </c>
       <c r="F22" s="3">
-        <v>620400</v>
+        <v>668100</v>
       </c>
       <c r="G22" s="3">
-        <v>718900</v>
+        <v>774200</v>
       </c>
       <c r="H22" s="3">
-        <v>459800</v>
+        <v>495200</v>
       </c>
       <c r="I22" s="3">
-        <v>196100</v>
+        <v>211200</v>
       </c>
       <c r="J22" s="3">
-        <v>154100</v>
+        <v>165900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4965700</v>
+        <v>5347700</v>
       </c>
       <c r="E23" s="3">
-        <v>5162500</v>
+        <v>5559600</v>
       </c>
       <c r="F23" s="3">
-        <v>3389600</v>
+        <v>3650300</v>
       </c>
       <c r="G23" s="3">
-        <v>1835500</v>
+        <v>1976700</v>
       </c>
       <c r="H23" s="3">
-        <v>-643800</v>
+        <v>-693400</v>
       </c>
       <c r="I23" s="3">
-        <v>2890600</v>
+        <v>3112900</v>
       </c>
       <c r="J23" s="3">
-        <v>5689400</v>
+        <v>6127000</v>
       </c>
       <c r="K23" s="3">
         <v>6724000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1195100</v>
+        <v>1287000</v>
       </c>
       <c r="E24" s="3">
-        <v>1903700</v>
+        <v>2050200</v>
       </c>
       <c r="F24" s="3">
-        <v>1465100</v>
+        <v>1577800</v>
       </c>
       <c r="G24" s="3">
-        <v>1210400</v>
+        <v>1303500</v>
       </c>
       <c r="H24" s="3">
-        <v>157700</v>
+        <v>169800</v>
       </c>
       <c r="I24" s="3">
-        <v>1240000</v>
+        <v>1335300</v>
       </c>
       <c r="J24" s="3">
-        <v>2103100</v>
+        <v>2264900</v>
       </c>
       <c r="K24" s="3">
         <v>2257800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3770600</v>
+        <v>4060700</v>
       </c>
       <c r="E26" s="3">
-        <v>3258800</v>
+        <v>3509500</v>
       </c>
       <c r="F26" s="3">
-        <v>1924500</v>
+        <v>2072500</v>
       </c>
       <c r="G26" s="3">
-        <v>625100</v>
+        <v>673200</v>
       </c>
       <c r="H26" s="3">
-        <v>-801500</v>
+        <v>-863200</v>
       </c>
       <c r="I26" s="3">
-        <v>1650600</v>
+        <v>1777600</v>
       </c>
       <c r="J26" s="3">
-        <v>3586300</v>
+        <v>3862100</v>
       </c>
       <c r="K26" s="3">
         <v>4466200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3445400</v>
+        <v>3710400</v>
       </c>
       <c r="E27" s="3">
-        <v>3004700</v>
+        <v>3235800</v>
       </c>
       <c r="F27" s="3">
-        <v>1721300</v>
+        <v>1853700</v>
       </c>
       <c r="G27" s="3">
-        <v>406800</v>
+        <v>438100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1036800</v>
+        <v>-1116600</v>
       </c>
       <c r="I27" s="3">
-        <v>1488600</v>
+        <v>1603100</v>
       </c>
       <c r="J27" s="3">
-        <v>3407700</v>
+        <v>3669800</v>
       </c>
       <c r="K27" s="3">
         <v>4408700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150400</v>
+        <v>-161900</v>
       </c>
       <c r="E32" s="3">
-        <v>-141400</v>
+        <v>-152300</v>
       </c>
       <c r="F32" s="3">
-        <v>21300</v>
+        <v>22900</v>
       </c>
       <c r="G32" s="3">
-        <v>-408700</v>
+        <v>-440100</v>
       </c>
       <c r="H32" s="3">
-        <v>562500</v>
+        <v>605800</v>
       </c>
       <c r="I32" s="3">
-        <v>670000</v>
+        <v>721600</v>
       </c>
       <c r="J32" s="3">
-        <v>-166400</v>
+        <v>-179200</v>
       </c>
       <c r="K32" s="3">
         <v>343000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3445400</v>
+        <v>3710400</v>
       </c>
       <c r="E33" s="3">
-        <v>3004700</v>
+        <v>3235800</v>
       </c>
       <c r="F33" s="3">
-        <v>1721300</v>
+        <v>1853700</v>
       </c>
       <c r="G33" s="3">
-        <v>406800</v>
+        <v>438100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1036800</v>
+        <v>-1116600</v>
       </c>
       <c r="I33" s="3">
-        <v>1488600</v>
+        <v>1603100</v>
       </c>
       <c r="J33" s="3">
-        <v>3407700</v>
+        <v>3669800</v>
       </c>
       <c r="K33" s="3">
         <v>4408700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3445400</v>
+        <v>3710400</v>
       </c>
       <c r="E35" s="3">
-        <v>3004700</v>
+        <v>3235800</v>
       </c>
       <c r="F35" s="3">
-        <v>1721300</v>
+        <v>1853700</v>
       </c>
       <c r="G35" s="3">
-        <v>406800</v>
+        <v>438100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1036800</v>
+        <v>-1116600</v>
       </c>
       <c r="I35" s="3">
-        <v>1488600</v>
+        <v>1603100</v>
       </c>
       <c r="J35" s="3">
-        <v>3407700</v>
+        <v>3669800</v>
       </c>
       <c r="K35" s="3">
         <v>4408700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1839700</v>
+        <v>1981200</v>
       </c>
       <c r="E41" s="3">
-        <v>1641100</v>
+        <v>1767300</v>
       </c>
       <c r="F41" s="3">
-        <v>2065900</v>
+        <v>2224800</v>
       </c>
       <c r="G41" s="3">
-        <v>2186700</v>
+        <v>2354900</v>
       </c>
       <c r="H41" s="3">
-        <v>1703100</v>
+        <v>1834100</v>
       </c>
       <c r="I41" s="3">
-        <v>4069200</v>
+        <v>4382200</v>
       </c>
       <c r="J41" s="3">
-        <v>4573800</v>
+        <v>4925600</v>
       </c>
       <c r="K41" s="3">
         <v>2391700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>459900</v>
+        <v>495300</v>
       </c>
       <c r="E42" s="3">
-        <v>1383500</v>
+        <v>1489900</v>
       </c>
       <c r="F42" s="3">
-        <v>771600</v>
+        <v>831000</v>
       </c>
       <c r="G42" s="3">
-        <v>1395500</v>
+        <v>1502800</v>
       </c>
       <c r="H42" s="3">
-        <v>323100</v>
+        <v>348000</v>
       </c>
       <c r="I42" s="3">
-        <v>906500</v>
+        <v>976300</v>
       </c>
       <c r="J42" s="3">
-        <v>856800</v>
+        <v>922700</v>
       </c>
       <c r="K42" s="3">
         <v>802000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2131500</v>
+        <v>2295500</v>
       </c>
       <c r="E43" s="3">
-        <v>2538700</v>
+        <v>2734000</v>
       </c>
       <c r="F43" s="3">
-        <v>1902100</v>
+        <v>2048400</v>
       </c>
       <c r="G43" s="3">
-        <v>1581800</v>
+        <v>1703500</v>
       </c>
       <c r="H43" s="3">
-        <v>2181200</v>
+        <v>2349000</v>
       </c>
       <c r="I43" s="3">
-        <v>3000300</v>
+        <v>3231100</v>
       </c>
       <c r="J43" s="3">
-        <v>1606000</v>
+        <v>1729500</v>
       </c>
       <c r="K43" s="3">
         <v>1822800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1471100</v>
+        <v>1584300</v>
       </c>
       <c r="E44" s="3">
-        <v>1326100</v>
+        <v>1428100</v>
       </c>
       <c r="F44" s="3">
-        <v>1196400</v>
+        <v>1288400</v>
       </c>
       <c r="G44" s="3">
-        <v>998900</v>
+        <v>1075700</v>
       </c>
       <c r="H44" s="3">
-        <v>795100</v>
+        <v>856200</v>
       </c>
       <c r="I44" s="3">
-        <v>1750000</v>
+        <v>1884700</v>
       </c>
       <c r="J44" s="3">
-        <v>1777200</v>
+        <v>1913900</v>
       </c>
       <c r="K44" s="3">
         <v>801100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172500</v>
+        <v>185800</v>
       </c>
       <c r="E45" s="3">
-        <v>138600</v>
+        <v>149300</v>
       </c>
       <c r="F45" s="3">
-        <v>102200</v>
+        <v>110100</v>
       </c>
       <c r="G45" s="3">
-        <v>110700</v>
+        <v>119200</v>
       </c>
       <c r="H45" s="3">
-        <v>226900</v>
+        <v>244400</v>
       </c>
       <c r="I45" s="3">
-        <v>1442300</v>
+        <v>1553300</v>
       </c>
       <c r="J45" s="3">
-        <v>2471700</v>
+        <v>2661900</v>
       </c>
       <c r="K45" s="3">
         <v>740000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6074800</v>
+        <v>6542000</v>
       </c>
       <c r="E46" s="3">
-        <v>7028000</v>
+        <v>7568600</v>
       </c>
       <c r="F46" s="3">
-        <v>6038200</v>
+        <v>6502700</v>
       </c>
       <c r="G46" s="3">
-        <v>6273600</v>
+        <v>6756200</v>
       </c>
       <c r="H46" s="3">
-        <v>5229500</v>
+        <v>5631700</v>
       </c>
       <c r="I46" s="3">
-        <v>5366600</v>
+        <v>5779400</v>
       </c>
       <c r="J46" s="3">
-        <v>7622600</v>
+        <v>8208900</v>
       </c>
       <c r="K46" s="3">
         <v>6048800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1920700</v>
+        <v>2068400</v>
       </c>
       <c r="E47" s="3">
-        <v>1410900</v>
+        <v>1519500</v>
       </c>
       <c r="F47" s="3">
-        <v>1475100</v>
+        <v>1588600</v>
       </c>
       <c r="G47" s="3">
-        <v>949900</v>
+        <v>1023000</v>
       </c>
       <c r="H47" s="3">
-        <v>980900</v>
+        <v>1056300</v>
       </c>
       <c r="I47" s="3">
-        <v>1152700</v>
+        <v>1241400</v>
       </c>
       <c r="J47" s="3">
-        <v>1376200</v>
+        <v>1482100</v>
       </c>
       <c r="K47" s="3">
         <v>4023200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24369500</v>
+        <v>26244100</v>
       </c>
       <c r="E48" s="3">
-        <v>22319900</v>
+        <v>24036800</v>
       </c>
       <c r="F48" s="3">
-        <v>21493700</v>
+        <v>23147100</v>
       </c>
       <c r="G48" s="3">
-        <v>21998600</v>
+        <v>23690800</v>
       </c>
       <c r="H48" s="3">
-        <v>23159300</v>
+        <v>24940800</v>
       </c>
       <c r="I48" s="3">
-        <v>42528200</v>
+        <v>45799600</v>
       </c>
       <c r="J48" s="3">
-        <v>33530100</v>
+        <v>36109300</v>
       </c>
       <c r="K48" s="3">
         <v>25117800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>364700</v>
+        <v>392700</v>
       </c>
       <c r="E49" s="3">
-        <v>345800</v>
+        <v>372500</v>
       </c>
       <c r="F49" s="3">
-        <v>337900</v>
+        <v>363900</v>
       </c>
       <c r="G49" s="3">
-        <v>309800</v>
+        <v>333600</v>
       </c>
       <c r="H49" s="3">
-        <v>339900</v>
+        <v>366100</v>
       </c>
       <c r="I49" s="3">
-        <v>497600</v>
+        <v>535800</v>
       </c>
       <c r="J49" s="3">
-        <v>926500</v>
+        <v>997800</v>
       </c>
       <c r="K49" s="3">
         <v>379300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2486900</v>
+        <v>2678200</v>
       </c>
       <c r="E52" s="3">
-        <v>1717900</v>
+        <v>1850100</v>
       </c>
       <c r="F52" s="3">
-        <v>1567100</v>
+        <v>1687700</v>
       </c>
       <c r="G52" s="3">
-        <v>2008000</v>
+        <v>2162500</v>
       </c>
       <c r="H52" s="3">
-        <v>2269400</v>
+        <v>2443900</v>
       </c>
       <c r="I52" s="3">
-        <v>10599900</v>
+        <v>11415300</v>
       </c>
       <c r="J52" s="3">
-        <v>8752400</v>
+        <v>9425700</v>
       </c>
       <c r="K52" s="3">
         <v>981000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35216500</v>
+        <v>37925400</v>
       </c>
       <c r="E54" s="3">
-        <v>32822600</v>
+        <v>35347400</v>
       </c>
       <c r="F54" s="3">
-        <v>30912100</v>
+        <v>33289900</v>
       </c>
       <c r="G54" s="3">
-        <v>31539900</v>
+        <v>33966100</v>
       </c>
       <c r="H54" s="3">
-        <v>31978900</v>
+        <v>34438900</v>
       </c>
       <c r="I54" s="3">
-        <v>28817800</v>
+        <v>31034600</v>
       </c>
       <c r="J54" s="3">
-        <v>34431300</v>
+        <v>37079800</v>
       </c>
       <c r="K54" s="3">
         <v>24455800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2109900</v>
+        <v>2272200</v>
       </c>
       <c r="E57" s="3">
-        <v>1788400</v>
+        <v>1926000</v>
       </c>
       <c r="F57" s="3">
-        <v>1323100</v>
+        <v>1424900</v>
       </c>
       <c r="G57" s="3">
-        <v>1214100</v>
+        <v>1307500</v>
       </c>
       <c r="H57" s="3">
-        <v>1294800</v>
+        <v>1394400</v>
       </c>
       <c r="I57" s="3">
-        <v>3894100</v>
+        <v>4193600</v>
       </c>
       <c r="J57" s="3">
-        <v>3536400</v>
+        <v>3808400</v>
       </c>
       <c r="K57" s="3">
         <v>2170000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1303200</v>
+        <v>1403400</v>
       </c>
       <c r="E58" s="3">
-        <v>1045200</v>
+        <v>1125600</v>
       </c>
       <c r="F58" s="3">
-        <v>1337600</v>
+        <v>1440500</v>
       </c>
       <c r="G58" s="3">
-        <v>1072800</v>
+        <v>1155300</v>
       </c>
       <c r="H58" s="3">
-        <v>1189100</v>
+        <v>1280600</v>
       </c>
       <c r="I58" s="3">
-        <v>914600</v>
+        <v>984900</v>
       </c>
       <c r="J58" s="3">
-        <v>234300</v>
+        <v>252400</v>
       </c>
       <c r="K58" s="3">
         <v>647700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2239900</v>
+        <v>2412200</v>
       </c>
       <c r="E59" s="3">
-        <v>1800800</v>
+        <v>1939300</v>
       </c>
       <c r="F59" s="3">
-        <v>1719400</v>
+        <v>1851700</v>
       </c>
       <c r="G59" s="3">
-        <v>1973800</v>
+        <v>2125700</v>
       </c>
       <c r="H59" s="3">
-        <v>2051400</v>
+        <v>2209200</v>
       </c>
       <c r="I59" s="3">
-        <v>2042900</v>
+        <v>2200000</v>
       </c>
       <c r="J59" s="3">
-        <v>4166900</v>
+        <v>4487400</v>
       </c>
       <c r="K59" s="3">
         <v>2920800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5653000</v>
+        <v>6087800</v>
       </c>
       <c r="E60" s="3">
-        <v>4634400</v>
+        <v>4990900</v>
       </c>
       <c r="F60" s="3">
-        <v>4380100</v>
+        <v>4717100</v>
       </c>
       <c r="G60" s="3">
-        <v>4260700</v>
+        <v>4588500</v>
       </c>
       <c r="H60" s="3">
-        <v>4535300</v>
+        <v>4884200</v>
       </c>
       <c r="I60" s="3">
-        <v>4379400</v>
+        <v>4716200</v>
       </c>
       <c r="J60" s="3">
-        <v>5781200</v>
+        <v>6225900</v>
       </c>
       <c r="K60" s="3">
         <v>5337600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8639000</v>
+        <v>9303600</v>
       </c>
       <c r="E61" s="3">
-        <v>8851100</v>
+        <v>9532000</v>
       </c>
       <c r="F61" s="3">
-        <v>9984900</v>
+        <v>10752900</v>
       </c>
       <c r="G61" s="3">
-        <v>12504900</v>
+        <v>13466800</v>
       </c>
       <c r="H61" s="3">
-        <v>12648900</v>
+        <v>13621900</v>
       </c>
       <c r="I61" s="3">
-        <v>8196300</v>
+        <v>8826700</v>
       </c>
       <c r="J61" s="3">
-        <v>5570200</v>
+        <v>5998700</v>
       </c>
       <c r="K61" s="3">
         <v>4013200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5235000</v>
+        <v>5637700</v>
       </c>
       <c r="E62" s="3">
-        <v>3917900</v>
+        <v>4219300</v>
       </c>
       <c r="F62" s="3">
-        <v>3603900</v>
+        <v>3881200</v>
       </c>
       <c r="G62" s="3">
-        <v>2991200</v>
+        <v>3221300</v>
       </c>
       <c r="H62" s="3">
-        <v>3034400</v>
+        <v>3267800</v>
       </c>
       <c r="I62" s="3">
-        <v>5880300</v>
+        <v>6332600</v>
       </c>
       <c r="J62" s="3">
-        <v>3479100</v>
+        <v>3746700</v>
       </c>
       <c r="K62" s="3">
         <v>3242300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20549300</v>
+        <v>22130000</v>
       </c>
       <c r="E66" s="3">
-        <v>17947000</v>
+        <v>19327600</v>
       </c>
       <c r="F66" s="3">
-        <v>18458400</v>
+        <v>19878300</v>
       </c>
       <c r="G66" s="3">
-        <v>20184700</v>
+        <v>21737400</v>
       </c>
       <c r="H66" s="3">
-        <v>20706200</v>
+        <v>22299000</v>
       </c>
       <c r="I66" s="3">
-        <v>16332300</v>
+        <v>17588600</v>
       </c>
       <c r="J66" s="3">
-        <v>15940300</v>
+        <v>17166500</v>
       </c>
       <c r="K66" s="3">
         <v>13161300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4758100</v>
+        <v>5124100</v>
       </c>
       <c r="E72" s="3">
-        <v>4623800</v>
+        <v>4979500</v>
       </c>
       <c r="F72" s="3">
-        <v>2570600</v>
+        <v>2768300</v>
       </c>
       <c r="G72" s="3">
-        <v>1095400</v>
+        <v>1179700</v>
       </c>
       <c r="H72" s="3">
-        <v>694700</v>
+        <v>748200</v>
       </c>
       <c r="I72" s="3">
-        <v>26118800</v>
+        <v>28127900</v>
       </c>
       <c r="J72" s="3">
-        <v>20686300</v>
+        <v>22277600</v>
       </c>
       <c r="K72" s="3">
         <v>15050300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14667200</v>
+        <v>15795500</v>
       </c>
       <c r="E76" s="3">
-        <v>14875500</v>
+        <v>16019800</v>
       </c>
       <c r="F76" s="3">
-        <v>12453600</v>
+        <v>13411600</v>
       </c>
       <c r="G76" s="3">
-        <v>11355200</v>
+        <v>12228700</v>
       </c>
       <c r="H76" s="3">
-        <v>11272700</v>
+        <v>12139900</v>
       </c>
       <c r="I76" s="3">
-        <v>12485600</v>
+        <v>13446000</v>
       </c>
       <c r="J76" s="3">
-        <v>18491000</v>
+        <v>19913400</v>
       </c>
       <c r="K76" s="3">
         <v>11294500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3445400</v>
+        <v>3710400</v>
       </c>
       <c r="E81" s="3">
-        <v>3004700</v>
+        <v>3235800</v>
       </c>
       <c r="F81" s="3">
-        <v>1721300</v>
+        <v>1853700</v>
       </c>
       <c r="G81" s="3">
-        <v>406800</v>
+        <v>438100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1036800</v>
+        <v>-1116600</v>
       </c>
       <c r="I81" s="3">
-        <v>1488600</v>
+        <v>1603100</v>
       </c>
       <c r="J81" s="3">
-        <v>3407700</v>
+        <v>3669800</v>
       </c>
       <c r="K81" s="3">
         <v>4408700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2227700</v>
+        <v>2399000</v>
       </c>
       <c r="E83" s="3">
-        <v>1999400</v>
+        <v>2153200</v>
       </c>
       <c r="F83" s="3">
-        <v>2149300</v>
+        <v>2314600</v>
       </c>
       <c r="G83" s="3">
-        <v>1974000</v>
+        <v>2125800</v>
       </c>
       <c r="H83" s="3">
-        <v>1760300</v>
+        <v>1895700</v>
       </c>
       <c r="I83" s="3">
-        <v>2769600</v>
+        <v>2982600</v>
       </c>
       <c r="J83" s="3">
-        <v>1434700</v>
+        <v>1545100</v>
       </c>
       <c r="K83" s="3">
         <v>1493100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7205100</v>
+        <v>7759300</v>
       </c>
       <c r="E89" s="3">
-        <v>5822000</v>
+        <v>6269900</v>
       </c>
       <c r="F89" s="3">
-        <v>4413100</v>
+        <v>4752600</v>
       </c>
       <c r="G89" s="3">
-        <v>3753900</v>
+        <v>4042600</v>
       </c>
       <c r="H89" s="3">
-        <v>2707000</v>
+        <v>2915200</v>
       </c>
       <c r="I89" s="3">
-        <v>4309000</v>
+        <v>4640400</v>
       </c>
       <c r="J89" s="3">
-        <v>4555900</v>
+        <v>4906400</v>
       </c>
       <c r="K89" s="3">
         <v>6038200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3590800</v>
+        <v>-3867000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2172200</v>
+        <v>-2339300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1505300</v>
+        <v>-1621100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1499700</v>
+        <v>-1615100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3676200</v>
+        <v>-3959000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3630100</v>
+        <v>-3909300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2069600</v>
+        <v>-2228800</v>
       </c>
       <c r="K91" s="3">
         <v>-2805000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2609400</v>
+        <v>-2810100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2246900</v>
+        <v>-2419800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1139800</v>
+        <v>-1227500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2493000</v>
+        <v>-2684800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3001700</v>
+        <v>-3232600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3007900</v>
+        <v>-3239300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2512200</v>
+        <v>-2705500</v>
       </c>
       <c r="K94" s="3">
         <v>-4804000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3605400</v>
+        <v>-3882800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1151200</v>
+        <v>-1239800</v>
       </c>
       <c r="F96" s="3">
-        <v>-391200</v>
+        <v>-421300</v>
       </c>
       <c r="G96" s="3">
-        <v>-445200</v>
+        <v>-479400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1428300</v>
+        <v>-1538200</v>
       </c>
       <c r="I96" s="3">
-        <v>-465200</v>
+        <v>-501000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3788300</v>
+        <v>-4079700</v>
       </c>
       <c r="K96" s="3">
         <v>-2525800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4464300</v>
+        <v>-4807700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4105600</v>
+        <v>-4421400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3318700</v>
+        <v>-3574000</v>
       </c>
       <c r="G100" s="3">
-        <v>-718400</v>
+        <v>-773600</v>
       </c>
       <c r="H100" s="3">
-        <v>-362000</v>
+        <v>-389800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1910000</v>
+        <v>-2056900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1840200</v>
+        <v>-1981800</v>
       </c>
       <c r="K100" s="3">
         <v>-1037200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67200</v>
+        <v>72400</v>
       </c>
       <c r="E101" s="3">
-        <v>105600</v>
+        <v>113700</v>
       </c>
       <c r="F101" s="3">
-        <v>-75500</v>
+        <v>-81300</v>
       </c>
       <c r="G101" s="3">
-        <v>-58800</v>
+        <v>-63400</v>
       </c>
       <c r="H101" s="3">
-        <v>379100</v>
+        <v>408200</v>
       </c>
       <c r="I101" s="3">
-        <v>300300</v>
+        <v>323500</v>
       </c>
       <c r="J101" s="3">
-        <v>30700</v>
+        <v>33100</v>
       </c>
       <c r="K101" s="3">
         <v>72600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>198600</v>
+        <v>213900</v>
       </c>
       <c r="E102" s="3">
-        <v>-424900</v>
+        <v>-457600</v>
       </c>
       <c r="F102" s="3">
-        <v>-120800</v>
+        <v>-130100</v>
       </c>
       <c r="G102" s="3">
-        <v>483600</v>
+        <v>520800</v>
       </c>
       <c r="H102" s="3">
-        <v>-277600</v>
+        <v>-299000</v>
       </c>
       <c r="I102" s="3">
-        <v>-308600</v>
+        <v>-332300</v>
       </c>
       <c r="J102" s="3">
-        <v>234200</v>
+        <v>252200</v>
       </c>
       <c r="K102" s="3">
         <v>269600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19837100</v>
+        <v>19128600</v>
       </c>
       <c r="E8" s="3">
-        <v>18989600</v>
+        <v>18311400</v>
       </c>
       <c r="F8" s="3">
-        <v>15458900</v>
+        <v>14906800</v>
       </c>
       <c r="G8" s="3">
-        <v>13365100</v>
+        <v>12887700</v>
       </c>
       <c r="H8" s="3">
-        <v>14585500</v>
+        <v>14064600</v>
       </c>
       <c r="I8" s="3">
-        <v>18472100</v>
+        <v>17812400</v>
       </c>
       <c r="J8" s="3">
-        <v>19720000</v>
+        <v>19015800</v>
       </c>
       <c r="K8" s="3">
         <v>20060100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12588100</v>
+        <v>12138500</v>
       </c>
       <c r="E9" s="3">
-        <v>11527500</v>
+        <v>11115800</v>
       </c>
       <c r="F9" s="3">
-        <v>10330200</v>
+        <v>9961200</v>
       </c>
       <c r="G9" s="3">
-        <v>9586200</v>
+        <v>9243900</v>
       </c>
       <c r="H9" s="3">
-        <v>10358500</v>
+        <v>9988500</v>
       </c>
       <c r="I9" s="3">
-        <v>12203600</v>
+        <v>11767800</v>
       </c>
       <c r="J9" s="3">
-        <v>23191900</v>
+        <v>22363600</v>
       </c>
       <c r="K9" s="3">
         <v>11506100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7249000</v>
+        <v>6990100</v>
       </c>
       <c r="E10" s="3">
-        <v>7462100</v>
+        <v>7195600</v>
       </c>
       <c r="F10" s="3">
-        <v>5128700</v>
+        <v>4945500</v>
       </c>
       <c r="G10" s="3">
-        <v>3778800</v>
+        <v>3643900</v>
       </c>
       <c r="H10" s="3">
-        <v>4227000</v>
+        <v>4076000</v>
       </c>
       <c r="I10" s="3">
-        <v>6268500</v>
+        <v>6044600</v>
       </c>
       <c r="J10" s="3">
-        <v>-3471800</v>
+        <v>-3347900</v>
       </c>
       <c r="K10" s="3">
         <v>8554000</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>213800</v>
+        <v>206100</v>
       </c>
       <c r="E12" s="3">
-        <v>388500</v>
+        <v>374600</v>
       </c>
       <c r="F12" s="3">
-        <v>375700</v>
+        <v>362300</v>
       </c>
       <c r="G12" s="3">
-        <v>204000</v>
+        <v>196700</v>
       </c>
       <c r="H12" s="3">
-        <v>443600</v>
+        <v>427700</v>
       </c>
       <c r="I12" s="3">
-        <v>721400</v>
+        <v>695600</v>
       </c>
       <c r="J12" s="3">
-        <v>379400</v>
+        <v>365900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>223100</v>
+        <v>215100</v>
       </c>
       <c r="E14" s="3">
-        <v>119600</v>
+        <v>115300</v>
       </c>
       <c r="F14" s="3">
-        <v>-490500</v>
+        <v>-473000</v>
       </c>
       <c r="G14" s="3">
-        <v>204100</v>
+        <v>196800</v>
       </c>
       <c r="H14" s="3">
-        <v>2261800</v>
+        <v>2181000</v>
       </c>
       <c r="I14" s="3">
-        <v>588200</v>
+        <v>567200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>77800</v>
+        <v>75100</v>
       </c>
       <c r="E15" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="F15" s="3">
-        <v>41800</v>
+        <v>40300</v>
       </c>
       <c r="G15" s="3">
-        <v>62400</v>
+        <v>60200</v>
       </c>
       <c r="H15" s="3">
-        <v>47800</v>
+        <v>46100</v>
       </c>
       <c r="I15" s="3">
-        <v>138400</v>
+        <v>133400</v>
       </c>
       <c r="J15" s="3">
-        <v>106400</v>
+        <v>102600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14120900</v>
+        <v>13616500</v>
       </c>
       <c r="E17" s="3">
-        <v>12910400</v>
+        <v>12449300</v>
       </c>
       <c r="F17" s="3">
-        <v>11117600</v>
+        <v>10720500</v>
       </c>
       <c r="G17" s="3">
-        <v>11054200</v>
+        <v>10659400</v>
       </c>
       <c r="H17" s="3">
-        <v>14177800</v>
+        <v>13671400</v>
       </c>
       <c r="I17" s="3">
-        <v>14426400</v>
+        <v>13911200</v>
       </c>
       <c r="J17" s="3">
-        <v>13606300</v>
+        <v>13120400</v>
       </c>
       <c r="K17" s="3">
         <v>12993100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5716200</v>
+        <v>5512100</v>
       </c>
       <c r="E18" s="3">
-        <v>6079200</v>
+        <v>5862100</v>
       </c>
       <c r="F18" s="3">
-        <v>4341300</v>
+        <v>4186200</v>
       </c>
       <c r="G18" s="3">
-        <v>2310800</v>
+        <v>2228300</v>
       </c>
       <c r="H18" s="3">
-        <v>407700</v>
+        <v>393100</v>
       </c>
       <c r="I18" s="3">
-        <v>4045700</v>
+        <v>3901200</v>
       </c>
       <c r="J18" s="3">
-        <v>6113700</v>
+        <v>5895400</v>
       </c>
       <c r="K18" s="3">
         <v>7067100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>161900</v>
+        <v>156100</v>
       </c>
       <c r="E20" s="3">
-        <v>152300</v>
+        <v>146900</v>
       </c>
       <c r="F20" s="3">
-        <v>-22900</v>
+        <v>-22100</v>
       </c>
       <c r="G20" s="3">
-        <v>440100</v>
+        <v>424400</v>
       </c>
       <c r="H20" s="3">
-        <v>-605800</v>
+        <v>-584200</v>
       </c>
       <c r="I20" s="3">
-        <v>-721600</v>
+        <v>-695800</v>
       </c>
       <c r="J20" s="3">
-        <v>179200</v>
+        <v>172800</v>
       </c>
       <c r="K20" s="3">
         <v>-343000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8277200</v>
+        <v>7981600</v>
       </c>
       <c r="E21" s="3">
-        <v>8384700</v>
+        <v>8085200</v>
       </c>
       <c r="F21" s="3">
-        <v>6633000</v>
+        <v>6396100</v>
       </c>
       <c r="G21" s="3">
-        <v>4876700</v>
+        <v>4702600</v>
       </c>
       <c r="H21" s="3">
-        <v>1697600</v>
+        <v>1636900</v>
       </c>
       <c r="I21" s="3">
-        <v>6306700</v>
+        <v>6081500</v>
       </c>
       <c r="J21" s="3">
-        <v>7838000</v>
+        <v>7558100</v>
       </c>
       <c r="K21" s="3">
         <v>8217100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>530500</v>
+        <v>511500</v>
       </c>
       <c r="E22" s="3">
-        <v>671800</v>
+        <v>647800</v>
       </c>
       <c r="F22" s="3">
-        <v>668100</v>
+        <v>644200</v>
       </c>
       <c r="G22" s="3">
-        <v>774200</v>
+        <v>746600</v>
       </c>
       <c r="H22" s="3">
-        <v>495200</v>
+        <v>477500</v>
       </c>
       <c r="I22" s="3">
-        <v>211200</v>
+        <v>203700</v>
       </c>
       <c r="J22" s="3">
-        <v>165900</v>
+        <v>160000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5347700</v>
+        <v>5156700</v>
       </c>
       <c r="E23" s="3">
-        <v>5559600</v>
+        <v>5361100</v>
       </c>
       <c r="F23" s="3">
-        <v>3650300</v>
+        <v>3520000</v>
       </c>
       <c r="G23" s="3">
-        <v>1976700</v>
+        <v>1906100</v>
       </c>
       <c r="H23" s="3">
-        <v>-693400</v>
+        <v>-668600</v>
       </c>
       <c r="I23" s="3">
-        <v>3112900</v>
+        <v>3001800</v>
       </c>
       <c r="J23" s="3">
-        <v>6127000</v>
+        <v>5908200</v>
       </c>
       <c r="K23" s="3">
         <v>6724000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1287000</v>
+        <v>1241000</v>
       </c>
       <c r="E24" s="3">
-        <v>2050200</v>
+        <v>1976900</v>
       </c>
       <c r="F24" s="3">
-        <v>1577800</v>
+        <v>1521400</v>
       </c>
       <c r="G24" s="3">
-        <v>1303500</v>
+        <v>1257000</v>
       </c>
       <c r="H24" s="3">
-        <v>169800</v>
+        <v>163800</v>
       </c>
       <c r="I24" s="3">
-        <v>1335300</v>
+        <v>1287700</v>
       </c>
       <c r="J24" s="3">
-        <v>2264900</v>
+        <v>2184000</v>
       </c>
       <c r="K24" s="3">
         <v>2257800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4060700</v>
+        <v>3915700</v>
       </c>
       <c r="E26" s="3">
-        <v>3509500</v>
+        <v>3384100</v>
       </c>
       <c r="F26" s="3">
-        <v>2072500</v>
+        <v>1998500</v>
       </c>
       <c r="G26" s="3">
-        <v>673200</v>
+        <v>649100</v>
       </c>
       <c r="H26" s="3">
-        <v>-863200</v>
+        <v>-832400</v>
       </c>
       <c r="I26" s="3">
-        <v>1777600</v>
+        <v>1714100</v>
       </c>
       <c r="J26" s="3">
-        <v>3862100</v>
+        <v>3724200</v>
       </c>
       <c r="K26" s="3">
         <v>4466200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3710400</v>
+        <v>3577900</v>
       </c>
       <c r="E27" s="3">
-        <v>3235800</v>
+        <v>3120200</v>
       </c>
       <c r="F27" s="3">
-        <v>1853700</v>
+        <v>1787500</v>
       </c>
       <c r="G27" s="3">
-        <v>438100</v>
+        <v>422500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1116600</v>
+        <v>-1076700</v>
       </c>
       <c r="I27" s="3">
-        <v>1603100</v>
+        <v>1545900</v>
       </c>
       <c r="J27" s="3">
-        <v>3669800</v>
+        <v>3538800</v>
       </c>
       <c r="K27" s="3">
         <v>4408700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-161900</v>
+        <v>-156100</v>
       </c>
       <c r="E32" s="3">
-        <v>-152300</v>
+        <v>-146900</v>
       </c>
       <c r="F32" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="G32" s="3">
-        <v>-440100</v>
+        <v>-424400</v>
       </c>
       <c r="H32" s="3">
-        <v>605800</v>
+        <v>584200</v>
       </c>
       <c r="I32" s="3">
-        <v>721600</v>
+        <v>695800</v>
       </c>
       <c r="J32" s="3">
-        <v>-179200</v>
+        <v>-172800</v>
       </c>
       <c r="K32" s="3">
         <v>343000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3710400</v>
+        <v>3577900</v>
       </c>
       <c r="E33" s="3">
-        <v>3235800</v>
+        <v>3120200</v>
       </c>
       <c r="F33" s="3">
-        <v>1853700</v>
+        <v>1787500</v>
       </c>
       <c r="G33" s="3">
-        <v>438100</v>
+        <v>422500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1116600</v>
+        <v>-1076700</v>
       </c>
       <c r="I33" s="3">
-        <v>1603100</v>
+        <v>1545900</v>
       </c>
       <c r="J33" s="3">
-        <v>3669800</v>
+        <v>3538800</v>
       </c>
       <c r="K33" s="3">
         <v>4408700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3710400</v>
+        <v>3577900</v>
       </c>
       <c r="E35" s="3">
-        <v>3235800</v>
+        <v>3120200</v>
       </c>
       <c r="F35" s="3">
-        <v>1853700</v>
+        <v>1787500</v>
       </c>
       <c r="G35" s="3">
-        <v>438100</v>
+        <v>422500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1116600</v>
+        <v>-1076700</v>
       </c>
       <c r="I35" s="3">
-        <v>1603100</v>
+        <v>1545900</v>
       </c>
       <c r="J35" s="3">
-        <v>3669800</v>
+        <v>3538800</v>
       </c>
       <c r="K35" s="3">
         <v>4408700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1981200</v>
+        <v>1910500</v>
       </c>
       <c r="E41" s="3">
-        <v>1767300</v>
+        <v>1704200</v>
       </c>
       <c r="F41" s="3">
-        <v>2224800</v>
+        <v>2145400</v>
       </c>
       <c r="G41" s="3">
-        <v>2354900</v>
+        <v>2270800</v>
       </c>
       <c r="H41" s="3">
-        <v>1834100</v>
+        <v>1768600</v>
       </c>
       <c r="I41" s="3">
-        <v>4382200</v>
+        <v>4225700</v>
       </c>
       <c r="J41" s="3">
-        <v>4925600</v>
+        <v>4749700</v>
       </c>
       <c r="K41" s="3">
         <v>2391700</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>495300</v>
+        <v>477600</v>
       </c>
       <c r="E42" s="3">
-        <v>1489900</v>
+        <v>1436700</v>
       </c>
       <c r="F42" s="3">
-        <v>831000</v>
+        <v>801300</v>
       </c>
       <c r="G42" s="3">
-        <v>1502800</v>
+        <v>1449100</v>
       </c>
       <c r="H42" s="3">
-        <v>348000</v>
+        <v>335500</v>
       </c>
       <c r="I42" s="3">
-        <v>976300</v>
+        <v>941400</v>
       </c>
       <c r="J42" s="3">
-        <v>922700</v>
+        <v>889700</v>
       </c>
       <c r="K42" s="3">
         <v>802000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2295500</v>
+        <v>2213500</v>
       </c>
       <c r="E43" s="3">
-        <v>2734000</v>
+        <v>2636300</v>
       </c>
       <c r="F43" s="3">
-        <v>2048400</v>
+        <v>1975200</v>
       </c>
       <c r="G43" s="3">
-        <v>1703500</v>
+        <v>1642700</v>
       </c>
       <c r="H43" s="3">
-        <v>2349000</v>
+        <v>2265100</v>
       </c>
       <c r="I43" s="3">
-        <v>3231100</v>
+        <v>3115700</v>
       </c>
       <c r="J43" s="3">
-        <v>1729500</v>
+        <v>1667800</v>
       </c>
       <c r="K43" s="3">
         <v>1822800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1584300</v>
+        <v>1527700</v>
       </c>
       <c r="E44" s="3">
-        <v>1428100</v>
+        <v>1377100</v>
       </c>
       <c r="F44" s="3">
-        <v>1288400</v>
+        <v>1242400</v>
       </c>
       <c r="G44" s="3">
-        <v>1075700</v>
+        <v>1037300</v>
       </c>
       <c r="H44" s="3">
-        <v>856200</v>
+        <v>825600</v>
       </c>
       <c r="I44" s="3">
-        <v>1884700</v>
+        <v>1817400</v>
       </c>
       <c r="J44" s="3">
-        <v>1913900</v>
+        <v>1845600</v>
       </c>
       <c r="K44" s="3">
         <v>801100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>185800</v>
+        <v>179200</v>
       </c>
       <c r="E45" s="3">
-        <v>149300</v>
+        <v>143900</v>
       </c>
       <c r="F45" s="3">
-        <v>110100</v>
+        <v>106200</v>
       </c>
       <c r="G45" s="3">
-        <v>119200</v>
+        <v>114900</v>
       </c>
       <c r="H45" s="3">
-        <v>244400</v>
+        <v>235700</v>
       </c>
       <c r="I45" s="3">
-        <v>1553300</v>
+        <v>1497800</v>
       </c>
       <c r="J45" s="3">
-        <v>2661900</v>
+        <v>2566800</v>
       </c>
       <c r="K45" s="3">
         <v>740000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6542000</v>
+        <v>6308400</v>
       </c>
       <c r="E46" s="3">
-        <v>7568600</v>
+        <v>7298300</v>
       </c>
       <c r="F46" s="3">
-        <v>6502700</v>
+        <v>6270500</v>
       </c>
       <c r="G46" s="3">
-        <v>6756200</v>
+        <v>6514900</v>
       </c>
       <c r="H46" s="3">
-        <v>5631700</v>
+        <v>5430600</v>
       </c>
       <c r="I46" s="3">
-        <v>5779400</v>
+        <v>5573000</v>
       </c>
       <c r="J46" s="3">
-        <v>8208900</v>
+        <v>7915800</v>
       </c>
       <c r="K46" s="3">
         <v>6048800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2068400</v>
+        <v>1994500</v>
       </c>
       <c r="E47" s="3">
-        <v>1519500</v>
+        <v>1465200</v>
       </c>
       <c r="F47" s="3">
-        <v>1588600</v>
+        <v>1531800</v>
       </c>
       <c r="G47" s="3">
-        <v>1023000</v>
+        <v>986400</v>
       </c>
       <c r="H47" s="3">
-        <v>1056300</v>
+        <v>1018600</v>
       </c>
       <c r="I47" s="3">
-        <v>1241400</v>
+        <v>1197100</v>
       </c>
       <c r="J47" s="3">
-        <v>1482100</v>
+        <v>1429200</v>
       </c>
       <c r="K47" s="3">
         <v>4023200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26244100</v>
+        <v>25306800</v>
       </c>
       <c r="E48" s="3">
-        <v>24036800</v>
+        <v>23178300</v>
       </c>
       <c r="F48" s="3">
-        <v>23147100</v>
+        <v>22320400</v>
       </c>
       <c r="G48" s="3">
-        <v>23690800</v>
+        <v>22844700</v>
       </c>
       <c r="H48" s="3">
-        <v>24940800</v>
+        <v>24050000</v>
       </c>
       <c r="I48" s="3">
-        <v>45799600</v>
+        <v>44163900</v>
       </c>
       <c r="J48" s="3">
-        <v>36109300</v>
+        <v>34819700</v>
       </c>
       <c r="K48" s="3">
         <v>25117800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>392700</v>
+        <v>378700</v>
       </c>
       <c r="E49" s="3">
-        <v>372500</v>
+        <v>359200</v>
       </c>
       <c r="F49" s="3">
-        <v>363900</v>
+        <v>350900</v>
       </c>
       <c r="G49" s="3">
-        <v>333600</v>
+        <v>321700</v>
       </c>
       <c r="H49" s="3">
-        <v>366100</v>
+        <v>353000</v>
       </c>
       <c r="I49" s="3">
-        <v>535800</v>
+        <v>516700</v>
       </c>
       <c r="J49" s="3">
-        <v>997800</v>
+        <v>962100</v>
       </c>
       <c r="K49" s="3">
         <v>379300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2678200</v>
+        <v>2582500</v>
       </c>
       <c r="E52" s="3">
-        <v>1850100</v>
+        <v>1784000</v>
       </c>
       <c r="F52" s="3">
-        <v>1687700</v>
+        <v>1627400</v>
       </c>
       <c r="G52" s="3">
-        <v>2162500</v>
+        <v>2085200</v>
       </c>
       <c r="H52" s="3">
-        <v>2443900</v>
+        <v>2356700</v>
       </c>
       <c r="I52" s="3">
-        <v>11415300</v>
+        <v>11007600</v>
       </c>
       <c r="J52" s="3">
-        <v>9425700</v>
+        <v>9089100</v>
       </c>
       <c r="K52" s="3">
         <v>981000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37925400</v>
+        <v>36571000</v>
       </c>
       <c r="E54" s="3">
-        <v>35347400</v>
+        <v>34085000</v>
       </c>
       <c r="F54" s="3">
-        <v>33289900</v>
+        <v>32101000</v>
       </c>
       <c r="G54" s="3">
-        <v>33966100</v>
+        <v>32753000</v>
       </c>
       <c r="H54" s="3">
-        <v>34438900</v>
+        <v>33208900</v>
       </c>
       <c r="I54" s="3">
-        <v>31034600</v>
+        <v>29926200</v>
       </c>
       <c r="J54" s="3">
-        <v>37079800</v>
+        <v>35755600</v>
       </c>
       <c r="K54" s="3">
         <v>24455800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2272200</v>
+        <v>2191100</v>
       </c>
       <c r="E57" s="3">
-        <v>1926000</v>
+        <v>1857200</v>
       </c>
       <c r="F57" s="3">
-        <v>1424900</v>
+        <v>1374000</v>
       </c>
       <c r="G57" s="3">
-        <v>1307500</v>
+        <v>1260800</v>
       </c>
       <c r="H57" s="3">
-        <v>1394400</v>
+        <v>1344600</v>
       </c>
       <c r="I57" s="3">
-        <v>4193600</v>
+        <v>4043900</v>
       </c>
       <c r="J57" s="3">
-        <v>3808400</v>
+        <v>3672400</v>
       </c>
       <c r="K57" s="3">
         <v>2170000</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1403400</v>
+        <v>1353300</v>
       </c>
       <c r="E58" s="3">
-        <v>1125600</v>
+        <v>1085400</v>
       </c>
       <c r="F58" s="3">
-        <v>1440500</v>
+        <v>1389000</v>
       </c>
       <c r="G58" s="3">
-        <v>1155300</v>
+        <v>1114100</v>
       </c>
       <c r="H58" s="3">
-        <v>1280600</v>
+        <v>1234900</v>
       </c>
       <c r="I58" s="3">
-        <v>984900</v>
+        <v>949700</v>
       </c>
       <c r="J58" s="3">
-        <v>252400</v>
+        <v>243300</v>
       </c>
       <c r="K58" s="3">
         <v>647700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2412200</v>
+        <v>2326100</v>
       </c>
       <c r="E59" s="3">
-        <v>1939300</v>
+        <v>1870100</v>
       </c>
       <c r="F59" s="3">
-        <v>1851700</v>
+        <v>1785600</v>
       </c>
       <c r="G59" s="3">
-        <v>2125700</v>
+        <v>2049700</v>
       </c>
       <c r="H59" s="3">
-        <v>2209200</v>
+        <v>2130300</v>
       </c>
       <c r="I59" s="3">
-        <v>2200000</v>
+        <v>2121500</v>
       </c>
       <c r="J59" s="3">
-        <v>4487400</v>
+        <v>4327100</v>
       </c>
       <c r="K59" s="3">
         <v>2920800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6087800</v>
+        <v>5870400</v>
       </c>
       <c r="E60" s="3">
-        <v>4990900</v>
+        <v>4812600</v>
       </c>
       <c r="F60" s="3">
-        <v>4717100</v>
+        <v>4548600</v>
       </c>
       <c r="G60" s="3">
-        <v>4588500</v>
+        <v>4424600</v>
       </c>
       <c r="H60" s="3">
-        <v>4884200</v>
+        <v>4709800</v>
       </c>
       <c r="I60" s="3">
-        <v>4716200</v>
+        <v>4547800</v>
       </c>
       <c r="J60" s="3">
-        <v>6225900</v>
+        <v>6003600</v>
       </c>
       <c r="K60" s="3">
         <v>5337600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9303600</v>
+        <v>8971300</v>
       </c>
       <c r="E61" s="3">
-        <v>9532000</v>
+        <v>9191500</v>
       </c>
       <c r="F61" s="3">
-        <v>10752900</v>
+        <v>10368900</v>
       </c>
       <c r="G61" s="3">
-        <v>13466800</v>
+        <v>12985900</v>
       </c>
       <c r="H61" s="3">
-        <v>13621900</v>
+        <v>13135400</v>
       </c>
       <c r="I61" s="3">
-        <v>8826700</v>
+        <v>8511500</v>
       </c>
       <c r="J61" s="3">
-        <v>5998700</v>
+        <v>5784500</v>
       </c>
       <c r="K61" s="3">
         <v>4013200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5637700</v>
+        <v>5436400</v>
       </c>
       <c r="E62" s="3">
-        <v>4219300</v>
+        <v>4068600</v>
       </c>
       <c r="F62" s="3">
-        <v>3881200</v>
+        <v>3742600</v>
       </c>
       <c r="G62" s="3">
-        <v>3221300</v>
+        <v>3106200</v>
       </c>
       <c r="H62" s="3">
-        <v>3267800</v>
+        <v>3151100</v>
       </c>
       <c r="I62" s="3">
-        <v>6332600</v>
+        <v>6106400</v>
       </c>
       <c r="J62" s="3">
-        <v>3746700</v>
+        <v>3612900</v>
       </c>
       <c r="K62" s="3">
         <v>3242300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22130000</v>
+        <v>21339600</v>
       </c>
       <c r="E66" s="3">
-        <v>19327600</v>
+        <v>18637300</v>
       </c>
       <c r="F66" s="3">
-        <v>19878300</v>
+        <v>19168400</v>
       </c>
       <c r="G66" s="3">
-        <v>21737400</v>
+        <v>20961100</v>
       </c>
       <c r="H66" s="3">
-        <v>22299000</v>
+        <v>21502600</v>
       </c>
       <c r="I66" s="3">
-        <v>17588600</v>
+        <v>16960400</v>
       </c>
       <c r="J66" s="3">
-        <v>17166500</v>
+        <v>16553400</v>
       </c>
       <c r="K66" s="3">
         <v>13161300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5124100</v>
+        <v>4941100</v>
       </c>
       <c r="E72" s="3">
-        <v>4979500</v>
+        <v>4801600</v>
       </c>
       <c r="F72" s="3">
-        <v>2768300</v>
+        <v>2669400</v>
       </c>
       <c r="G72" s="3">
-        <v>1179700</v>
+        <v>1137500</v>
       </c>
       <c r="H72" s="3">
-        <v>748200</v>
+        <v>721400</v>
       </c>
       <c r="I72" s="3">
-        <v>28127900</v>
+        <v>27123300</v>
       </c>
       <c r="J72" s="3">
-        <v>22277600</v>
+        <v>21481900</v>
       </c>
       <c r="K72" s="3">
         <v>15050300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15795500</v>
+        <v>15231300</v>
       </c>
       <c r="E76" s="3">
-        <v>16019800</v>
+        <v>15447700</v>
       </c>
       <c r="F76" s="3">
-        <v>13411600</v>
+        <v>12932600</v>
       </c>
       <c r="G76" s="3">
-        <v>12228700</v>
+        <v>11791900</v>
       </c>
       <c r="H76" s="3">
-        <v>12139900</v>
+        <v>11706300</v>
       </c>
       <c r="I76" s="3">
-        <v>13446000</v>
+        <v>12965800</v>
       </c>
       <c r="J76" s="3">
-        <v>19913400</v>
+        <v>19202200</v>
       </c>
       <c r="K76" s="3">
         <v>11294500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3710400</v>
+        <v>3577900</v>
       </c>
       <c r="E81" s="3">
-        <v>3235800</v>
+        <v>3120200</v>
       </c>
       <c r="F81" s="3">
-        <v>1853700</v>
+        <v>1787500</v>
       </c>
       <c r="G81" s="3">
-        <v>438100</v>
+        <v>422500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1116600</v>
+        <v>-1076700</v>
       </c>
       <c r="I81" s="3">
-        <v>1603100</v>
+        <v>1545900</v>
       </c>
       <c r="J81" s="3">
-        <v>3669800</v>
+        <v>3538800</v>
       </c>
       <c r="K81" s="3">
         <v>4408700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2399000</v>
+        <v>2313300</v>
       </c>
       <c r="E83" s="3">
-        <v>2153200</v>
+        <v>2076300</v>
       </c>
       <c r="F83" s="3">
-        <v>2314600</v>
+        <v>2232000</v>
       </c>
       <c r="G83" s="3">
-        <v>2125800</v>
+        <v>2049900</v>
       </c>
       <c r="H83" s="3">
-        <v>1895700</v>
+        <v>1828000</v>
       </c>
       <c r="I83" s="3">
-        <v>2982600</v>
+        <v>2876100</v>
       </c>
       <c r="J83" s="3">
-        <v>1545100</v>
+        <v>1489900</v>
       </c>
       <c r="K83" s="3">
         <v>1493100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7759300</v>
+        <v>7482200</v>
       </c>
       <c r="E89" s="3">
-        <v>6269900</v>
+        <v>6046000</v>
       </c>
       <c r="F89" s="3">
-        <v>4752600</v>
+        <v>4582900</v>
       </c>
       <c r="G89" s="3">
-        <v>4042600</v>
+        <v>3898300</v>
       </c>
       <c r="H89" s="3">
-        <v>2915200</v>
+        <v>2811100</v>
       </c>
       <c r="I89" s="3">
-        <v>4640400</v>
+        <v>4474700</v>
       </c>
       <c r="J89" s="3">
-        <v>4906400</v>
+        <v>4731100</v>
       </c>
       <c r="K89" s="3">
         <v>6038200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3867000</v>
+        <v>-3728900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2339300</v>
+        <v>-2255800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1621100</v>
+        <v>-1563200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1615100</v>
+        <v>-1557400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3959000</v>
+        <v>-3817600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3909300</v>
+        <v>-3769700</v>
       </c>
       <c r="J91" s="3">
-        <v>-2228800</v>
+        <v>-2149200</v>
       </c>
       <c r="K91" s="3">
         <v>-2805000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2810100</v>
+        <v>-2709700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2419800</v>
+        <v>-2333400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1227500</v>
+        <v>-1183600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2684800</v>
+        <v>-2588900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3232600</v>
+        <v>-3117200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3239300</v>
+        <v>-3123600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2705500</v>
+        <v>-2608900</v>
       </c>
       <c r="K94" s="3">
         <v>-4804000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3882800</v>
+        <v>-3744100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1239800</v>
+        <v>-1195500</v>
       </c>
       <c r="F96" s="3">
-        <v>-421300</v>
+        <v>-406300</v>
       </c>
       <c r="G96" s="3">
-        <v>-479400</v>
+        <v>-462300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1538200</v>
+        <v>-1483200</v>
       </c>
       <c r="I96" s="3">
-        <v>-501000</v>
+        <v>-483100</v>
       </c>
       <c r="J96" s="3">
-        <v>-4079700</v>
+        <v>-3934000</v>
       </c>
       <c r="K96" s="3">
         <v>-2525800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4807700</v>
+        <v>-4636000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4421400</v>
+        <v>-4263500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3574000</v>
+        <v>-3446300</v>
       </c>
       <c r="G100" s="3">
-        <v>-773600</v>
+        <v>-746000</v>
       </c>
       <c r="H100" s="3">
-        <v>-389800</v>
+        <v>-375900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2056900</v>
+        <v>-1983500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1981800</v>
+        <v>-1911000</v>
       </c>
       <c r="K100" s="3">
         <v>-1037200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>72400</v>
+        <v>69800</v>
       </c>
       <c r="E101" s="3">
-        <v>113700</v>
+        <v>109700</v>
       </c>
       <c r="F101" s="3">
-        <v>-81300</v>
+        <v>-78400</v>
       </c>
       <c r="G101" s="3">
-        <v>-63400</v>
+        <v>-61100</v>
       </c>
       <c r="H101" s="3">
-        <v>408200</v>
+        <v>393700</v>
       </c>
       <c r="I101" s="3">
-        <v>323500</v>
+        <v>311900</v>
       </c>
       <c r="J101" s="3">
-        <v>33100</v>
+        <v>31900</v>
       </c>
       <c r="K101" s="3">
         <v>72600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213900</v>
+        <v>206300</v>
       </c>
       <c r="E102" s="3">
-        <v>-457600</v>
+        <v>-441200</v>
       </c>
       <c r="F102" s="3">
-        <v>-130100</v>
+        <v>-125400</v>
       </c>
       <c r="G102" s="3">
-        <v>520800</v>
+        <v>502200</v>
       </c>
       <c r="H102" s="3">
-        <v>-299000</v>
+        <v>-288300</v>
       </c>
       <c r="I102" s="3">
-        <v>-332300</v>
+        <v>-320500</v>
       </c>
       <c r="J102" s="3">
-        <v>252200</v>
+        <v>243200</v>
       </c>
       <c r="K102" s="3">
         <v>269600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13507200</v>
+      </c>
+      <c r="E8" s="3">
         <v>19128600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18311400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14906800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12887700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14064600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17812400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19015800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20060100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20069100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10139200</v>
+      </c>
+      <c r="E9" s="3">
         <v>12138500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11115800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9961200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9243900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9988500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11767800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22363600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11506100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10726200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3368000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6990100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7195600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4945500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3643900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4076000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6044600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3347900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8554000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9342800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>186100</v>
+      </c>
+      <c r="E12" s="3">
         <v>206100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>374600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>362300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>196700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>427700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>695600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>365900</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,32 +906,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-193100</v>
+      </c>
+      <c r="E14" s="3">
         <v>215100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>115300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-473000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>196800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2181000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>567200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -923,42 +942,48 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E15" s="3">
         <v>75100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>60200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>46100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>133400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>102600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11613900</v>
+      </c>
+      <c r="E17" s="3">
         <v>13616500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12449300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10720500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10659400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13671400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13911200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13120400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12993100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12493400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1893300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5512100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5862100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4186200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2228300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>393100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3901200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5895400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7067100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7575600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>156100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>146900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>424400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-584200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-695800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>172800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-343000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-69500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4404500</v>
+      </c>
+      <c r="E21" s="3">
         <v>7981600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8085200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6396100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4702600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1636900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6081500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7558100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8217100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9141300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>643800</v>
+      </c>
+      <c r="E22" s="3">
         <v>511500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>647800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>644200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>746600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>477500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>203700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>160000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1247100</v>
+      </c>
+      <c r="E23" s="3">
         <v>5156700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5361100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3520000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1906100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-668600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3001800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5908200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6724000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7506100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1241000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1976900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1521400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1257000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>163800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1287700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2184000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2257800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2687700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>767400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3915700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3384100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1998500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>649100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-832400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1714100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3724200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4466200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4818400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E27" s="3">
         <v>3577900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3120200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1787500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>422500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1076700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1545900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3538800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4408700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4741500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-156100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-146900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-424400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>584200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>695800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-172800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>343000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>69500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E33" s="3">
         <v>3577900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3120200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1787500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>422500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1076700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1545900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3538800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4408700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4741500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E35" s="3">
         <v>3577900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3120200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1787500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>422500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1076700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1545900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3538800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4408700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4741500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1372200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1910500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1704200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2145400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2270800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1768600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4225700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4749700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2391700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2263500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>651500</v>
+      </c>
+      <c r="E42" s="3">
         <v>477600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1436700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>801300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1449100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>335500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>941400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>889700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>802000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>297000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2520900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2213500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2636300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1975200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1642700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2265100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3115700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1667800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1822800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1752000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1364600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1527700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1377100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1242400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1037300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>825600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1817400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1845600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>801100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>862800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>256100</v>
+      </c>
+      <c r="E45" s="3">
         <v>179200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>143900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>106200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>235700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1497800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2566800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>740000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>523800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6165300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6308400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7298300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6270500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6514900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5430600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5573000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7915800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6048800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5699000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1276600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1994500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1465200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1531800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>986400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1018600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1197100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1429200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4023200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2246100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26681500</v>
+      </c>
+      <c r="E48" s="3">
         <v>25306800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23178300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22320400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22844700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24050000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44163900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34819700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25117800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13214700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>515400</v>
+      </c>
+      <c r="E49" s="3">
         <v>378700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>359200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>350900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>321700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>353000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>516700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>962100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>379300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>444300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3003800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2582500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1784000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1627400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2085200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2356700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11007600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9089100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>981000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1086700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37642600</v>
+      </c>
+      <c r="E54" s="3">
         <v>36571000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34085000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32101000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32753000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33208900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29926200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35755600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24455800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22690900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1752800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2191100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1857200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1374000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1260800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1344600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4043900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3672400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2170000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1613900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1329300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1353300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1085400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1389000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1114100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1234900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>949700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>243300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>647700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>302800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1854100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2326100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1870100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1785600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2049700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2130300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2121500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4327100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2920800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2558000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4936300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5870400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4812600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4548600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4424600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4709800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4547800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6003600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5337600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4474700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11288300</v>
+      </c>
+      <c r="E61" s="3">
         <v>8971300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9191500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10368900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12985900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13135400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8511500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5784500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4013200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2799300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6346900</v>
+      </c>
+      <c r="E62" s="3">
         <v>5436400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4068600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3742600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3106200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3151100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6106400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3612900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3242300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3147000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23576900</v>
+      </c>
+      <c r="E66" s="3">
         <v>21339600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18637300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19168400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20961100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21502600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16960400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16553400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13161300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11153200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3398600</v>
+      </c>
+      <c r="E72" s="3">
         <v>4941100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4801600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2669400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1137500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>721400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>27123300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21481900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15050300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7271700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14065700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15231300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15447700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12932600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11791900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11706300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12965800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19202200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11294500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11537700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E81" s="3">
         <v>3577900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3120200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1787500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>422500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1076700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1545900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3538800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4408700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4741500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2513600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2313300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2076300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2232000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2049900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1828000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2876100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1489900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1493100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1635100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2480400</v>
+      </c>
+      <c r="E89" s="3">
         <v>7482200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6046000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4582900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3898300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2811100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4474700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4731100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6038200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7091300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2977200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3728900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2255800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1563200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1557400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3817600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3769700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3232100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2302800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2709700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2333400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1183600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2588900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3117200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3123600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2608900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4804000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4673200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2358300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3744100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1195500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-406300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-462300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1483200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-483100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2525800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1890200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-709800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4636000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4263500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3446300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-746000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-375900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1983500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1037200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>69800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>109700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-78400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-61100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>393700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>311900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>72600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-538200</v>
+      </c>
+      <c r="E102" s="3">
         <v>206300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-441200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-125400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>502200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-288300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-320500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>243200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>269600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1012100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13507200</v>
+        <v>13006900</v>
       </c>
       <c r="E8" s="3">
-        <v>19128600</v>
+        <v>18420200</v>
       </c>
       <c r="F8" s="3">
-        <v>18311400</v>
+        <v>17633200</v>
       </c>
       <c r="G8" s="3">
-        <v>14906800</v>
+        <v>14354700</v>
       </c>
       <c r="H8" s="3">
-        <v>12887700</v>
+        <v>12410400</v>
       </c>
       <c r="I8" s="3">
-        <v>14064600</v>
+        <v>13543600</v>
       </c>
       <c r="J8" s="3">
-        <v>17812400</v>
+        <v>17152700</v>
       </c>
       <c r="K8" s="3">
         <v>19015800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10139200</v>
+        <v>9763700</v>
       </c>
       <c r="E9" s="3">
-        <v>12138500</v>
+        <v>11689000</v>
       </c>
       <c r="F9" s="3">
-        <v>11115800</v>
+        <v>10704100</v>
       </c>
       <c r="G9" s="3">
-        <v>9961200</v>
+        <v>9592300</v>
       </c>
       <c r="H9" s="3">
-        <v>9243900</v>
+        <v>8901500</v>
       </c>
       <c r="I9" s="3">
-        <v>9988500</v>
+        <v>9618600</v>
       </c>
       <c r="J9" s="3">
-        <v>11767800</v>
+        <v>11331900</v>
       </c>
       <c r="K9" s="3">
         <v>22363600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3368000</v>
+        <v>3243200</v>
       </c>
       <c r="E10" s="3">
-        <v>6990100</v>
+        <v>6731200</v>
       </c>
       <c r="F10" s="3">
-        <v>7195600</v>
+        <v>6929100</v>
       </c>
       <c r="G10" s="3">
-        <v>4945500</v>
+        <v>4762400</v>
       </c>
       <c r="H10" s="3">
-        <v>3643900</v>
+        <v>3508900</v>
       </c>
       <c r="I10" s="3">
-        <v>4076000</v>
+        <v>3925100</v>
       </c>
       <c r="J10" s="3">
-        <v>6044600</v>
+        <v>5820800</v>
       </c>
       <c r="K10" s="3">
         <v>-3347900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>186100</v>
+        <v>179200</v>
       </c>
       <c r="E12" s="3">
-        <v>206100</v>
+        <v>198500</v>
       </c>
       <c r="F12" s="3">
-        <v>374600</v>
+        <v>360700</v>
       </c>
       <c r="G12" s="3">
-        <v>362300</v>
+        <v>348900</v>
       </c>
       <c r="H12" s="3">
-        <v>196700</v>
+        <v>189400</v>
       </c>
       <c r="I12" s="3">
-        <v>427700</v>
+        <v>411900</v>
       </c>
       <c r="J12" s="3">
-        <v>695600</v>
+        <v>669800</v>
       </c>
       <c r="K12" s="3">
         <v>365900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-193100</v>
+        <v>-186000</v>
       </c>
       <c r="E14" s="3">
-        <v>215100</v>
+        <v>207100</v>
       </c>
       <c r="F14" s="3">
-        <v>115300</v>
+        <v>111000</v>
       </c>
       <c r="G14" s="3">
-        <v>-473000</v>
+        <v>-455400</v>
       </c>
       <c r="H14" s="3">
-        <v>196800</v>
+        <v>189500</v>
       </c>
       <c r="I14" s="3">
-        <v>2181000</v>
+        <v>2100200</v>
       </c>
       <c r="J14" s="3">
-        <v>567200</v>
+        <v>546200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87600</v>
+        <v>84400</v>
       </c>
       <c r="E15" s="3">
-        <v>75100</v>
+        <v>72300</v>
       </c>
       <c r="F15" s="3">
-        <v>23000</v>
+        <v>22100</v>
       </c>
       <c r="G15" s="3">
-        <v>40300</v>
+        <v>38800</v>
       </c>
       <c r="H15" s="3">
-        <v>60200</v>
+        <v>58000</v>
       </c>
       <c r="I15" s="3">
-        <v>46100</v>
+        <v>44400</v>
       </c>
       <c r="J15" s="3">
-        <v>133400</v>
+        <v>128500</v>
       </c>
       <c r="K15" s="3">
         <v>102600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11613900</v>
+        <v>11183700</v>
       </c>
       <c r="E17" s="3">
-        <v>13616500</v>
+        <v>13112200</v>
       </c>
       <c r="F17" s="3">
-        <v>12449300</v>
+        <v>11988200</v>
       </c>
       <c r="G17" s="3">
-        <v>10720500</v>
+        <v>10323500</v>
       </c>
       <c r="H17" s="3">
-        <v>10659400</v>
+        <v>10264600</v>
       </c>
       <c r="I17" s="3">
-        <v>13671400</v>
+        <v>13165100</v>
       </c>
       <c r="J17" s="3">
-        <v>13911200</v>
+        <v>13395900</v>
       </c>
       <c r="K17" s="3">
         <v>13120400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1893300</v>
+        <v>1823200</v>
       </c>
       <c r="E18" s="3">
-        <v>5512100</v>
+        <v>5307900</v>
       </c>
       <c r="F18" s="3">
-        <v>5862100</v>
+        <v>5645000</v>
       </c>
       <c r="G18" s="3">
-        <v>4186200</v>
+        <v>4031200</v>
       </c>
       <c r="H18" s="3">
-        <v>2228300</v>
+        <v>2145800</v>
       </c>
       <c r="I18" s="3">
-        <v>393100</v>
+        <v>378500</v>
       </c>
       <c r="J18" s="3">
-        <v>3901200</v>
+        <v>3756700</v>
       </c>
       <c r="K18" s="3">
         <v>5895400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>156100</v>
+        <v>150400</v>
       </c>
       <c r="F20" s="3">
-        <v>146900</v>
+        <v>141400</v>
       </c>
       <c r="G20" s="3">
-        <v>-22100</v>
+        <v>-21300</v>
       </c>
       <c r="H20" s="3">
-        <v>424400</v>
+        <v>408700</v>
       </c>
       <c r="I20" s="3">
-        <v>-584200</v>
+        <v>-562500</v>
       </c>
       <c r="J20" s="3">
-        <v>-695800</v>
+        <v>-670000</v>
       </c>
       <c r="K20" s="3">
         <v>172800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4404500</v>
+        <v>4241400</v>
       </c>
       <c r="E21" s="3">
-        <v>7981600</v>
+        <v>7685900</v>
       </c>
       <c r="F21" s="3">
-        <v>8085200</v>
+        <v>7785800</v>
       </c>
       <c r="G21" s="3">
-        <v>6396100</v>
+        <v>6159200</v>
       </c>
       <c r="H21" s="3">
-        <v>4702600</v>
+        <v>4528400</v>
       </c>
       <c r="I21" s="3">
-        <v>1636900</v>
+        <v>1576300</v>
       </c>
       <c r="J21" s="3">
-        <v>6081500</v>
+        <v>5856300</v>
       </c>
       <c r="K21" s="3">
         <v>7558100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>643800</v>
+        <v>619900</v>
       </c>
       <c r="E22" s="3">
-        <v>511500</v>
+        <v>492600</v>
       </c>
       <c r="F22" s="3">
-        <v>647800</v>
+        <v>623800</v>
       </c>
       <c r="G22" s="3">
-        <v>644200</v>
+        <v>620400</v>
       </c>
       <c r="H22" s="3">
-        <v>746600</v>
+        <v>718900</v>
       </c>
       <c r="I22" s="3">
-        <v>477500</v>
+        <v>459800</v>
       </c>
       <c r="J22" s="3">
-        <v>203700</v>
+        <v>196100</v>
       </c>
       <c r="K22" s="3">
         <v>160000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1247100</v>
+        <v>1201000</v>
       </c>
       <c r="E23" s="3">
-        <v>5156700</v>
+        <v>4965700</v>
       </c>
       <c r="F23" s="3">
-        <v>5361100</v>
+        <v>5162500</v>
       </c>
       <c r="G23" s="3">
-        <v>3520000</v>
+        <v>3389600</v>
       </c>
       <c r="H23" s="3">
-        <v>1906100</v>
+        <v>1835500</v>
       </c>
       <c r="I23" s="3">
-        <v>-668600</v>
+        <v>-643800</v>
       </c>
       <c r="J23" s="3">
-        <v>3001800</v>
+        <v>2890600</v>
       </c>
       <c r="K23" s="3">
         <v>5908200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>479700</v>
+        <v>462000</v>
       </c>
       <c r="E24" s="3">
-        <v>1241000</v>
+        <v>1195100</v>
       </c>
       <c r="F24" s="3">
-        <v>1976900</v>
+        <v>1903700</v>
       </c>
       <c r="G24" s="3">
-        <v>1521400</v>
+        <v>1465100</v>
       </c>
       <c r="H24" s="3">
-        <v>1257000</v>
+        <v>1210400</v>
       </c>
       <c r="I24" s="3">
-        <v>163800</v>
+        <v>157700</v>
       </c>
       <c r="J24" s="3">
-        <v>1287700</v>
+        <v>1240000</v>
       </c>
       <c r="K24" s="3">
         <v>2184000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>767400</v>
+        <v>739000</v>
       </c>
       <c r="E26" s="3">
-        <v>3915700</v>
+        <v>3770600</v>
       </c>
       <c r="F26" s="3">
-        <v>3384100</v>
+        <v>3258800</v>
       </c>
       <c r="G26" s="3">
-        <v>1998500</v>
+        <v>1924500</v>
       </c>
       <c r="H26" s="3">
-        <v>649100</v>
+        <v>625100</v>
       </c>
       <c r="I26" s="3">
-        <v>-832400</v>
+        <v>-801500</v>
       </c>
       <c r="J26" s="3">
-        <v>1714100</v>
+        <v>1650600</v>
       </c>
       <c r="K26" s="3">
         <v>3724200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>455800</v>
+        <v>438900</v>
       </c>
       <c r="E27" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="F27" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="G27" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="H27" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="J27" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="K27" s="3">
         <v>3538800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-156100</v>
+        <v>-150400</v>
       </c>
       <c r="F32" s="3">
-        <v>-146900</v>
+        <v>-141400</v>
       </c>
       <c r="G32" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="H32" s="3">
-        <v>-424400</v>
+        <v>-408700</v>
       </c>
       <c r="I32" s="3">
-        <v>584200</v>
+        <v>562500</v>
       </c>
       <c r="J32" s="3">
-        <v>695800</v>
+        <v>670000</v>
       </c>
       <c r="K32" s="3">
         <v>-172800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>455800</v>
+        <v>438900</v>
       </c>
       <c r="E33" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="F33" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="G33" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="H33" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="J33" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="K33" s="3">
         <v>3538800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>455800</v>
+        <v>438900</v>
       </c>
       <c r="E35" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="F35" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="G35" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="H35" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="J35" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="K35" s="3">
         <v>3538800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1372200</v>
+        <v>1321400</v>
       </c>
       <c r="E41" s="3">
-        <v>1910500</v>
+        <v>1839700</v>
       </c>
       <c r="F41" s="3">
-        <v>1704200</v>
+        <v>1641100</v>
       </c>
       <c r="G41" s="3">
-        <v>2145400</v>
+        <v>2065900</v>
       </c>
       <c r="H41" s="3">
-        <v>2270800</v>
+        <v>2186700</v>
       </c>
       <c r="I41" s="3">
-        <v>1768600</v>
+        <v>1703100</v>
       </c>
       <c r="J41" s="3">
-        <v>4225700</v>
+        <v>4069200</v>
       </c>
       <c r="K41" s="3">
         <v>4749700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>651500</v>
+        <v>627300</v>
       </c>
       <c r="E42" s="3">
-        <v>477600</v>
+        <v>459900</v>
       </c>
       <c r="F42" s="3">
-        <v>1436700</v>
+        <v>1383500</v>
       </c>
       <c r="G42" s="3">
-        <v>801300</v>
+        <v>771600</v>
       </c>
       <c r="H42" s="3">
-        <v>1449100</v>
+        <v>1395500</v>
       </c>
       <c r="I42" s="3">
-        <v>335500</v>
+        <v>323100</v>
       </c>
       <c r="J42" s="3">
-        <v>941400</v>
+        <v>906500</v>
       </c>
       <c r="K42" s="3">
         <v>889700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2520900</v>
+        <v>2427500</v>
       </c>
       <c r="E43" s="3">
-        <v>2213500</v>
+        <v>2131500</v>
       </c>
       <c r="F43" s="3">
-        <v>2636300</v>
+        <v>2538700</v>
       </c>
       <c r="G43" s="3">
-        <v>1975200</v>
+        <v>1902100</v>
       </c>
       <c r="H43" s="3">
-        <v>1642700</v>
+        <v>1581800</v>
       </c>
       <c r="I43" s="3">
-        <v>2265100</v>
+        <v>2181200</v>
       </c>
       <c r="J43" s="3">
-        <v>3115700</v>
+        <v>3000300</v>
       </c>
       <c r="K43" s="3">
         <v>1667800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1364600</v>
+        <v>1314000</v>
       </c>
       <c r="E44" s="3">
-        <v>1527700</v>
+        <v>1471100</v>
       </c>
       <c r="F44" s="3">
-        <v>1377100</v>
+        <v>1326100</v>
       </c>
       <c r="G44" s="3">
-        <v>1242400</v>
+        <v>1196400</v>
       </c>
       <c r="H44" s="3">
-        <v>1037300</v>
+        <v>998900</v>
       </c>
       <c r="I44" s="3">
-        <v>825600</v>
+        <v>795100</v>
       </c>
       <c r="J44" s="3">
-        <v>1817400</v>
+        <v>1750000</v>
       </c>
       <c r="K44" s="3">
         <v>1845600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>256100</v>
+        <v>246700</v>
       </c>
       <c r="E45" s="3">
-        <v>179200</v>
+        <v>172500</v>
       </c>
       <c r="F45" s="3">
-        <v>143900</v>
+        <v>138600</v>
       </c>
       <c r="G45" s="3">
-        <v>106200</v>
+        <v>102200</v>
       </c>
       <c r="H45" s="3">
-        <v>114900</v>
+        <v>110700</v>
       </c>
       <c r="I45" s="3">
-        <v>235700</v>
+        <v>226900</v>
       </c>
       <c r="J45" s="3">
-        <v>1497800</v>
+        <v>1442300</v>
       </c>
       <c r="K45" s="3">
         <v>2566800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6165300</v>
+        <v>5936900</v>
       </c>
       <c r="E46" s="3">
-        <v>6308400</v>
+        <v>6074800</v>
       </c>
       <c r="F46" s="3">
-        <v>7298300</v>
+        <v>7028000</v>
       </c>
       <c r="G46" s="3">
-        <v>6270500</v>
+        <v>6038200</v>
       </c>
       <c r="H46" s="3">
-        <v>6514900</v>
+        <v>6273600</v>
       </c>
       <c r="I46" s="3">
-        <v>5430600</v>
+        <v>5229500</v>
       </c>
       <c r="J46" s="3">
-        <v>5573000</v>
+        <v>5366600</v>
       </c>
       <c r="K46" s="3">
         <v>7915800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1276600</v>
+        <v>1229300</v>
       </c>
       <c r="E47" s="3">
-        <v>1994500</v>
+        <v>1920700</v>
       </c>
       <c r="F47" s="3">
-        <v>1465200</v>
+        <v>1410900</v>
       </c>
       <c r="G47" s="3">
-        <v>1531800</v>
+        <v>1475100</v>
       </c>
       <c r="H47" s="3">
-        <v>986400</v>
+        <v>949900</v>
       </c>
       <c r="I47" s="3">
-        <v>1018600</v>
+        <v>980900</v>
       </c>
       <c r="J47" s="3">
-        <v>1197100</v>
+        <v>1152700</v>
       </c>
       <c r="K47" s="3">
         <v>1429200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26681500</v>
+        <v>25693300</v>
       </c>
       <c r="E48" s="3">
-        <v>25306800</v>
+        <v>24369500</v>
       </c>
       <c r="F48" s="3">
-        <v>23178300</v>
+        <v>22319900</v>
       </c>
       <c r="G48" s="3">
-        <v>22320400</v>
+        <v>21493700</v>
       </c>
       <c r="H48" s="3">
-        <v>22844700</v>
+        <v>21998600</v>
       </c>
       <c r="I48" s="3">
-        <v>24050000</v>
+        <v>23159300</v>
       </c>
       <c r="J48" s="3">
-        <v>44163900</v>
+        <v>42528200</v>
       </c>
       <c r="K48" s="3">
         <v>34819700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>515400</v>
+        <v>496300</v>
       </c>
       <c r="E49" s="3">
-        <v>378700</v>
+        <v>364700</v>
       </c>
       <c r="F49" s="3">
-        <v>359200</v>
+        <v>345800</v>
       </c>
       <c r="G49" s="3">
-        <v>350900</v>
+        <v>337900</v>
       </c>
       <c r="H49" s="3">
-        <v>321700</v>
+        <v>309800</v>
       </c>
       <c r="I49" s="3">
-        <v>353000</v>
+        <v>339900</v>
       </c>
       <c r="J49" s="3">
-        <v>516700</v>
+        <v>497600</v>
       </c>
       <c r="K49" s="3">
         <v>962100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3003800</v>
+        <v>2892600</v>
       </c>
       <c r="E52" s="3">
-        <v>2582500</v>
+        <v>2486900</v>
       </c>
       <c r="F52" s="3">
-        <v>1784000</v>
+        <v>1717900</v>
       </c>
       <c r="G52" s="3">
-        <v>1627400</v>
+        <v>1567100</v>
       </c>
       <c r="H52" s="3">
-        <v>2085200</v>
+        <v>2008000</v>
       </c>
       <c r="I52" s="3">
-        <v>2356700</v>
+        <v>2269400</v>
       </c>
       <c r="J52" s="3">
-        <v>11007600</v>
+        <v>10599900</v>
       </c>
       <c r="K52" s="3">
         <v>9089100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37642600</v>
+        <v>36248500</v>
       </c>
       <c r="E54" s="3">
-        <v>36571000</v>
+        <v>35216500</v>
       </c>
       <c r="F54" s="3">
-        <v>34085000</v>
+        <v>32822600</v>
       </c>
       <c r="G54" s="3">
-        <v>32101000</v>
+        <v>30912100</v>
       </c>
       <c r="H54" s="3">
-        <v>32753000</v>
+        <v>31539900</v>
       </c>
       <c r="I54" s="3">
-        <v>33208900</v>
+        <v>31978900</v>
       </c>
       <c r="J54" s="3">
-        <v>29926200</v>
+        <v>28817800</v>
       </c>
       <c r="K54" s="3">
         <v>35755600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1752800</v>
+        <v>1687900</v>
       </c>
       <c r="E57" s="3">
-        <v>2191100</v>
+        <v>2109900</v>
       </c>
       <c r="F57" s="3">
-        <v>1857200</v>
+        <v>1788400</v>
       </c>
       <c r="G57" s="3">
-        <v>1374000</v>
+        <v>1323100</v>
       </c>
       <c r="H57" s="3">
-        <v>1260800</v>
+        <v>1214100</v>
       </c>
       <c r="I57" s="3">
-        <v>1344600</v>
+        <v>1294800</v>
       </c>
       <c r="J57" s="3">
-        <v>4043900</v>
+        <v>3894100</v>
       </c>
       <c r="K57" s="3">
         <v>3672400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1329300</v>
+        <v>1280100</v>
       </c>
       <c r="E58" s="3">
-        <v>1353300</v>
+        <v>1303200</v>
       </c>
       <c r="F58" s="3">
-        <v>1085400</v>
+        <v>1045200</v>
       </c>
       <c r="G58" s="3">
-        <v>1389000</v>
+        <v>1337600</v>
       </c>
       <c r="H58" s="3">
-        <v>1114100</v>
+        <v>1072800</v>
       </c>
       <c r="I58" s="3">
-        <v>1234900</v>
+        <v>1189100</v>
       </c>
       <c r="J58" s="3">
-        <v>949700</v>
+        <v>914600</v>
       </c>
       <c r="K58" s="3">
         <v>243300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1854100</v>
+        <v>1785500</v>
       </c>
       <c r="E59" s="3">
-        <v>2326100</v>
+        <v>2239900</v>
       </c>
       <c r="F59" s="3">
-        <v>1870100</v>
+        <v>1800800</v>
       </c>
       <c r="G59" s="3">
-        <v>1785600</v>
+        <v>1719400</v>
       </c>
       <c r="H59" s="3">
-        <v>2049700</v>
+        <v>1973800</v>
       </c>
       <c r="I59" s="3">
-        <v>2130300</v>
+        <v>2051400</v>
       </c>
       <c r="J59" s="3">
-        <v>2121500</v>
+        <v>2042900</v>
       </c>
       <c r="K59" s="3">
         <v>4327100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4936300</v>
+        <v>4753400</v>
       </c>
       <c r="E60" s="3">
-        <v>5870400</v>
+        <v>5653000</v>
       </c>
       <c r="F60" s="3">
-        <v>4812600</v>
+        <v>4634400</v>
       </c>
       <c r="G60" s="3">
-        <v>4548600</v>
+        <v>4380100</v>
       </c>
       <c r="H60" s="3">
-        <v>4424600</v>
+        <v>4260700</v>
       </c>
       <c r="I60" s="3">
-        <v>4709800</v>
+        <v>4535300</v>
       </c>
       <c r="J60" s="3">
-        <v>4547800</v>
+        <v>4379400</v>
       </c>
       <c r="K60" s="3">
         <v>6003600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11288300</v>
+        <v>10870200</v>
       </c>
       <c r="E61" s="3">
-        <v>8971300</v>
+        <v>8639000</v>
       </c>
       <c r="F61" s="3">
-        <v>9191500</v>
+        <v>8851100</v>
       </c>
       <c r="G61" s="3">
-        <v>10368900</v>
+        <v>9984900</v>
       </c>
       <c r="H61" s="3">
-        <v>12985900</v>
+        <v>12504900</v>
       </c>
       <c r="I61" s="3">
-        <v>13135400</v>
+        <v>12648900</v>
       </c>
       <c r="J61" s="3">
-        <v>8511500</v>
+        <v>8196300</v>
       </c>
       <c r="K61" s="3">
         <v>5784500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6346900</v>
+        <v>6111800</v>
       </c>
       <c r="E62" s="3">
-        <v>5436400</v>
+        <v>5235000</v>
       </c>
       <c r="F62" s="3">
-        <v>4068600</v>
+        <v>3917900</v>
       </c>
       <c r="G62" s="3">
-        <v>3742600</v>
+        <v>3603900</v>
       </c>
       <c r="H62" s="3">
-        <v>3106200</v>
+        <v>2991200</v>
       </c>
       <c r="I62" s="3">
-        <v>3151100</v>
+        <v>3034400</v>
       </c>
       <c r="J62" s="3">
-        <v>6106400</v>
+        <v>5880300</v>
       </c>
       <c r="K62" s="3">
         <v>3612900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23576900</v>
+        <v>22703700</v>
       </c>
       <c r="E66" s="3">
-        <v>21339600</v>
+        <v>20549300</v>
       </c>
       <c r="F66" s="3">
-        <v>18637300</v>
+        <v>17947000</v>
       </c>
       <c r="G66" s="3">
-        <v>19168400</v>
+        <v>18458400</v>
       </c>
       <c r="H66" s="3">
-        <v>20961100</v>
+        <v>20184700</v>
       </c>
       <c r="I66" s="3">
-        <v>21502600</v>
+        <v>20706200</v>
       </c>
       <c r="J66" s="3">
-        <v>16960400</v>
+        <v>16332300</v>
       </c>
       <c r="K66" s="3">
         <v>16553400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3398600</v>
+        <v>3272700</v>
       </c>
       <c r="E72" s="3">
-        <v>4941100</v>
+        <v>4758100</v>
       </c>
       <c r="F72" s="3">
-        <v>4801600</v>
+        <v>4623800</v>
       </c>
       <c r="G72" s="3">
-        <v>2669400</v>
+        <v>2570600</v>
       </c>
       <c r="H72" s="3">
-        <v>1137500</v>
+        <v>1095400</v>
       </c>
       <c r="I72" s="3">
-        <v>721400</v>
+        <v>694700</v>
       </c>
       <c r="J72" s="3">
-        <v>27123300</v>
+        <v>26118800</v>
       </c>
       <c r="K72" s="3">
         <v>21481900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14065700</v>
+        <v>13544800</v>
       </c>
       <c r="E76" s="3">
-        <v>15231300</v>
+        <v>14667200</v>
       </c>
       <c r="F76" s="3">
-        <v>15447700</v>
+        <v>14875500</v>
       </c>
       <c r="G76" s="3">
-        <v>12932600</v>
+        <v>12453600</v>
       </c>
       <c r="H76" s="3">
-        <v>11791900</v>
+        <v>11355200</v>
       </c>
       <c r="I76" s="3">
-        <v>11706300</v>
+        <v>11272700</v>
       </c>
       <c r="J76" s="3">
-        <v>12965800</v>
+        <v>12485600</v>
       </c>
       <c r="K76" s="3">
         <v>19202200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>455800</v>
+        <v>438900</v>
       </c>
       <c r="E81" s="3">
-        <v>3577900</v>
+        <v>3445400</v>
       </c>
       <c r="F81" s="3">
-        <v>3120200</v>
+        <v>3004700</v>
       </c>
       <c r="G81" s="3">
-        <v>1787500</v>
+        <v>1721300</v>
       </c>
       <c r="H81" s="3">
-        <v>422500</v>
+        <v>406800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1076700</v>
+        <v>-1036800</v>
       </c>
       <c r="J81" s="3">
-        <v>1545900</v>
+        <v>1488600</v>
       </c>
       <c r="K81" s="3">
         <v>3538800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2513600</v>
+        <v>2420500</v>
       </c>
       <c r="E83" s="3">
-        <v>2313300</v>
+        <v>2227700</v>
       </c>
       <c r="F83" s="3">
-        <v>2076300</v>
+        <v>1999400</v>
       </c>
       <c r="G83" s="3">
-        <v>2232000</v>
+        <v>2149300</v>
       </c>
       <c r="H83" s="3">
-        <v>2049900</v>
+        <v>1974000</v>
       </c>
       <c r="I83" s="3">
-        <v>1828000</v>
+        <v>1760300</v>
       </c>
       <c r="J83" s="3">
-        <v>2876100</v>
+        <v>2769600</v>
       </c>
       <c r="K83" s="3">
         <v>1489900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2480400</v>
+        <v>2388500</v>
       </c>
       <c r="E89" s="3">
-        <v>7482200</v>
+        <v>7205100</v>
       </c>
       <c r="F89" s="3">
-        <v>6046000</v>
+        <v>5822000</v>
       </c>
       <c r="G89" s="3">
-        <v>4582900</v>
+        <v>4413100</v>
       </c>
       <c r="H89" s="3">
-        <v>3898300</v>
+        <v>3753900</v>
       </c>
       <c r="I89" s="3">
-        <v>2811100</v>
+        <v>2707000</v>
       </c>
       <c r="J89" s="3">
-        <v>4474700</v>
+        <v>4309000</v>
       </c>
       <c r="K89" s="3">
         <v>4731100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2977200</v>
+        <v>-2867000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3728900</v>
+        <v>-3590800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2255800</v>
+        <v>-2172200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1563200</v>
+        <v>-1505300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1557400</v>
+        <v>-1499700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3817600</v>
+        <v>-3676200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3769700</v>
+        <v>-3630100</v>
       </c>
       <c r="K91" s="3">
         <v>-2149200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2302800</v>
+        <v>-2217500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2709700</v>
+        <v>-2609400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2333400</v>
+        <v>-2246900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1183600</v>
+        <v>-1139800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2588900</v>
+        <v>-2493000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3117200</v>
+        <v>-3001700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3123600</v>
+        <v>-3007900</v>
       </c>
       <c r="K94" s="3">
         <v>-2608900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2358300</v>
+        <v>-2270900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3744100</v>
+        <v>-3605400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1195500</v>
+        <v>-1151200</v>
       </c>
       <c r="G96" s="3">
-        <v>-406300</v>
+        <v>-391200</v>
       </c>
       <c r="H96" s="3">
-        <v>-462300</v>
+        <v>-445200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1483200</v>
+        <v>-1428300</v>
       </c>
       <c r="J96" s="3">
-        <v>-483100</v>
+        <v>-465200</v>
       </c>
       <c r="K96" s="3">
         <v>-3934000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-709800</v>
+        <v>-683600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4636000</v>
+        <v>-4464300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4263500</v>
+        <v>-4105600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3446300</v>
+        <v>-3318700</v>
       </c>
       <c r="H100" s="3">
-        <v>-746000</v>
+        <v>-718400</v>
       </c>
       <c r="I100" s="3">
-        <v>-375900</v>
+        <v>-362000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1983500</v>
+        <v>-1910000</v>
       </c>
       <c r="K100" s="3">
         <v>-1911000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>69800</v>
+        <v>67200</v>
       </c>
       <c r="F101" s="3">
-        <v>109700</v>
+        <v>105600</v>
       </c>
       <c r="G101" s="3">
-        <v>-78400</v>
+        <v>-75500</v>
       </c>
       <c r="H101" s="3">
-        <v>-61100</v>
+        <v>-58800</v>
       </c>
       <c r="I101" s="3">
-        <v>393700</v>
+        <v>379100</v>
       </c>
       <c r="J101" s="3">
-        <v>311900</v>
+        <v>300300</v>
       </c>
       <c r="K101" s="3">
         <v>31900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-538200</v>
+        <v>-518300</v>
       </c>
       <c r="E102" s="3">
-        <v>206300</v>
+        <v>198600</v>
       </c>
       <c r="F102" s="3">
-        <v>-441200</v>
+        <v>-424900</v>
       </c>
       <c r="G102" s="3">
-        <v>-125400</v>
+        <v>-120800</v>
       </c>
       <c r="H102" s="3">
-        <v>502200</v>
+        <v>483600</v>
       </c>
       <c r="I102" s="3">
-        <v>-288300</v>
+        <v>-277600</v>
       </c>
       <c r="J102" s="3">
-        <v>-320500</v>
+        <v>-308600</v>
       </c>
       <c r="K102" s="3">
         <v>243200</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13006900</v>
+        <v>12506600</v>
       </c>
       <c r="E8" s="3">
-        <v>18420200</v>
+        <v>17711700</v>
       </c>
       <c r="F8" s="3">
-        <v>17633200</v>
+        <v>16955000</v>
       </c>
       <c r="G8" s="3">
-        <v>14354700</v>
+        <v>13802600</v>
       </c>
       <c r="H8" s="3">
-        <v>12410400</v>
+        <v>11933100</v>
       </c>
       <c r="I8" s="3">
-        <v>13543600</v>
+        <v>13022700</v>
       </c>
       <c r="J8" s="3">
-        <v>17152700</v>
+        <v>16493000</v>
       </c>
       <c r="K8" s="3">
         <v>19015800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9763700</v>
+        <v>9388200</v>
       </c>
       <c r="E9" s="3">
-        <v>11689000</v>
+        <v>11239400</v>
       </c>
       <c r="F9" s="3">
-        <v>10704100</v>
+        <v>10292400</v>
       </c>
       <c r="G9" s="3">
-        <v>9592300</v>
+        <v>9223400</v>
       </c>
       <c r="H9" s="3">
-        <v>8901500</v>
+        <v>8559100</v>
       </c>
       <c r="I9" s="3">
-        <v>9618600</v>
+        <v>9248600</v>
       </c>
       <c r="J9" s="3">
-        <v>11331900</v>
+        <v>10896100</v>
       </c>
       <c r="K9" s="3">
         <v>22363600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3243200</v>
+        <v>3118500</v>
       </c>
       <c r="E10" s="3">
-        <v>6731200</v>
+        <v>6472300</v>
       </c>
       <c r="F10" s="3">
-        <v>6929100</v>
+        <v>6662600</v>
       </c>
       <c r="G10" s="3">
-        <v>4762400</v>
+        <v>4579200</v>
       </c>
       <c r="H10" s="3">
-        <v>3508900</v>
+        <v>3373900</v>
       </c>
       <c r="I10" s="3">
-        <v>3925100</v>
+        <v>3774100</v>
       </c>
       <c r="J10" s="3">
-        <v>5820800</v>
+        <v>5596900</v>
       </c>
       <c r="K10" s="3">
         <v>-3347900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>179200</v>
+        <v>172300</v>
       </c>
       <c r="E12" s="3">
-        <v>198500</v>
+        <v>190900</v>
       </c>
       <c r="F12" s="3">
-        <v>360700</v>
+        <v>346800</v>
       </c>
       <c r="G12" s="3">
-        <v>348900</v>
+        <v>335500</v>
       </c>
       <c r="H12" s="3">
-        <v>189400</v>
+        <v>182100</v>
       </c>
       <c r="I12" s="3">
-        <v>411900</v>
+        <v>396100</v>
       </c>
       <c r="J12" s="3">
-        <v>669800</v>
+        <v>644100</v>
       </c>
       <c r="K12" s="3">
         <v>365900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-186000</v>
+        <v>-178800</v>
       </c>
       <c r="E14" s="3">
-        <v>207100</v>
+        <v>199200</v>
       </c>
       <c r="F14" s="3">
-        <v>111000</v>
+        <v>106800</v>
       </c>
       <c r="G14" s="3">
-        <v>-455400</v>
+        <v>-437900</v>
       </c>
       <c r="H14" s="3">
-        <v>189500</v>
+        <v>182200</v>
       </c>
       <c r="I14" s="3">
-        <v>2100200</v>
+        <v>2019500</v>
       </c>
       <c r="J14" s="3">
-        <v>546200</v>
+        <v>525200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>84400</v>
+        <v>81100</v>
       </c>
       <c r="E15" s="3">
-        <v>72300</v>
+        <v>69500</v>
       </c>
       <c r="F15" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="G15" s="3">
-        <v>38800</v>
+        <v>37300</v>
       </c>
       <c r="H15" s="3">
-        <v>58000</v>
+        <v>55800</v>
       </c>
       <c r="I15" s="3">
-        <v>44400</v>
+        <v>42700</v>
       </c>
       <c r="J15" s="3">
-        <v>128500</v>
+        <v>123500</v>
       </c>
       <c r="K15" s="3">
         <v>102600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11183700</v>
+        <v>10753600</v>
       </c>
       <c r="E17" s="3">
-        <v>13112200</v>
+        <v>12607900</v>
       </c>
       <c r="F17" s="3">
-        <v>11988200</v>
+        <v>11527100</v>
       </c>
       <c r="G17" s="3">
-        <v>10323500</v>
+        <v>9926400</v>
       </c>
       <c r="H17" s="3">
-        <v>10264600</v>
+        <v>9869800</v>
       </c>
       <c r="I17" s="3">
-        <v>13165100</v>
+        <v>12658700</v>
       </c>
       <c r="J17" s="3">
-        <v>13395900</v>
+        <v>12880700</v>
       </c>
       <c r="K17" s="3">
         <v>13120400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1823200</v>
+        <v>1753100</v>
       </c>
       <c r="E18" s="3">
-        <v>5307900</v>
+        <v>5103800</v>
       </c>
       <c r="F18" s="3">
-        <v>5645000</v>
+        <v>5427800</v>
       </c>
       <c r="G18" s="3">
-        <v>4031200</v>
+        <v>3876100</v>
       </c>
       <c r="H18" s="3">
-        <v>2145800</v>
+        <v>2063200</v>
       </c>
       <c r="I18" s="3">
-        <v>378500</v>
+        <v>364000</v>
       </c>
       <c r="J18" s="3">
-        <v>3756700</v>
+        <v>3612300</v>
       </c>
       <c r="K18" s="3">
         <v>5895400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>150400</v>
+        <v>144600</v>
       </c>
       <c r="F20" s="3">
-        <v>141400</v>
+        <v>136000</v>
       </c>
       <c r="G20" s="3">
-        <v>-21300</v>
+        <v>-20400</v>
       </c>
       <c r="H20" s="3">
-        <v>408700</v>
+        <v>392900</v>
       </c>
       <c r="I20" s="3">
-        <v>-562500</v>
+        <v>-540900</v>
       </c>
       <c r="J20" s="3">
-        <v>-670000</v>
+        <v>-644300</v>
       </c>
       <c r="K20" s="3">
         <v>172800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4241400</v>
+        <v>4078300</v>
       </c>
       <c r="E21" s="3">
-        <v>7685900</v>
+        <v>7390300</v>
       </c>
       <c r="F21" s="3">
-        <v>7785800</v>
+        <v>7486300</v>
       </c>
       <c r="G21" s="3">
-        <v>6159200</v>
+        <v>5922300</v>
       </c>
       <c r="H21" s="3">
-        <v>4528400</v>
+        <v>4354200</v>
       </c>
       <c r="I21" s="3">
-        <v>1576300</v>
+        <v>1515700</v>
       </c>
       <c r="J21" s="3">
-        <v>5856300</v>
+        <v>5631000</v>
       </c>
       <c r="K21" s="3">
         <v>7558100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>619900</v>
+        <v>596100</v>
       </c>
       <c r="E22" s="3">
-        <v>492600</v>
+        <v>473600</v>
       </c>
       <c r="F22" s="3">
-        <v>623800</v>
+        <v>599900</v>
       </c>
       <c r="G22" s="3">
-        <v>620400</v>
+        <v>596500</v>
       </c>
       <c r="H22" s="3">
-        <v>718900</v>
+        <v>691300</v>
       </c>
       <c r="I22" s="3">
-        <v>459800</v>
+        <v>442200</v>
       </c>
       <c r="J22" s="3">
-        <v>196100</v>
+        <v>188600</v>
       </c>
       <c r="K22" s="3">
         <v>160000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1201000</v>
+        <v>1154800</v>
       </c>
       <c r="E23" s="3">
-        <v>4965700</v>
+        <v>4774700</v>
       </c>
       <c r="F23" s="3">
-        <v>5162500</v>
+        <v>4964000</v>
       </c>
       <c r="G23" s="3">
-        <v>3389600</v>
+        <v>3259200</v>
       </c>
       <c r="H23" s="3">
-        <v>1835500</v>
+        <v>1764900</v>
       </c>
       <c r="I23" s="3">
-        <v>-643800</v>
+        <v>-619100</v>
       </c>
       <c r="J23" s="3">
-        <v>2890600</v>
+        <v>2779400</v>
       </c>
       <c r="K23" s="3">
         <v>5908200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>462000</v>
+        <v>444200</v>
       </c>
       <c r="E24" s="3">
-        <v>1195100</v>
+        <v>1149100</v>
       </c>
       <c r="F24" s="3">
-        <v>1903700</v>
+        <v>1830500</v>
       </c>
       <c r="G24" s="3">
-        <v>1465100</v>
+        <v>1408700</v>
       </c>
       <c r="H24" s="3">
-        <v>1210400</v>
+        <v>1163900</v>
       </c>
       <c r="I24" s="3">
-        <v>157700</v>
+        <v>151600</v>
       </c>
       <c r="J24" s="3">
-        <v>1240000</v>
+        <v>1192300</v>
       </c>
       <c r="K24" s="3">
         <v>2184000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>739000</v>
+        <v>710600</v>
       </c>
       <c r="E26" s="3">
-        <v>3770600</v>
+        <v>3625600</v>
       </c>
       <c r="F26" s="3">
-        <v>3258800</v>
+        <v>3133500</v>
       </c>
       <c r="G26" s="3">
-        <v>1924500</v>
+        <v>1850500</v>
       </c>
       <c r="H26" s="3">
-        <v>625100</v>
+        <v>601100</v>
       </c>
       <c r="I26" s="3">
-        <v>-801500</v>
+        <v>-770700</v>
       </c>
       <c r="J26" s="3">
-        <v>1650600</v>
+        <v>1587100</v>
       </c>
       <c r="K26" s="3">
         <v>3724200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>438900</v>
+        <v>422000</v>
       </c>
       <c r="E27" s="3">
-        <v>3445400</v>
+        <v>3312900</v>
       </c>
       <c r="F27" s="3">
-        <v>3004700</v>
+        <v>2889100</v>
       </c>
       <c r="G27" s="3">
-        <v>1721300</v>
+        <v>1655100</v>
       </c>
       <c r="H27" s="3">
-        <v>406800</v>
+        <v>391200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1036800</v>
+        <v>-996900</v>
       </c>
       <c r="J27" s="3">
-        <v>1488600</v>
+        <v>1431400</v>
       </c>
       <c r="K27" s="3">
         <v>3538800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-150400</v>
+        <v>-144600</v>
       </c>
       <c r="F32" s="3">
-        <v>-141400</v>
+        <v>-136000</v>
       </c>
       <c r="G32" s="3">
-        <v>21300</v>
+        <v>20400</v>
       </c>
       <c r="H32" s="3">
-        <v>-408700</v>
+        <v>-392900</v>
       </c>
       <c r="I32" s="3">
-        <v>562500</v>
+        <v>540900</v>
       </c>
       <c r="J32" s="3">
-        <v>670000</v>
+        <v>644300</v>
       </c>
       <c r="K32" s="3">
         <v>-172800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>438900</v>
+        <v>422000</v>
       </c>
       <c r="E33" s="3">
-        <v>3445400</v>
+        <v>3312900</v>
       </c>
       <c r="F33" s="3">
-        <v>3004700</v>
+        <v>2889100</v>
       </c>
       <c r="G33" s="3">
-        <v>1721300</v>
+        <v>1655100</v>
       </c>
       <c r="H33" s="3">
-        <v>406800</v>
+        <v>391200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1036800</v>
+        <v>-996900</v>
       </c>
       <c r="J33" s="3">
-        <v>1488600</v>
+        <v>1431400</v>
       </c>
       <c r="K33" s="3">
         <v>3538800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>438900</v>
+        <v>422000</v>
       </c>
       <c r="E35" s="3">
-        <v>3445400</v>
+        <v>3312900</v>
       </c>
       <c r="F35" s="3">
-        <v>3004700</v>
+        <v>2889100</v>
       </c>
       <c r="G35" s="3">
-        <v>1721300</v>
+        <v>1655100</v>
       </c>
       <c r="H35" s="3">
-        <v>406800</v>
+        <v>391200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1036800</v>
+        <v>-996900</v>
       </c>
       <c r="J35" s="3">
-        <v>1488600</v>
+        <v>1431400</v>
       </c>
       <c r="K35" s="3">
         <v>3538800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1321400</v>
+        <v>1270600</v>
       </c>
       <c r="E41" s="3">
-        <v>1839700</v>
+        <v>1768900</v>
       </c>
       <c r="F41" s="3">
-        <v>1641100</v>
+        <v>1577900</v>
       </c>
       <c r="G41" s="3">
-        <v>2065900</v>
+        <v>1986500</v>
       </c>
       <c r="H41" s="3">
-        <v>2186700</v>
+        <v>2102600</v>
       </c>
       <c r="I41" s="3">
-        <v>1703100</v>
+        <v>1637600</v>
       </c>
       <c r="J41" s="3">
-        <v>4069200</v>
+        <v>3912700</v>
       </c>
       <c r="K41" s="3">
         <v>4749700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>627300</v>
+        <v>603200</v>
       </c>
       <c r="E42" s="3">
-        <v>459900</v>
+        <v>442200</v>
       </c>
       <c r="F42" s="3">
-        <v>1383500</v>
+        <v>1330300</v>
       </c>
       <c r="G42" s="3">
-        <v>771600</v>
+        <v>742000</v>
       </c>
       <c r="H42" s="3">
-        <v>1395500</v>
+        <v>1341800</v>
       </c>
       <c r="I42" s="3">
-        <v>323100</v>
+        <v>310700</v>
       </c>
       <c r="J42" s="3">
-        <v>906500</v>
+        <v>871700</v>
       </c>
       <c r="K42" s="3">
         <v>889700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2427500</v>
+        <v>2334200</v>
       </c>
       <c r="E43" s="3">
-        <v>2131500</v>
+        <v>2049500</v>
       </c>
       <c r="F43" s="3">
-        <v>2538700</v>
+        <v>2441100</v>
       </c>
       <c r="G43" s="3">
-        <v>1902100</v>
+        <v>1828900</v>
       </c>
       <c r="H43" s="3">
-        <v>1581800</v>
+        <v>1521000</v>
       </c>
       <c r="I43" s="3">
-        <v>2181200</v>
+        <v>2097300</v>
       </c>
       <c r="J43" s="3">
-        <v>3000300</v>
+        <v>2884900</v>
       </c>
       <c r="K43" s="3">
         <v>1667800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1314000</v>
+        <v>1263500</v>
       </c>
       <c r="E44" s="3">
-        <v>1471100</v>
+        <v>1414500</v>
       </c>
       <c r="F44" s="3">
-        <v>1326100</v>
+        <v>1275100</v>
       </c>
       <c r="G44" s="3">
-        <v>1196400</v>
+        <v>1150300</v>
       </c>
       <c r="H44" s="3">
-        <v>998900</v>
+        <v>960500</v>
       </c>
       <c r="I44" s="3">
-        <v>795100</v>
+        <v>764500</v>
       </c>
       <c r="J44" s="3">
-        <v>1750000</v>
+        <v>1682700</v>
       </c>
       <c r="K44" s="3">
         <v>1845600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>246700</v>
+        <v>237200</v>
       </c>
       <c r="E45" s="3">
-        <v>172500</v>
+        <v>165900</v>
       </c>
       <c r="F45" s="3">
-        <v>138600</v>
+        <v>133300</v>
       </c>
       <c r="G45" s="3">
-        <v>102200</v>
+        <v>98300</v>
       </c>
       <c r="H45" s="3">
-        <v>110700</v>
+        <v>106400</v>
       </c>
       <c r="I45" s="3">
-        <v>226900</v>
+        <v>218200</v>
       </c>
       <c r="J45" s="3">
-        <v>1442300</v>
+        <v>1386800</v>
       </c>
       <c r="K45" s="3">
         <v>2566800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5936900</v>
+        <v>5708600</v>
       </c>
       <c r="E46" s="3">
-        <v>6074800</v>
+        <v>5841100</v>
       </c>
       <c r="F46" s="3">
-        <v>7028000</v>
+        <v>6757700</v>
       </c>
       <c r="G46" s="3">
-        <v>6038200</v>
+        <v>5806000</v>
       </c>
       <c r="H46" s="3">
-        <v>6273600</v>
+        <v>6032300</v>
       </c>
       <c r="I46" s="3">
-        <v>5229500</v>
+        <v>5028300</v>
       </c>
       <c r="J46" s="3">
-        <v>5366600</v>
+        <v>5160200</v>
       </c>
       <c r="K46" s="3">
         <v>7915800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1229300</v>
+        <v>1182100</v>
       </c>
       <c r="E47" s="3">
-        <v>1920700</v>
+        <v>1846800</v>
       </c>
       <c r="F47" s="3">
-        <v>1410900</v>
+        <v>1356700</v>
       </c>
       <c r="G47" s="3">
-        <v>1475100</v>
+        <v>1418400</v>
       </c>
       <c r="H47" s="3">
-        <v>949900</v>
+        <v>913400</v>
       </c>
       <c r="I47" s="3">
-        <v>980900</v>
+        <v>943200</v>
       </c>
       <c r="J47" s="3">
-        <v>1152700</v>
+        <v>1108400</v>
       </c>
       <c r="K47" s="3">
         <v>1429200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25693300</v>
+        <v>24705100</v>
       </c>
       <c r="E48" s="3">
-        <v>24369500</v>
+        <v>23432200</v>
       </c>
       <c r="F48" s="3">
-        <v>22319900</v>
+        <v>21461400</v>
       </c>
       <c r="G48" s="3">
-        <v>21493700</v>
+        <v>20667000</v>
       </c>
       <c r="H48" s="3">
-        <v>21998600</v>
+        <v>21152500</v>
       </c>
       <c r="I48" s="3">
-        <v>23159300</v>
+        <v>22268500</v>
       </c>
       <c r="J48" s="3">
-        <v>42528200</v>
+        <v>40892500</v>
       </c>
       <c r="K48" s="3">
         <v>34819700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>496300</v>
+        <v>477200</v>
       </c>
       <c r="E49" s="3">
-        <v>364700</v>
+        <v>350600</v>
       </c>
       <c r="F49" s="3">
-        <v>345800</v>
+        <v>332500</v>
       </c>
       <c r="G49" s="3">
-        <v>337900</v>
+        <v>324900</v>
       </c>
       <c r="H49" s="3">
-        <v>309800</v>
+        <v>297900</v>
       </c>
       <c r="I49" s="3">
-        <v>339900</v>
+        <v>326900</v>
       </c>
       <c r="J49" s="3">
-        <v>497600</v>
+        <v>478400</v>
       </c>
       <c r="K49" s="3">
         <v>962100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2892600</v>
+        <v>2781300</v>
       </c>
       <c r="E52" s="3">
-        <v>2486900</v>
+        <v>2391200</v>
       </c>
       <c r="F52" s="3">
-        <v>1717900</v>
+        <v>1651900</v>
       </c>
       <c r="G52" s="3">
-        <v>1567100</v>
+        <v>1506800</v>
       </c>
       <c r="H52" s="3">
-        <v>2008000</v>
+        <v>1930800</v>
       </c>
       <c r="I52" s="3">
-        <v>2269400</v>
+        <v>2182100</v>
       </c>
       <c r="J52" s="3">
-        <v>10599900</v>
+        <v>10192200</v>
       </c>
       <c r="K52" s="3">
         <v>9089100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36248500</v>
+        <v>34854300</v>
       </c>
       <c r="E54" s="3">
-        <v>35216500</v>
+        <v>33862000</v>
       </c>
       <c r="F54" s="3">
-        <v>32822600</v>
+        <v>31560200</v>
       </c>
       <c r="G54" s="3">
-        <v>30912100</v>
+        <v>29723100</v>
       </c>
       <c r="H54" s="3">
-        <v>31539900</v>
+        <v>30326900</v>
       </c>
       <c r="I54" s="3">
-        <v>31978900</v>
+        <v>30749000</v>
       </c>
       <c r="J54" s="3">
-        <v>28817800</v>
+        <v>27709500</v>
       </c>
       <c r="K54" s="3">
         <v>35755600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1687900</v>
+        <v>1623000</v>
       </c>
       <c r="E57" s="3">
-        <v>2109900</v>
+        <v>2028800</v>
       </c>
       <c r="F57" s="3">
-        <v>1788400</v>
+        <v>1719600</v>
       </c>
       <c r="G57" s="3">
-        <v>1323100</v>
+        <v>1272200</v>
       </c>
       <c r="H57" s="3">
-        <v>1214100</v>
+        <v>1167400</v>
       </c>
       <c r="I57" s="3">
-        <v>1294800</v>
+        <v>1245000</v>
       </c>
       <c r="J57" s="3">
-        <v>3894100</v>
+        <v>3744300</v>
       </c>
       <c r="K57" s="3">
         <v>3672400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1280100</v>
+        <v>1230800</v>
       </c>
       <c r="E58" s="3">
-        <v>1303200</v>
+        <v>1253000</v>
       </c>
       <c r="F58" s="3">
-        <v>1045200</v>
+        <v>1005000</v>
       </c>
       <c r="G58" s="3">
-        <v>1337600</v>
+        <v>1286100</v>
       </c>
       <c r="H58" s="3">
-        <v>1072800</v>
+        <v>1031600</v>
       </c>
       <c r="I58" s="3">
-        <v>1189100</v>
+        <v>1143400</v>
       </c>
       <c r="J58" s="3">
-        <v>914600</v>
+        <v>879400</v>
       </c>
       <c r="K58" s="3">
         <v>243300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1785500</v>
+        <v>1716800</v>
       </c>
       <c r="E59" s="3">
-        <v>2239900</v>
+        <v>2153800</v>
       </c>
       <c r="F59" s="3">
-        <v>1800800</v>
+        <v>1731500</v>
       </c>
       <c r="G59" s="3">
-        <v>1719400</v>
+        <v>1653300</v>
       </c>
       <c r="H59" s="3">
-        <v>1973800</v>
+        <v>1897900</v>
       </c>
       <c r="I59" s="3">
-        <v>2051400</v>
+        <v>1972500</v>
       </c>
       <c r="J59" s="3">
-        <v>2042900</v>
+        <v>1964300</v>
       </c>
       <c r="K59" s="3">
         <v>4327100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4753400</v>
+        <v>4570600</v>
       </c>
       <c r="E60" s="3">
-        <v>5653000</v>
+        <v>5435600</v>
       </c>
       <c r="F60" s="3">
-        <v>4634400</v>
+        <v>4456200</v>
       </c>
       <c r="G60" s="3">
-        <v>4380100</v>
+        <v>4211700</v>
       </c>
       <c r="H60" s="3">
-        <v>4260700</v>
+        <v>4096800</v>
       </c>
       <c r="I60" s="3">
-        <v>4535300</v>
+        <v>4360900</v>
       </c>
       <c r="J60" s="3">
-        <v>4379400</v>
+        <v>4210900</v>
       </c>
       <c r="K60" s="3">
         <v>6003600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10870200</v>
+        <v>10452100</v>
       </c>
       <c r="E61" s="3">
-        <v>8639000</v>
+        <v>8306700</v>
       </c>
       <c r="F61" s="3">
-        <v>8851100</v>
+        <v>8510700</v>
       </c>
       <c r="G61" s="3">
-        <v>9984900</v>
+        <v>9600800</v>
       </c>
       <c r="H61" s="3">
-        <v>12504900</v>
+        <v>12024000</v>
       </c>
       <c r="I61" s="3">
-        <v>12648900</v>
+        <v>12162400</v>
       </c>
       <c r="J61" s="3">
-        <v>8196300</v>
+        <v>7881000</v>
       </c>
       <c r="K61" s="3">
         <v>5784500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6111800</v>
+        <v>5876700</v>
       </c>
       <c r="E62" s="3">
-        <v>5235000</v>
+        <v>5033700</v>
       </c>
       <c r="F62" s="3">
-        <v>3917900</v>
+        <v>3767200</v>
       </c>
       <c r="G62" s="3">
-        <v>3603900</v>
+        <v>3465300</v>
       </c>
       <c r="H62" s="3">
-        <v>2991200</v>
+        <v>2876100</v>
       </c>
       <c r="I62" s="3">
-        <v>3034400</v>
+        <v>2917700</v>
       </c>
       <c r="J62" s="3">
-        <v>5880300</v>
+        <v>5654100</v>
       </c>
       <c r="K62" s="3">
         <v>3612900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22703700</v>
+        <v>21830500</v>
       </c>
       <c r="E66" s="3">
-        <v>20549300</v>
+        <v>19758900</v>
       </c>
       <c r="F66" s="3">
-        <v>17947000</v>
+        <v>17256800</v>
       </c>
       <c r="G66" s="3">
-        <v>18458400</v>
+        <v>17748500</v>
       </c>
       <c r="H66" s="3">
-        <v>20184700</v>
+        <v>19408400</v>
       </c>
       <c r="I66" s="3">
-        <v>20706200</v>
+        <v>19909800</v>
       </c>
       <c r="J66" s="3">
-        <v>16332300</v>
+        <v>15704100</v>
       </c>
       <c r="K66" s="3">
         <v>16553400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3272700</v>
+        <v>3146900</v>
       </c>
       <c r="E72" s="3">
-        <v>4758100</v>
+        <v>4575100</v>
       </c>
       <c r="F72" s="3">
-        <v>4623800</v>
+        <v>4445900</v>
       </c>
       <c r="G72" s="3">
-        <v>2570600</v>
+        <v>2471700</v>
       </c>
       <c r="H72" s="3">
-        <v>1095400</v>
+        <v>1053300</v>
       </c>
       <c r="I72" s="3">
-        <v>694700</v>
+        <v>668000</v>
       </c>
       <c r="J72" s="3">
-        <v>26118800</v>
+        <v>25114200</v>
       </c>
       <c r="K72" s="3">
         <v>21481900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13544800</v>
+        <v>13023800</v>
       </c>
       <c r="E76" s="3">
-        <v>14667200</v>
+        <v>14103100</v>
       </c>
       <c r="F76" s="3">
-        <v>14875500</v>
+        <v>14303400</v>
       </c>
       <c r="G76" s="3">
-        <v>12453600</v>
+        <v>11974700</v>
       </c>
       <c r="H76" s="3">
-        <v>11355200</v>
+        <v>10918500</v>
       </c>
       <c r="I76" s="3">
-        <v>11272700</v>
+        <v>10839200</v>
       </c>
       <c r="J76" s="3">
-        <v>12485600</v>
+        <v>12005300</v>
       </c>
       <c r="K76" s="3">
         <v>19202200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>438900</v>
+        <v>422000</v>
       </c>
       <c r="E81" s="3">
-        <v>3445400</v>
+        <v>3312900</v>
       </c>
       <c r="F81" s="3">
-        <v>3004700</v>
+        <v>2889100</v>
       </c>
       <c r="G81" s="3">
-        <v>1721300</v>
+        <v>1655100</v>
       </c>
       <c r="H81" s="3">
-        <v>406800</v>
+        <v>391200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1036800</v>
+        <v>-996900</v>
       </c>
       <c r="J81" s="3">
-        <v>1488600</v>
+        <v>1431400</v>
       </c>
       <c r="K81" s="3">
         <v>3538800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2420500</v>
+        <v>2327400</v>
       </c>
       <c r="E83" s="3">
-        <v>2227700</v>
+        <v>2142000</v>
       </c>
       <c r="F83" s="3">
-        <v>1999400</v>
+        <v>1922500</v>
       </c>
       <c r="G83" s="3">
-        <v>2149300</v>
+        <v>2066600</v>
       </c>
       <c r="H83" s="3">
-        <v>1974000</v>
+        <v>1898000</v>
       </c>
       <c r="I83" s="3">
-        <v>1760300</v>
+        <v>1692600</v>
       </c>
       <c r="J83" s="3">
-        <v>2769600</v>
+        <v>2663000</v>
       </c>
       <c r="K83" s="3">
         <v>1489900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2388500</v>
+        <v>2296700</v>
       </c>
       <c r="E89" s="3">
-        <v>7205100</v>
+        <v>6927900</v>
       </c>
       <c r="F89" s="3">
-        <v>5822000</v>
+        <v>5598100</v>
       </c>
       <c r="G89" s="3">
-        <v>4413100</v>
+        <v>4243400</v>
       </c>
       <c r="H89" s="3">
-        <v>3753900</v>
+        <v>3609500</v>
       </c>
       <c r="I89" s="3">
-        <v>2707000</v>
+        <v>2602900</v>
       </c>
       <c r="J89" s="3">
-        <v>4309000</v>
+        <v>4143200</v>
       </c>
       <c r="K89" s="3">
         <v>4731100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2867000</v>
+        <v>-2756700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3590800</v>
+        <v>-3452700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2172200</v>
+        <v>-2088700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1505300</v>
+        <v>-1447400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1499700</v>
+        <v>-1442100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3676200</v>
+        <v>-3534800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3630100</v>
+        <v>-3490500</v>
       </c>
       <c r="K91" s="3">
         <v>-2149200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2217500</v>
+        <v>-2132200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2609400</v>
+        <v>-2509000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2246900</v>
+        <v>-2160500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1139800</v>
+        <v>-1095900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2493000</v>
+        <v>-2397200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3001700</v>
+        <v>-2886300</v>
       </c>
       <c r="J94" s="3">
-        <v>-3007900</v>
+        <v>-2892200</v>
       </c>
       <c r="K94" s="3">
         <v>-2608900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2270900</v>
+        <v>-2183600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3605400</v>
+        <v>-3466800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1151200</v>
+        <v>-1106900</v>
       </c>
       <c r="G96" s="3">
-        <v>-391200</v>
+        <v>-376200</v>
       </c>
       <c r="H96" s="3">
-        <v>-445200</v>
+        <v>-428100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1428300</v>
+        <v>-1373400</v>
       </c>
       <c r="J96" s="3">
-        <v>-465200</v>
+        <v>-447400</v>
       </c>
       <c r="K96" s="3">
         <v>-3934000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-683600</v>
+        <v>-657300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4464300</v>
+        <v>-4292600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4105600</v>
+        <v>-3947700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3318700</v>
+        <v>-3191000</v>
       </c>
       <c r="H100" s="3">
-        <v>-718400</v>
+        <v>-690800</v>
       </c>
       <c r="I100" s="3">
-        <v>-362000</v>
+        <v>-348000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1910000</v>
+        <v>-1836600</v>
       </c>
       <c r="K100" s="3">
         <v>-1911000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="E101" s="3">
-        <v>67200</v>
+        <v>64600</v>
       </c>
       <c r="F101" s="3">
-        <v>105600</v>
+        <v>101600</v>
       </c>
       <c r="G101" s="3">
-        <v>-75500</v>
+        <v>-72600</v>
       </c>
       <c r="H101" s="3">
-        <v>-58800</v>
+        <v>-56600</v>
       </c>
       <c r="I101" s="3">
-        <v>379100</v>
+        <v>364500</v>
       </c>
       <c r="J101" s="3">
-        <v>300300</v>
+        <v>288800</v>
       </c>
       <c r="K101" s="3">
         <v>31900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-518300</v>
+        <v>-498400</v>
       </c>
       <c r="E102" s="3">
-        <v>198600</v>
+        <v>191000</v>
       </c>
       <c r="F102" s="3">
-        <v>-424900</v>
+        <v>-408500</v>
       </c>
       <c r="G102" s="3">
-        <v>-120800</v>
+        <v>-116100</v>
       </c>
       <c r="H102" s="3">
-        <v>483600</v>
+        <v>465000</v>
       </c>
       <c r="I102" s="3">
-        <v>-277600</v>
+        <v>-266900</v>
       </c>
       <c r="J102" s="3">
-        <v>-308600</v>
+        <v>-296700</v>
       </c>
       <c r="K102" s="3">
         <v>243200</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>EC</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12506600</v>
+        <v>13006900</v>
       </c>
       <c r="E8" s="3">
-        <v>17711700</v>
+        <v>18420200</v>
       </c>
       <c r="F8" s="3">
-        <v>16955000</v>
+        <v>17633200</v>
       </c>
       <c r="G8" s="3">
-        <v>13802600</v>
+        <v>14354700</v>
       </c>
       <c r="H8" s="3">
-        <v>11933100</v>
+        <v>12410400</v>
       </c>
       <c r="I8" s="3">
-        <v>13022700</v>
+        <v>13543600</v>
       </c>
       <c r="J8" s="3">
-        <v>16493000</v>
+        <v>17152700</v>
       </c>
       <c r="K8" s="3">
         <v>19015800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9388200</v>
+        <v>9763700</v>
       </c>
       <c r="E9" s="3">
-        <v>11239400</v>
+        <v>11689000</v>
       </c>
       <c r="F9" s="3">
-        <v>10292400</v>
+        <v>10704100</v>
       </c>
       <c r="G9" s="3">
-        <v>9223400</v>
+        <v>9592300</v>
       </c>
       <c r="H9" s="3">
-        <v>8559100</v>
+        <v>8901500</v>
       </c>
       <c r="I9" s="3">
-        <v>9248600</v>
+        <v>9618600</v>
       </c>
       <c r="J9" s="3">
-        <v>10896100</v>
+        <v>11331900</v>
       </c>
       <c r="K9" s="3">
         <v>22363600</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3118500</v>
+        <v>3243200</v>
       </c>
       <c r="E10" s="3">
-        <v>6472300</v>
+        <v>6731200</v>
       </c>
       <c r="F10" s="3">
-        <v>6662600</v>
+        <v>6929100</v>
       </c>
       <c r="G10" s="3">
-        <v>4579200</v>
+        <v>4762400</v>
       </c>
       <c r="H10" s="3">
-        <v>3373900</v>
+        <v>3508900</v>
       </c>
       <c r="I10" s="3">
-        <v>3774100</v>
+        <v>3925100</v>
       </c>
       <c r="J10" s="3">
-        <v>5596900</v>
+        <v>5820800</v>
       </c>
       <c r="K10" s="3">
         <v>-3347900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>172300</v>
+        <v>179200</v>
       </c>
       <c r="E12" s="3">
-        <v>190900</v>
+        <v>198500</v>
       </c>
       <c r="F12" s="3">
-        <v>346800</v>
+        <v>360700</v>
       </c>
       <c r="G12" s="3">
-        <v>335500</v>
+        <v>348900</v>
       </c>
       <c r="H12" s="3">
-        <v>182100</v>
+        <v>189400</v>
       </c>
       <c r="I12" s="3">
-        <v>396100</v>
+        <v>411900</v>
       </c>
       <c r="J12" s="3">
-        <v>644100</v>
+        <v>669800</v>
       </c>
       <c r="K12" s="3">
         <v>365900</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-178800</v>
+        <v>-186000</v>
       </c>
       <c r="E14" s="3">
-        <v>199200</v>
+        <v>207100</v>
       </c>
       <c r="F14" s="3">
-        <v>106800</v>
+        <v>111000</v>
       </c>
       <c r="G14" s="3">
-        <v>-437900</v>
+        <v>-455400</v>
       </c>
       <c r="H14" s="3">
-        <v>182200</v>
+        <v>189500</v>
       </c>
       <c r="I14" s="3">
-        <v>2019500</v>
+        <v>2100200</v>
       </c>
       <c r="J14" s="3">
-        <v>525200</v>
+        <v>546200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81100</v>
+        <v>84400</v>
       </c>
       <c r="E15" s="3">
-        <v>69500</v>
+        <v>72300</v>
       </c>
       <c r="F15" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="G15" s="3">
-        <v>37300</v>
+        <v>38800</v>
       </c>
       <c r="H15" s="3">
-        <v>55800</v>
+        <v>58000</v>
       </c>
       <c r="I15" s="3">
-        <v>42700</v>
+        <v>44400</v>
       </c>
       <c r="J15" s="3">
-        <v>123500</v>
+        <v>128500</v>
       </c>
       <c r="K15" s="3">
         <v>102600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10753600</v>
+        <v>11183700</v>
       </c>
       <c r="E17" s="3">
-        <v>12607900</v>
+        <v>13112200</v>
       </c>
       <c r="F17" s="3">
-        <v>11527100</v>
+        <v>11988200</v>
       </c>
       <c r="G17" s="3">
-        <v>9926400</v>
+        <v>10323500</v>
       </c>
       <c r="H17" s="3">
-        <v>9869800</v>
+        <v>10264600</v>
       </c>
       <c r="I17" s="3">
-        <v>12658700</v>
+        <v>13165100</v>
       </c>
       <c r="J17" s="3">
-        <v>12880700</v>
+        <v>13395900</v>
       </c>
       <c r="K17" s="3">
         <v>13120400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1753100</v>
+        <v>1823200</v>
       </c>
       <c r="E18" s="3">
-        <v>5103800</v>
+        <v>5307900</v>
       </c>
       <c r="F18" s="3">
-        <v>5427800</v>
+        <v>5645000</v>
       </c>
       <c r="G18" s="3">
-        <v>3876100</v>
+        <v>4031200</v>
       </c>
       <c r="H18" s="3">
-        <v>2063200</v>
+        <v>2145800</v>
       </c>
       <c r="I18" s="3">
-        <v>364000</v>
+        <v>378500</v>
       </c>
       <c r="J18" s="3">
-        <v>3612300</v>
+        <v>3756700</v>
       </c>
       <c r="K18" s="3">
         <v>5895400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>144600</v>
+        <v>150400</v>
       </c>
       <c r="F20" s="3">
-        <v>136000</v>
+        <v>141400</v>
       </c>
       <c r="G20" s="3">
-        <v>-20400</v>
+        <v>-21300</v>
       </c>
       <c r="H20" s="3">
-        <v>392900</v>
+        <v>408700</v>
       </c>
       <c r="I20" s="3">
-        <v>-540900</v>
+        <v>-562500</v>
       </c>
       <c r="J20" s="3">
-        <v>-644300</v>
+        <v>-670000</v>
       </c>
       <c r="K20" s="3">
         <v>172800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4078300</v>
+        <v>4334500</v>
       </c>
       <c r="E21" s="3">
-        <v>7390300</v>
+        <v>7771600</v>
       </c>
       <c r="F21" s="3">
-        <v>7486300</v>
+        <v>7862700</v>
       </c>
       <c r="G21" s="3">
-        <v>5922300</v>
+        <v>6241900</v>
       </c>
       <c r="H21" s="3">
-        <v>4354200</v>
+        <v>4604300</v>
       </c>
       <c r="I21" s="3">
-        <v>1515700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5631000</v>
+        <v>1644000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>7558100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>596100</v>
+        <v>619900</v>
       </c>
       <c r="E22" s="3">
-        <v>473600</v>
+        <v>492600</v>
       </c>
       <c r="F22" s="3">
-        <v>599900</v>
+        <v>623800</v>
       </c>
       <c r="G22" s="3">
-        <v>596500</v>
+        <v>620400</v>
       </c>
       <c r="H22" s="3">
-        <v>691300</v>
+        <v>718900</v>
       </c>
       <c r="I22" s="3">
-        <v>442200</v>
+        <v>459800</v>
       </c>
       <c r="J22" s="3">
-        <v>188600</v>
+        <v>196100</v>
       </c>
       <c r="K22" s="3">
         <v>160000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1154800</v>
+        <v>1201000</v>
       </c>
       <c r="E23" s="3">
-        <v>4774700</v>
+        <v>4965700</v>
       </c>
       <c r="F23" s="3">
-        <v>4964000</v>
+        <v>5162500</v>
       </c>
       <c r="G23" s="3">
-        <v>3259200</v>
+        <v>3389600</v>
       </c>
       <c r="H23" s="3">
-        <v>1764900</v>
+        <v>1835500</v>
       </c>
       <c r="I23" s="3">
-        <v>-619100</v>
+        <v>-643800</v>
       </c>
       <c r="J23" s="3">
-        <v>2779400</v>
+        <v>2890600</v>
       </c>
       <c r="K23" s="3">
         <v>5908200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444200</v>
+        <v>462000</v>
       </c>
       <c r="E24" s="3">
-        <v>1149100</v>
+        <v>1195100</v>
       </c>
       <c r="F24" s="3">
-        <v>1830500</v>
+        <v>1903700</v>
       </c>
       <c r="G24" s="3">
-        <v>1408700</v>
+        <v>1465100</v>
       </c>
       <c r="H24" s="3">
-        <v>1163900</v>
+        <v>1210400</v>
       </c>
       <c r="I24" s="3">
-        <v>151600</v>
+        <v>157700</v>
       </c>
       <c r="J24" s="3">
-        <v>1192300</v>
+        <v>1240000</v>
       </c>
       <c r="K24" s="3">
         <v>2184000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>710600</v>
+        <v>739000</v>
       </c>
       <c r="E26" s="3">
-        <v>3625600</v>
+        <v>3770600</v>
       </c>
       <c r="F26" s="3">
-        <v>3133500</v>
+        <v>3258800</v>
       </c>
       <c r="G26" s="3">
-        <v>1850500</v>
+        <v>1924500</v>
       </c>
       <c r="H26" s="3">
-        <v>601100</v>
+        <v>625100</v>
       </c>
       <c r="I26" s="3">
-        <v>-770700</v>
+        <v>-801500</v>
       </c>
       <c r="J26" s="3">
-        <v>1587100</v>
+        <v>1650600</v>
       </c>
       <c r="K26" s="3">
         <v>3724200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>422000</v>
+        <v>438900</v>
       </c>
       <c r="E27" s="3">
-        <v>3312900</v>
+        <v>3445400</v>
       </c>
       <c r="F27" s="3">
-        <v>2889100</v>
+        <v>3004700</v>
       </c>
       <c r="G27" s="3">
-        <v>1655100</v>
+        <v>1721300</v>
       </c>
       <c r="H27" s="3">
-        <v>391200</v>
+        <v>406800</v>
       </c>
       <c r="I27" s="3">
-        <v>-996900</v>
+        <v>-1036800</v>
       </c>
       <c r="J27" s="3">
-        <v>1431400</v>
+        <v>1488600</v>
       </c>
       <c r="K27" s="3">
         <v>3538800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>-144600</v>
+        <v>-150400</v>
       </c>
       <c r="F32" s="3">
-        <v>-136000</v>
+        <v>-141400</v>
       </c>
       <c r="G32" s="3">
-        <v>20400</v>
+        <v>21300</v>
       </c>
       <c r="H32" s="3">
-        <v>-392900</v>
+        <v>-408700</v>
       </c>
       <c r="I32" s="3">
-        <v>540900</v>
+        <v>562500</v>
       </c>
       <c r="J32" s="3">
-        <v>644300</v>
+        <v>670000</v>
       </c>
       <c r="K32" s="3">
         <v>-172800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>422000</v>
+        <v>438900</v>
       </c>
       <c r="E33" s="3">
-        <v>3312900</v>
+        <v>3445400</v>
       </c>
       <c r="F33" s="3">
-        <v>2889100</v>
+        <v>3004700</v>
       </c>
       <c r="G33" s="3">
-        <v>1655100</v>
+        <v>1721300</v>
       </c>
       <c r="H33" s="3">
-        <v>391200</v>
+        <v>406800</v>
       </c>
       <c r="I33" s="3">
-        <v>-996900</v>
+        <v>-1036800</v>
       </c>
       <c r="J33" s="3">
-        <v>1431400</v>
+        <v>1488600</v>
       </c>
       <c r="K33" s="3">
         <v>3538800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>422000</v>
+        <v>438900</v>
       </c>
       <c r="E35" s="3">
-        <v>3312900</v>
+        <v>3445400</v>
       </c>
       <c r="F35" s="3">
-        <v>2889100</v>
+        <v>3004700</v>
       </c>
       <c r="G35" s="3">
-        <v>1655100</v>
+        <v>1721300</v>
       </c>
       <c r="H35" s="3">
-        <v>391200</v>
+        <v>406800</v>
       </c>
       <c r="I35" s="3">
-        <v>-996900</v>
+        <v>-1036800</v>
       </c>
       <c r="J35" s="3">
-        <v>1431400</v>
+        <v>1488600</v>
       </c>
       <c r="K35" s="3">
         <v>3538800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1270600</v>
+        <v>3783000</v>
       </c>
       <c r="E41" s="3">
-        <v>1768900</v>
+        <v>1321400</v>
       </c>
       <c r="F41" s="3">
-        <v>1577900</v>
+        <v>1839700</v>
       </c>
       <c r="G41" s="3">
-        <v>1986500</v>
+        <v>1641100</v>
       </c>
       <c r="H41" s="3">
-        <v>2102600</v>
+        <v>2065900</v>
       </c>
       <c r="I41" s="3">
-        <v>1637600</v>
+        <v>2186700</v>
       </c>
       <c r="J41" s="3">
-        <v>3912700</v>
+        <v>1703100</v>
       </c>
       <c r="K41" s="3">
         <v>4749700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>603200</v>
+        <v>423000</v>
       </c>
       <c r="E42" s="3">
-        <v>442200</v>
+        <v>627300</v>
       </c>
       <c r="F42" s="3">
-        <v>1330300</v>
+        <v>459900</v>
       </c>
       <c r="G42" s="3">
-        <v>742000</v>
+        <v>1383500</v>
       </c>
       <c r="H42" s="3">
-        <v>1341800</v>
+        <v>771600</v>
       </c>
       <c r="I42" s="3">
-        <v>310700</v>
+        <v>1395500</v>
       </c>
       <c r="J42" s="3">
-        <v>871700</v>
+        <v>323100</v>
       </c>
       <c r="K42" s="3">
         <v>889700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2334200</v>
+        <v>6428000</v>
       </c>
       <c r="E43" s="3">
-        <v>2049500</v>
+        <v>2427500</v>
       </c>
       <c r="F43" s="3">
-        <v>2441100</v>
+        <v>2131500</v>
       </c>
       <c r="G43" s="3">
-        <v>1828900</v>
+        <v>2538700</v>
       </c>
       <c r="H43" s="3">
-        <v>1521000</v>
+        <v>1902100</v>
       </c>
       <c r="I43" s="3">
-        <v>2097300</v>
+        <v>1581800</v>
       </c>
       <c r="J43" s="3">
-        <v>2884900</v>
+        <v>2181200</v>
       </c>
       <c r="K43" s="3">
         <v>1667800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1263500</v>
+        <v>2183500</v>
       </c>
       <c r="E44" s="3">
-        <v>1414500</v>
+        <v>1314000</v>
       </c>
       <c r="F44" s="3">
-        <v>1275100</v>
+        <v>1471100</v>
       </c>
       <c r="G44" s="3">
-        <v>1150300</v>
+        <v>1326100</v>
       </c>
       <c r="H44" s="3">
-        <v>960500</v>
+        <v>1196400</v>
       </c>
       <c r="I44" s="3">
-        <v>764500</v>
+        <v>998900</v>
       </c>
       <c r="J44" s="3">
-        <v>1682700</v>
+        <v>795100</v>
       </c>
       <c r="K44" s="3">
         <v>1845600</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>237200</v>
+        <v>623500</v>
       </c>
       <c r="E45" s="3">
-        <v>165900</v>
+        <v>246700</v>
       </c>
       <c r="F45" s="3">
-        <v>133300</v>
+        <v>172500</v>
       </c>
       <c r="G45" s="3">
-        <v>98300</v>
+        <v>138600</v>
       </c>
       <c r="H45" s="3">
-        <v>106400</v>
+        <v>102200</v>
       </c>
       <c r="I45" s="3">
-        <v>218200</v>
+        <v>110700</v>
       </c>
       <c r="J45" s="3">
-        <v>1386800</v>
+        <v>226900</v>
       </c>
       <c r="K45" s="3">
         <v>2566800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5708600</v>
+        <v>13441000</v>
       </c>
       <c r="E46" s="3">
-        <v>5841100</v>
+        <v>5936900</v>
       </c>
       <c r="F46" s="3">
-        <v>6757700</v>
+        <v>6074800</v>
       </c>
       <c r="G46" s="3">
-        <v>5806000</v>
+        <v>7028000</v>
       </c>
       <c r="H46" s="3">
-        <v>6032300</v>
+        <v>6038200</v>
       </c>
       <c r="I46" s="3">
-        <v>5028300</v>
+        <v>6273600</v>
       </c>
       <c r="J46" s="3">
-        <v>5160200</v>
+        <v>5229500</v>
       </c>
       <c r="K46" s="3">
         <v>7915800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1182100</v>
+        <v>8794500</v>
       </c>
       <c r="E47" s="3">
-        <v>1846800</v>
+        <v>1229300</v>
       </c>
       <c r="F47" s="3">
-        <v>1356700</v>
+        <v>1920700</v>
       </c>
       <c r="G47" s="3">
-        <v>1418400</v>
+        <v>1410900</v>
       </c>
       <c r="H47" s="3">
-        <v>913400</v>
+        <v>1475100</v>
       </c>
       <c r="I47" s="3">
-        <v>943200</v>
+        <v>949900</v>
       </c>
       <c r="J47" s="3">
-        <v>1108400</v>
+        <v>980900</v>
       </c>
       <c r="K47" s="3">
         <v>1429200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24705100</v>
+        <v>32895700</v>
       </c>
       <c r="E48" s="3">
-        <v>23432200</v>
+        <v>25693300</v>
       </c>
       <c r="F48" s="3">
-        <v>21461400</v>
+        <v>24369500</v>
       </c>
       <c r="G48" s="3">
-        <v>20667000</v>
+        <v>22319900</v>
       </c>
       <c r="H48" s="3">
-        <v>21152500</v>
+        <v>21493700</v>
       </c>
       <c r="I48" s="3">
-        <v>22268500</v>
+        <v>21998600</v>
       </c>
       <c r="J48" s="3">
-        <v>40892500</v>
+        <v>23159300</v>
       </c>
       <c r="K48" s="3">
         <v>34819700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>477200</v>
+        <v>5323800</v>
       </c>
       <c r="E49" s="3">
-        <v>350600</v>
+        <v>496300</v>
       </c>
       <c r="F49" s="3">
-        <v>332500</v>
+        <v>364700</v>
       </c>
       <c r="G49" s="3">
-        <v>324900</v>
+        <v>345800</v>
       </c>
       <c r="H49" s="3">
-        <v>297900</v>
+        <v>337900</v>
       </c>
       <c r="I49" s="3">
-        <v>326900</v>
+        <v>309800</v>
       </c>
       <c r="J49" s="3">
-        <v>478400</v>
+        <v>339900</v>
       </c>
       <c r="K49" s="3">
         <v>962100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2781300</v>
+        <v>3050100</v>
       </c>
       <c r="E52" s="3">
-        <v>2391200</v>
+        <v>2892600</v>
       </c>
       <c r="F52" s="3">
-        <v>1651900</v>
+        <v>2486900</v>
       </c>
       <c r="G52" s="3">
-        <v>1506800</v>
+        <v>1717900</v>
       </c>
       <c r="H52" s="3">
-        <v>1930800</v>
+        <v>1567100</v>
       </c>
       <c r="I52" s="3">
-        <v>2182100</v>
+        <v>2008000</v>
       </c>
       <c r="J52" s="3">
-        <v>10192200</v>
+        <v>2269400</v>
       </c>
       <c r="K52" s="3">
         <v>9089100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34854300</v>
+        <v>63505000</v>
       </c>
       <c r="E54" s="3">
-        <v>33862000</v>
+        <v>36248500</v>
       </c>
       <c r="F54" s="3">
-        <v>31560200</v>
+        <v>35216500</v>
       </c>
       <c r="G54" s="3">
-        <v>29723100</v>
+        <v>32822600</v>
       </c>
       <c r="H54" s="3">
-        <v>30326900</v>
+        <v>30912100</v>
       </c>
       <c r="I54" s="3">
-        <v>30749000</v>
+        <v>31539900</v>
       </c>
       <c r="J54" s="3">
-        <v>27709500</v>
+        <v>31978900</v>
       </c>
       <c r="K54" s="3">
         <v>35755600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1623000</v>
+        <v>3527700</v>
       </c>
       <c r="E57" s="3">
-        <v>2028800</v>
+        <v>1687900</v>
       </c>
       <c r="F57" s="3">
-        <v>1719600</v>
+        <v>2109900</v>
       </c>
       <c r="G57" s="3">
-        <v>1272200</v>
+        <v>1788400</v>
       </c>
       <c r="H57" s="3">
-        <v>1167400</v>
+        <v>1323100</v>
       </c>
       <c r="I57" s="3">
-        <v>1245000</v>
+        <v>1214100</v>
       </c>
       <c r="J57" s="3">
-        <v>3744300</v>
+        <v>1294800</v>
       </c>
       <c r="K57" s="3">
         <v>3672400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1230800</v>
+        <v>2393600</v>
       </c>
       <c r="E58" s="3">
-        <v>1253000</v>
+        <v>1280100</v>
       </c>
       <c r="F58" s="3">
-        <v>1005000</v>
+        <v>1303200</v>
       </c>
       <c r="G58" s="3">
-        <v>1286100</v>
+        <v>1045200</v>
       </c>
       <c r="H58" s="3">
-        <v>1031600</v>
+        <v>1337600</v>
       </c>
       <c r="I58" s="3">
-        <v>1143400</v>
+        <v>1072800</v>
       </c>
       <c r="J58" s="3">
-        <v>879400</v>
+        <v>1189100</v>
       </c>
       <c r="K58" s="3">
         <v>243300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1716800</v>
+        <v>1943500</v>
       </c>
       <c r="E59" s="3">
-        <v>2153800</v>
+        <v>1785500</v>
       </c>
       <c r="F59" s="3">
-        <v>1731500</v>
+        <v>2239900</v>
       </c>
       <c r="G59" s="3">
-        <v>1653300</v>
+        <v>1800800</v>
       </c>
       <c r="H59" s="3">
-        <v>1897900</v>
+        <v>1719400</v>
       </c>
       <c r="I59" s="3">
-        <v>1972500</v>
+        <v>1973800</v>
       </c>
       <c r="J59" s="3">
-        <v>1964300</v>
+        <v>2051400</v>
       </c>
       <c r="K59" s="3">
         <v>4327100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4570600</v>
+        <v>7864700</v>
       </c>
       <c r="E60" s="3">
-        <v>5435600</v>
+        <v>4753400</v>
       </c>
       <c r="F60" s="3">
-        <v>4456200</v>
+        <v>5653000</v>
       </c>
       <c r="G60" s="3">
-        <v>4211700</v>
+        <v>4634400</v>
       </c>
       <c r="H60" s="3">
-        <v>4096800</v>
+        <v>4380100</v>
       </c>
       <c r="I60" s="3">
-        <v>4360900</v>
+        <v>4260700</v>
       </c>
       <c r="J60" s="3">
-        <v>4210900</v>
+        <v>4535300</v>
       </c>
       <c r="K60" s="3">
         <v>6003600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10452100</v>
+        <v>22322300</v>
       </c>
       <c r="E61" s="3">
-        <v>8306700</v>
+        <v>10870200</v>
       </c>
       <c r="F61" s="3">
-        <v>8510700</v>
+        <v>8639000</v>
       </c>
       <c r="G61" s="3">
-        <v>9600800</v>
+        <v>8851100</v>
       </c>
       <c r="H61" s="3">
-        <v>12024000</v>
+        <v>9984900</v>
       </c>
       <c r="I61" s="3">
-        <v>12162400</v>
+        <v>12504900</v>
       </c>
       <c r="J61" s="3">
-        <v>7881000</v>
+        <v>12648900</v>
       </c>
       <c r="K61" s="3">
         <v>5784500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5876700</v>
+        <v>8942400</v>
       </c>
       <c r="E62" s="3">
-        <v>5033700</v>
+        <v>6111800</v>
       </c>
       <c r="F62" s="3">
-        <v>3767200</v>
+        <v>5235000</v>
       </c>
       <c r="G62" s="3">
-        <v>3465300</v>
+        <v>3917900</v>
       </c>
       <c r="H62" s="3">
-        <v>2876100</v>
+        <v>3603900</v>
       </c>
       <c r="I62" s="3">
-        <v>2917700</v>
+        <v>2991200</v>
       </c>
       <c r="J62" s="3">
-        <v>5654100</v>
+        <v>3034400</v>
       </c>
       <c r="K62" s="3">
         <v>3612900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21830500</v>
+        <v>44854400</v>
       </c>
       <c r="E66" s="3">
-        <v>19758900</v>
+        <v>22703700</v>
       </c>
       <c r="F66" s="3">
-        <v>17256800</v>
+        <v>20549300</v>
       </c>
       <c r="G66" s="3">
-        <v>17748500</v>
+        <v>17947000</v>
       </c>
       <c r="H66" s="3">
-        <v>19408400</v>
+        <v>18458400</v>
       </c>
       <c r="I66" s="3">
-        <v>19909800</v>
+        <v>20184700</v>
       </c>
       <c r="J66" s="3">
-        <v>15704100</v>
+        <v>20706200</v>
       </c>
       <c r="K66" s="3">
         <v>16553400</v>
@@ -2793,26 +2793,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>3146900</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>4575100</v>
+        <v>3272700</v>
       </c>
       <c r="F72" s="3">
-        <v>4445900</v>
+        <v>4758100</v>
       </c>
       <c r="G72" s="3">
-        <v>2471700</v>
+        <v>4623800</v>
       </c>
       <c r="H72" s="3">
-        <v>1053300</v>
+        <v>2570600</v>
       </c>
       <c r="I72" s="3">
-        <v>668000</v>
+        <v>1095400</v>
       </c>
       <c r="J72" s="3">
-        <v>25114200</v>
+        <v>694700</v>
       </c>
       <c r="K72" s="3">
         <v>21481900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13023800</v>
+        <v>18650600</v>
       </c>
       <c r="E76" s="3">
-        <v>14103100</v>
+        <v>13544800</v>
       </c>
       <c r="F76" s="3">
-        <v>14303400</v>
+        <v>14667200</v>
       </c>
       <c r="G76" s="3">
-        <v>11974700</v>
+        <v>14875500</v>
       </c>
       <c r="H76" s="3">
-        <v>10918500</v>
+        <v>12453600</v>
       </c>
       <c r="I76" s="3">
-        <v>10839200</v>
+        <v>11355200</v>
       </c>
       <c r="J76" s="3">
-        <v>12005300</v>
+        <v>11272700</v>
       </c>
       <c r="K76" s="3">
         <v>19202200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>422000</v>
+        <v>438900</v>
       </c>
       <c r="E81" s="3">
-        <v>3312900</v>
+        <v>3445400</v>
       </c>
       <c r="F81" s="3">
-        <v>2889100</v>
+        <v>3004700</v>
       </c>
       <c r="G81" s="3">
-        <v>1655100</v>
+        <v>1721300</v>
       </c>
       <c r="H81" s="3">
-        <v>391200</v>
+        <v>406800</v>
       </c>
       <c r="I81" s="3">
-        <v>-996900</v>
+        <v>-1036800</v>
       </c>
       <c r="J81" s="3">
-        <v>1431400</v>
+        <v>1488600</v>
       </c>
       <c r="K81" s="3">
         <v>3538800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2327400</v>
+        <v>2420500</v>
       </c>
       <c r="E83" s="3">
-        <v>2142000</v>
+        <v>2227700</v>
       </c>
       <c r="F83" s="3">
-        <v>1922500</v>
+        <v>1999400</v>
       </c>
       <c r="G83" s="3">
-        <v>2066600</v>
+        <v>2149300</v>
       </c>
       <c r="H83" s="3">
-        <v>1898000</v>
+        <v>1974000</v>
       </c>
       <c r="I83" s="3">
-        <v>1692600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2663000</v>
+        <v>1760300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1489900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2296700</v>
+        <v>2388500</v>
       </c>
       <c r="E89" s="3">
-        <v>6927900</v>
+        <v>7205100</v>
       </c>
       <c r="F89" s="3">
-        <v>5598100</v>
+        <v>5822000</v>
       </c>
       <c r="G89" s="3">
-        <v>4243400</v>
+        <v>4413100</v>
       </c>
       <c r="H89" s="3">
-        <v>3609500</v>
+        <v>3753900</v>
       </c>
       <c r="I89" s="3">
-        <v>2602900</v>
+        <v>2707000</v>
       </c>
       <c r="J89" s="3">
-        <v>4143200</v>
+        <v>4309000</v>
       </c>
       <c r="K89" s="3">
         <v>4731100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2756700</v>
+        <v>-2867000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3452700</v>
+        <v>-3590800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2088700</v>
+        <v>-2172200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1447400</v>
+        <v>-1505300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1442100</v>
+        <v>-1499700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3534800</v>
+        <v>-3676200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3490500</v>
+        <v>-3630100</v>
       </c>
       <c r="K91" s="3">
         <v>-2149200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2132200</v>
+        <v>-2217500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2509000</v>
+        <v>-2609400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2160500</v>
+        <v>-2246900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1095900</v>
+        <v>-1139800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2397200</v>
+        <v>-2493000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2886300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2892200</v>
+        <v>-3001700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-2608900</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2183600</v>
+        <v>-2270900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3466800</v>
+        <v>-3605400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1106900</v>
+        <v>-1151200</v>
       </c>
       <c r="G96" s="3">
-        <v>-376200</v>
+        <v>-391200</v>
       </c>
       <c r="H96" s="3">
-        <v>-428100</v>
+        <v>-445200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1373400</v>
+        <v>-1428300</v>
       </c>
       <c r="J96" s="3">
-        <v>-447400</v>
+        <v>-465200</v>
       </c>
       <c r="K96" s="3">
         <v>-3934000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-657300</v>
+        <v>-683600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4292600</v>
+        <v>-4464300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3947700</v>
+        <v>-4105600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3191000</v>
+        <v>-3318700</v>
       </c>
       <c r="H100" s="3">
-        <v>-690800</v>
+        <v>-718400</v>
       </c>
       <c r="I100" s="3">
-        <v>-348000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1836600</v>
+        <v>-362000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-1911000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>64600</v>
+        <v>67200</v>
       </c>
       <c r="F101" s="3">
-        <v>101600</v>
+        <v>105600</v>
       </c>
       <c r="G101" s="3">
-        <v>-72600</v>
+        <v>-75500</v>
       </c>
       <c r="H101" s="3">
-        <v>-56600</v>
+        <v>-58800</v>
       </c>
       <c r="I101" s="3">
-        <v>364500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>288800</v>
+        <v>379100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>31900</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-498400</v>
+        <v>-518300</v>
       </c>
       <c r="E102" s="3">
-        <v>191000</v>
+        <v>198600</v>
       </c>
       <c r="F102" s="3">
-        <v>-408500</v>
+        <v>-424900</v>
       </c>
       <c r="G102" s="3">
-        <v>-116100</v>
+        <v>-120800</v>
       </c>
       <c r="H102" s="3">
-        <v>465000</v>
+        <v>483600</v>
       </c>
       <c r="I102" s="3">
-        <v>-266900</v>
+        <v>-277600</v>
       </c>
       <c r="J102" s="3">
-        <v>-296700</v>
+        <v>-308600</v>
       </c>
       <c r="K102" s="3">
         <v>243200</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>EC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13006900</v>
+        <v>22018600</v>
       </c>
       <c r="E8" s="3">
-        <v>18420200</v>
+        <v>12006400</v>
       </c>
       <c r="F8" s="3">
-        <v>17633200</v>
+        <v>17003200</v>
       </c>
       <c r="G8" s="3">
-        <v>14354700</v>
+        <v>16276800</v>
       </c>
       <c r="H8" s="3">
-        <v>12410400</v>
+        <v>13250500</v>
       </c>
       <c r="I8" s="3">
-        <v>13543600</v>
+        <v>11455800</v>
       </c>
       <c r="J8" s="3">
+        <v>12501800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17152700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19015800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20060100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20069100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9763700</v>
+        <v>13339600</v>
       </c>
       <c r="E9" s="3">
-        <v>11689000</v>
+        <v>9012600</v>
       </c>
       <c r="F9" s="3">
-        <v>10704100</v>
+        <v>10789800</v>
       </c>
       <c r="G9" s="3">
-        <v>9592300</v>
+        <v>9880700</v>
       </c>
       <c r="H9" s="3">
-        <v>8901500</v>
+        <v>8854400</v>
       </c>
       <c r="I9" s="3">
-        <v>9618600</v>
+        <v>8216800</v>
       </c>
       <c r="J9" s="3">
+        <v>8878700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11331900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22363600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11506100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10726200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3243200</v>
+        <v>8679000</v>
       </c>
       <c r="E10" s="3">
-        <v>6731200</v>
+        <v>2993700</v>
       </c>
       <c r="F10" s="3">
-        <v>6929100</v>
+        <v>6213400</v>
       </c>
       <c r="G10" s="3">
-        <v>4762400</v>
+        <v>6396100</v>
       </c>
       <c r="H10" s="3">
-        <v>3508900</v>
+        <v>4396000</v>
       </c>
       <c r="I10" s="3">
-        <v>3925100</v>
+        <v>3239000</v>
       </c>
       <c r="J10" s="3">
+        <v>3623100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5820800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3347900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8554000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9342800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>179200</v>
+        <v>230300</v>
       </c>
       <c r="E12" s="3">
-        <v>198500</v>
+        <v>165400</v>
       </c>
       <c r="F12" s="3">
-        <v>360700</v>
+        <v>183200</v>
       </c>
       <c r="G12" s="3">
-        <v>348900</v>
+        <v>333000</v>
       </c>
       <c r="H12" s="3">
-        <v>189400</v>
+        <v>322100</v>
       </c>
       <c r="I12" s="3">
-        <v>411900</v>
+        <v>174900</v>
       </c>
       <c r="J12" s="3">
+        <v>380200</v>
+      </c>
+      <c r="K12" s="3">
         <v>669800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>365900</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,35 +925,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-186000</v>
+        <v>28100</v>
       </c>
       <c r="E14" s="3">
-        <v>207100</v>
+        <v>-171700</v>
       </c>
       <c r="F14" s="3">
-        <v>111000</v>
+        <v>191200</v>
       </c>
       <c r="G14" s="3">
-        <v>-455400</v>
+        <v>102500</v>
       </c>
       <c r="H14" s="3">
-        <v>189500</v>
+        <v>-420400</v>
       </c>
       <c r="I14" s="3">
-        <v>2100200</v>
+        <v>175000</v>
       </c>
       <c r="J14" s="3">
+        <v>1938700</v>
+      </c>
+      <c r="K14" s="3">
         <v>546200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -945,45 +964,51 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>84400</v>
+        <v>134700</v>
       </c>
       <c r="E15" s="3">
-        <v>72300</v>
+        <v>77900</v>
       </c>
       <c r="F15" s="3">
-        <v>22100</v>
+        <v>66700</v>
       </c>
       <c r="G15" s="3">
-        <v>38800</v>
+        <v>20400</v>
       </c>
       <c r="H15" s="3">
-        <v>58000</v>
+        <v>35800</v>
       </c>
       <c r="I15" s="3">
-        <v>44400</v>
+        <v>53500</v>
       </c>
       <c r="J15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K15" s="3">
         <v>128500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>102600</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11183700</v>
+        <v>14924000</v>
       </c>
       <c r="E17" s="3">
-        <v>13112200</v>
+        <v>10323400</v>
       </c>
       <c r="F17" s="3">
-        <v>11988200</v>
+        <v>12103600</v>
       </c>
       <c r="G17" s="3">
-        <v>10323500</v>
+        <v>11066100</v>
       </c>
       <c r="H17" s="3">
-        <v>10264600</v>
+        <v>9529400</v>
       </c>
       <c r="I17" s="3">
-        <v>13165100</v>
+        <v>9475100</v>
       </c>
       <c r="J17" s="3">
+        <v>12152400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13395900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13120400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12993100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12493400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1823200</v>
+        <v>7094500</v>
       </c>
       <c r="E18" s="3">
-        <v>5307900</v>
+        <v>1682900</v>
       </c>
       <c r="F18" s="3">
-        <v>5645000</v>
+        <v>4899600</v>
       </c>
       <c r="G18" s="3">
-        <v>4031200</v>
+        <v>5210700</v>
       </c>
       <c r="H18" s="3">
-        <v>2145800</v>
+        <v>3721100</v>
       </c>
       <c r="I18" s="3">
-        <v>378500</v>
+        <v>1980700</v>
       </c>
       <c r="J18" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3756700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5895400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7067100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7575600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-42400</v>
       </c>
       <c r="E20" s="3">
-        <v>150400</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>141400</v>
+        <v>138800</v>
       </c>
       <c r="G20" s="3">
-        <v>-21300</v>
+        <v>130500</v>
       </c>
       <c r="H20" s="3">
-        <v>408700</v>
+        <v>-19600</v>
       </c>
       <c r="I20" s="3">
-        <v>-562500</v>
+        <v>377200</v>
       </c>
       <c r="J20" s="3">
+        <v>-519300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-670000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>172800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-343000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-69500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4334500</v>
+        <v>9592100</v>
       </c>
       <c r="E21" s="3">
-        <v>7771600</v>
+        <v>4008200</v>
       </c>
       <c r="F21" s="3">
-        <v>7862700</v>
+        <v>7180400</v>
       </c>
       <c r="G21" s="3">
-        <v>6241900</v>
+        <v>7263800</v>
       </c>
       <c r="H21" s="3">
-        <v>4604300</v>
+        <v>5768100</v>
       </c>
       <c r="I21" s="3">
-        <v>1644000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>4256000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1522800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7558100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8217100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9141300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>619900</v>
+        <v>742900</v>
       </c>
       <c r="E22" s="3">
-        <v>492600</v>
+        <v>572200</v>
       </c>
       <c r="F22" s="3">
-        <v>623800</v>
+        <v>454700</v>
       </c>
       <c r="G22" s="3">
-        <v>620400</v>
+        <v>575900</v>
       </c>
       <c r="H22" s="3">
-        <v>718900</v>
+        <v>572600</v>
       </c>
       <c r="I22" s="3">
-        <v>459800</v>
+        <v>663600</v>
       </c>
       <c r="J22" s="3">
+        <v>424500</v>
+      </c>
+      <c r="K22" s="3">
         <v>196100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>160000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1201000</v>
+        <v>6309300</v>
       </c>
       <c r="E23" s="3">
-        <v>4965700</v>
+        <v>1108600</v>
       </c>
       <c r="F23" s="3">
-        <v>5162500</v>
+        <v>4583700</v>
       </c>
       <c r="G23" s="3">
-        <v>3389600</v>
+        <v>4765400</v>
       </c>
       <c r="H23" s="3">
-        <v>1835500</v>
+        <v>3128800</v>
       </c>
       <c r="I23" s="3">
-        <v>-643800</v>
+        <v>1694300</v>
       </c>
       <c r="J23" s="3">
+        <v>-594300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2890600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5908200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6724000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7506100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>462000</v>
+        <v>1814900</v>
       </c>
       <c r="E24" s="3">
-        <v>1195100</v>
+        <v>426400</v>
       </c>
       <c r="F24" s="3">
-        <v>1903700</v>
+        <v>1103100</v>
       </c>
       <c r="G24" s="3">
-        <v>1465100</v>
+        <v>1757300</v>
       </c>
       <c r="H24" s="3">
-        <v>1210400</v>
+        <v>1352400</v>
       </c>
       <c r="I24" s="3">
-        <v>157700</v>
+        <v>1117300</v>
       </c>
       <c r="J24" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1240000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2184000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2257800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2687700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>739000</v>
+        <v>4494400</v>
       </c>
       <c r="E26" s="3">
-        <v>3770600</v>
+        <v>682100</v>
       </c>
       <c r="F26" s="3">
-        <v>3258800</v>
+        <v>3480600</v>
       </c>
       <c r="G26" s="3">
-        <v>1924500</v>
+        <v>3008100</v>
       </c>
       <c r="H26" s="3">
-        <v>625100</v>
+        <v>1776500</v>
       </c>
       <c r="I26" s="3">
-        <v>-801500</v>
+        <v>577000</v>
       </c>
       <c r="J26" s="3">
+        <v>-739900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1650600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3724200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4466200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4818400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>438900</v>
+        <v>4006700</v>
       </c>
       <c r="E27" s="3">
-        <v>3445400</v>
+        <v>405100</v>
       </c>
       <c r="F27" s="3">
-        <v>3004700</v>
+        <v>3180400</v>
       </c>
       <c r="G27" s="3">
-        <v>1721300</v>
+        <v>2773500</v>
       </c>
       <c r="H27" s="3">
-        <v>406800</v>
+        <v>1588900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1036800</v>
+        <v>375500</v>
       </c>
       <c r="J27" s="3">
+        <v>-957100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1488600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3538800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4408700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4741500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>42400</v>
       </c>
       <c r="E32" s="3">
-        <v>-150400</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-141400</v>
+        <v>-138800</v>
       </c>
       <c r="G32" s="3">
-        <v>21300</v>
+        <v>-130500</v>
       </c>
       <c r="H32" s="3">
-        <v>-408700</v>
+        <v>19600</v>
       </c>
       <c r="I32" s="3">
-        <v>562500</v>
+        <v>-377200</v>
       </c>
       <c r="J32" s="3">
+        <v>519300</v>
+      </c>
+      <c r="K32" s="3">
         <v>670000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-172800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>343000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>69500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>438900</v>
+        <v>4006700</v>
       </c>
       <c r="E33" s="3">
-        <v>3445400</v>
+        <v>405100</v>
       </c>
       <c r="F33" s="3">
-        <v>3004700</v>
+        <v>3180400</v>
       </c>
       <c r="G33" s="3">
-        <v>1721300</v>
+        <v>2773500</v>
       </c>
       <c r="H33" s="3">
-        <v>406800</v>
+        <v>1588900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1036800</v>
+        <v>375500</v>
       </c>
       <c r="J33" s="3">
+        <v>-957100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1488600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3538800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4408700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4741500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>438900</v>
+        <v>4006700</v>
       </c>
       <c r="E35" s="3">
-        <v>3445400</v>
+        <v>405100</v>
       </c>
       <c r="F35" s="3">
-        <v>3004700</v>
+        <v>3180400</v>
       </c>
       <c r="G35" s="3">
-        <v>1721300</v>
+        <v>2773500</v>
       </c>
       <c r="H35" s="3">
-        <v>406800</v>
+        <v>1588900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1036800</v>
+        <v>375500</v>
       </c>
       <c r="J35" s="3">
+        <v>-957100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1488600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3538800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4408700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4741500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3783000</v>
+        <v>3492000</v>
       </c>
       <c r="E41" s="3">
-        <v>1321400</v>
+        <v>1219800</v>
       </c>
       <c r="F41" s="3">
-        <v>1839700</v>
+        <v>1698200</v>
       </c>
       <c r="G41" s="3">
-        <v>1641100</v>
+        <v>1514800</v>
       </c>
       <c r="H41" s="3">
-        <v>2065900</v>
+        <v>1907000</v>
       </c>
       <c r="I41" s="3">
-        <v>2186700</v>
+        <v>2018500</v>
       </c>
       <c r="J41" s="3">
+        <v>1572100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1703100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4749700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2391700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2263500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>423000</v>
+        <v>517100</v>
       </c>
       <c r="E42" s="3">
-        <v>627300</v>
+        <v>579100</v>
       </c>
       <c r="F42" s="3">
-        <v>459900</v>
+        <v>424500</v>
       </c>
       <c r="G42" s="3">
-        <v>1383500</v>
+        <v>1277100</v>
       </c>
       <c r="H42" s="3">
-        <v>771600</v>
+        <v>712300</v>
       </c>
       <c r="I42" s="3">
-        <v>1395500</v>
+        <v>1288100</v>
       </c>
       <c r="J42" s="3">
+        <v>298300</v>
+      </c>
+      <c r="K42" s="3">
         <v>323100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>889700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>802000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>297000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6428000</v>
+        <v>6087200</v>
       </c>
       <c r="E43" s="3">
-        <v>2427500</v>
+        <v>2240800</v>
       </c>
       <c r="F43" s="3">
-        <v>2131500</v>
+        <v>1967600</v>
       </c>
       <c r="G43" s="3">
-        <v>2538700</v>
+        <v>2343400</v>
       </c>
       <c r="H43" s="3">
-        <v>1902100</v>
+        <v>1755800</v>
       </c>
       <c r="I43" s="3">
-        <v>1581800</v>
+        <v>1460200</v>
       </c>
       <c r="J43" s="3">
+        <v>2013400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2181200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1667800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1822800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1752000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2183500</v>
+        <v>2015600</v>
       </c>
       <c r="E44" s="3">
-        <v>1314000</v>
+        <v>1213000</v>
       </c>
       <c r="F44" s="3">
-        <v>1471100</v>
+        <v>1357900</v>
       </c>
       <c r="G44" s="3">
-        <v>1326100</v>
+        <v>1224100</v>
       </c>
       <c r="H44" s="3">
-        <v>1196400</v>
+        <v>1104300</v>
       </c>
       <c r="I44" s="3">
-        <v>998900</v>
+        <v>922100</v>
       </c>
       <c r="J44" s="3">
+        <v>733900</v>
+      </c>
+      <c r="K44" s="3">
         <v>795100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1845600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>801100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>862800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>623500</v>
+        <v>295100</v>
       </c>
       <c r="E45" s="3">
-        <v>246700</v>
+        <v>227700</v>
       </c>
       <c r="F45" s="3">
-        <v>172500</v>
+        <v>159300</v>
       </c>
       <c r="G45" s="3">
-        <v>138600</v>
+        <v>128000</v>
       </c>
       <c r="H45" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I45" s="3">
         <v>102200</v>
       </c>
-      <c r="I45" s="3">
-        <v>110700</v>
-      </c>
       <c r="J45" s="3">
+        <v>209500</v>
+      </c>
+      <c r="K45" s="3">
         <v>226900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2566800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>740000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>523800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13441000</v>
+        <v>12407000</v>
       </c>
       <c r="E46" s="3">
-        <v>5936900</v>
+        <v>5480200</v>
       </c>
       <c r="F46" s="3">
-        <v>6074800</v>
+        <v>5607500</v>
       </c>
       <c r="G46" s="3">
-        <v>7028000</v>
+        <v>6487300</v>
       </c>
       <c r="H46" s="3">
-        <v>6038200</v>
+        <v>5573800</v>
       </c>
       <c r="I46" s="3">
-        <v>6273600</v>
+        <v>5791000</v>
       </c>
       <c r="J46" s="3">
+        <v>4827200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5229500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7915800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6048800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5699000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8794500</v>
+        <v>8117900</v>
       </c>
       <c r="E47" s="3">
-        <v>1229300</v>
+        <v>1134800</v>
       </c>
       <c r="F47" s="3">
-        <v>1920700</v>
+        <v>1772900</v>
       </c>
       <c r="G47" s="3">
-        <v>1410900</v>
+        <v>1302400</v>
       </c>
       <c r="H47" s="3">
-        <v>1475100</v>
+        <v>1361600</v>
       </c>
       <c r="I47" s="3">
-        <v>949900</v>
+        <v>876800</v>
       </c>
       <c r="J47" s="3">
+        <v>905400</v>
+      </c>
+      <c r="K47" s="3">
         <v>980900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1429200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4023200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2246100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32895700</v>
+        <v>30365200</v>
       </c>
       <c r="E48" s="3">
-        <v>25693300</v>
+        <v>23716900</v>
       </c>
       <c r="F48" s="3">
-        <v>24369500</v>
+        <v>22495000</v>
       </c>
       <c r="G48" s="3">
-        <v>22319900</v>
+        <v>20603000</v>
       </c>
       <c r="H48" s="3">
-        <v>21493700</v>
+        <v>19840300</v>
       </c>
       <c r="I48" s="3">
-        <v>21998600</v>
+        <v>20306400</v>
       </c>
       <c r="J48" s="3">
+        <v>21377800</v>
+      </c>
+      <c r="K48" s="3">
         <v>23159300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34819700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25117800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13214700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5323800</v>
+        <v>4626800</v>
       </c>
       <c r="E49" s="3">
-        <v>496300</v>
+        <v>458100</v>
       </c>
       <c r="F49" s="3">
-        <v>364700</v>
+        <v>336600</v>
       </c>
       <c r="G49" s="3">
-        <v>345800</v>
+        <v>319200</v>
       </c>
       <c r="H49" s="3">
-        <v>337900</v>
+        <v>311900</v>
       </c>
       <c r="I49" s="3">
-        <v>309800</v>
+        <v>286000</v>
       </c>
       <c r="J49" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K49" s="3">
         <v>339900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>962100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>379300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>444300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3050100</v>
+        <v>3103100</v>
       </c>
       <c r="E52" s="3">
-        <v>2892600</v>
+        <v>2670100</v>
       </c>
       <c r="F52" s="3">
-        <v>2486900</v>
+        <v>2295600</v>
       </c>
       <c r="G52" s="3">
-        <v>1717900</v>
+        <v>1585800</v>
       </c>
       <c r="H52" s="3">
-        <v>1567100</v>
+        <v>1446600</v>
       </c>
       <c r="I52" s="3">
-        <v>2008000</v>
+        <v>1853500</v>
       </c>
       <c r="J52" s="3">
+        <v>2094800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2269400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9089100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>981000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1086700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63505000</v>
+        <v>58620000</v>
       </c>
       <c r="E54" s="3">
-        <v>36248500</v>
+        <v>33460100</v>
       </c>
       <c r="F54" s="3">
-        <v>35216500</v>
+        <v>32507500</v>
       </c>
       <c r="G54" s="3">
-        <v>32822600</v>
+        <v>30297700</v>
       </c>
       <c r="H54" s="3">
-        <v>30912100</v>
+        <v>28534200</v>
       </c>
       <c r="I54" s="3">
-        <v>31539900</v>
+        <v>29113800</v>
       </c>
       <c r="J54" s="3">
+        <v>29519000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31978900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35755600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24455800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22690900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3527700</v>
+        <v>2512900</v>
       </c>
       <c r="E57" s="3">
-        <v>1687900</v>
+        <v>1558100</v>
       </c>
       <c r="F57" s="3">
-        <v>2109900</v>
+        <v>1947600</v>
       </c>
       <c r="G57" s="3">
-        <v>1788400</v>
+        <v>1650800</v>
       </c>
       <c r="H57" s="3">
-        <v>1323100</v>
+        <v>1221300</v>
       </c>
       <c r="I57" s="3">
-        <v>1214100</v>
+        <v>1120700</v>
       </c>
       <c r="J57" s="3">
+        <v>1195200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1294800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3672400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2170000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1613900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2393600</v>
+        <v>2209500</v>
       </c>
       <c r="E58" s="3">
-        <v>1280100</v>
+        <v>1181600</v>
       </c>
       <c r="F58" s="3">
-        <v>1303200</v>
+        <v>1202900</v>
       </c>
       <c r="G58" s="3">
-        <v>1045200</v>
+        <v>964800</v>
       </c>
       <c r="H58" s="3">
-        <v>1337600</v>
+        <v>1234700</v>
       </c>
       <c r="I58" s="3">
-        <v>1072800</v>
+        <v>990300</v>
       </c>
       <c r="J58" s="3">
+        <v>1097700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1189100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>243300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>647700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>302800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1943500</v>
+        <v>2537300</v>
       </c>
       <c r="E59" s="3">
-        <v>1785500</v>
+        <v>1648100</v>
       </c>
       <c r="F59" s="3">
-        <v>2239900</v>
+        <v>2067600</v>
       </c>
       <c r="G59" s="3">
-        <v>1800800</v>
+        <v>1662300</v>
       </c>
       <c r="H59" s="3">
-        <v>1719400</v>
+        <v>1587200</v>
       </c>
       <c r="I59" s="3">
-        <v>1973800</v>
+        <v>1822000</v>
       </c>
       <c r="J59" s="3">
+        <v>1893600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2051400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4327100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2920800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2558000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7864700</v>
+        <v>7259700</v>
       </c>
       <c r="E60" s="3">
-        <v>4753400</v>
+        <v>4387800</v>
       </c>
       <c r="F60" s="3">
-        <v>5653000</v>
+        <v>5218200</v>
       </c>
       <c r="G60" s="3">
-        <v>4634400</v>
+        <v>4277900</v>
       </c>
       <c r="H60" s="3">
-        <v>4380100</v>
+        <v>4043200</v>
       </c>
       <c r="I60" s="3">
-        <v>4260700</v>
+        <v>3933000</v>
       </c>
       <c r="J60" s="3">
+        <v>4186500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4535300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6003600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5337600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4474700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22322300</v>
+        <v>20605100</v>
       </c>
       <c r="E61" s="3">
-        <v>10870200</v>
+        <v>10034000</v>
       </c>
       <c r="F61" s="3">
-        <v>8639000</v>
+        <v>7974500</v>
       </c>
       <c r="G61" s="3">
-        <v>8851100</v>
+        <v>8170300</v>
       </c>
       <c r="H61" s="3">
-        <v>9984900</v>
+        <v>9216800</v>
       </c>
       <c r="I61" s="3">
-        <v>12504900</v>
+        <v>11543000</v>
       </c>
       <c r="J61" s="3">
+        <v>11675900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12648900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5784500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4013200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2799300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8942400</v>
+        <v>8254700</v>
       </c>
       <c r="E62" s="3">
-        <v>6111800</v>
+        <v>5641700</v>
       </c>
       <c r="F62" s="3">
-        <v>5235000</v>
+        <v>4832300</v>
       </c>
       <c r="G62" s="3">
-        <v>3917900</v>
+        <v>3616500</v>
       </c>
       <c r="H62" s="3">
-        <v>3603900</v>
+        <v>3326700</v>
       </c>
       <c r="I62" s="3">
-        <v>2991200</v>
+        <v>2761100</v>
       </c>
       <c r="J62" s="3">
+        <v>2801000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3034400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3612900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3242300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3147000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44854400</v>
+        <v>41404100</v>
       </c>
       <c r="E66" s="3">
-        <v>22703700</v>
+        <v>20957200</v>
       </c>
       <c r="F66" s="3">
-        <v>20549300</v>
+        <v>18968600</v>
       </c>
       <c r="G66" s="3">
-        <v>17947000</v>
+        <v>16566500</v>
       </c>
       <c r="H66" s="3">
-        <v>18458400</v>
+        <v>17038500</v>
       </c>
       <c r="I66" s="3">
-        <v>20184700</v>
+        <v>18632100</v>
       </c>
       <c r="J66" s="3">
+        <v>19113400</v>
+      </c>
+      <c r="K66" s="3">
         <v>20706200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16553400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13161300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11153200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>6914900</v>
       </c>
       <c r="E72" s="3">
-        <v>3272700</v>
+        <v>3021000</v>
       </c>
       <c r="F72" s="3">
-        <v>4758100</v>
+        <v>4392100</v>
       </c>
       <c r="G72" s="3">
-        <v>4623800</v>
+        <v>4268100</v>
       </c>
       <c r="H72" s="3">
-        <v>2570600</v>
+        <v>2372800</v>
       </c>
       <c r="I72" s="3">
-        <v>1095400</v>
+        <v>1011100</v>
       </c>
       <c r="J72" s="3">
+        <v>641300</v>
+      </c>
+      <c r="K72" s="3">
         <v>694700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21481900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15050300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7271700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18650600</v>
+        <v>17215900</v>
       </c>
       <c r="E76" s="3">
-        <v>13544800</v>
+        <v>12502900</v>
       </c>
       <c r="F76" s="3">
-        <v>14667200</v>
+        <v>13539000</v>
       </c>
       <c r="G76" s="3">
-        <v>14875500</v>
+        <v>13731300</v>
       </c>
       <c r="H76" s="3">
-        <v>12453600</v>
+        <v>11495700</v>
       </c>
       <c r="I76" s="3">
-        <v>11355200</v>
+        <v>10481700</v>
       </c>
       <c r="J76" s="3">
+        <v>10405600</v>
+      </c>
+      <c r="K76" s="3">
         <v>11272700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19202200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11294500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11537700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>438900</v>
+        <v>4006700</v>
       </c>
       <c r="E81" s="3">
-        <v>3445400</v>
+        <v>405100</v>
       </c>
       <c r="F81" s="3">
-        <v>3004700</v>
+        <v>3180400</v>
       </c>
       <c r="G81" s="3">
-        <v>1721300</v>
+        <v>2773500</v>
       </c>
       <c r="H81" s="3">
-        <v>406800</v>
+        <v>1588900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1036800</v>
+        <v>375500</v>
       </c>
       <c r="J81" s="3">
+        <v>-957100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1488600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3538800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4408700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4741500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2420500</v>
+        <v>2438400</v>
       </c>
       <c r="E83" s="3">
-        <v>2227700</v>
+        <v>2234300</v>
       </c>
       <c r="F83" s="3">
-        <v>1999400</v>
+        <v>2056300</v>
       </c>
       <c r="G83" s="3">
-        <v>2149300</v>
+        <v>1845600</v>
       </c>
       <c r="H83" s="3">
-        <v>1974000</v>
+        <v>1984000</v>
       </c>
       <c r="I83" s="3">
-        <v>1760300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1822100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1624900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1489900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1493100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1635100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2388500</v>
+        <v>5408600</v>
       </c>
       <c r="E89" s="3">
-        <v>7205100</v>
+        <v>2204800</v>
       </c>
       <c r="F89" s="3">
-        <v>5822000</v>
+        <v>6650800</v>
       </c>
       <c r="G89" s="3">
-        <v>4413100</v>
+        <v>5374200</v>
       </c>
       <c r="H89" s="3">
-        <v>3753900</v>
+        <v>4073700</v>
       </c>
       <c r="I89" s="3">
-        <v>2707000</v>
+        <v>3465100</v>
       </c>
       <c r="J89" s="3">
+        <v>2498800</v>
+      </c>
+      <c r="K89" s="3">
         <v>4309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4731100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6038200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7091300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2867000</v>
+        <v>-3084100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3590800</v>
+        <v>-2646400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2172200</v>
+        <v>-3314600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1505300</v>
+        <v>-2005100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1499700</v>
+        <v>-1389500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3676200</v>
+        <v>-1384400</v>
       </c>
       <c r="J91" s="3">
+        <v>-3393400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3630100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3232100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2217500</v>
+        <v>-4924400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2609400</v>
+        <v>-2046900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2246900</v>
+        <v>-2408600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1139800</v>
+        <v>-2074100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2493000</v>
+        <v>-1052100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3001700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2301300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2770800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2608900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4804000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4673200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2270900</v>
+        <v>-665100</v>
       </c>
       <c r="E96" s="3">
-        <v>-3605400</v>
+        <v>-2096200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1151200</v>
+        <v>-3328100</v>
       </c>
       <c r="G96" s="3">
-        <v>-391200</v>
+        <v>-1062600</v>
       </c>
       <c r="H96" s="3">
-        <v>-445200</v>
+        <v>-361100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1428300</v>
+        <v>-411000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1318400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-465200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2525800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1890200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-683600</v>
+        <v>1670000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4464300</v>
+        <v>-631000</v>
       </c>
       <c r="F100" s="3">
-        <v>-4105600</v>
+        <v>-4120900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3318700</v>
+        <v>-3789800</v>
       </c>
       <c r="H100" s="3">
-        <v>-718400</v>
+        <v>-3063400</v>
       </c>
       <c r="I100" s="3">
-        <v>-362000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-663100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-334100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1037200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1400900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>117900</v>
       </c>
       <c r="E101" s="3">
-        <v>67200</v>
+        <v>-5400</v>
       </c>
       <c r="F101" s="3">
-        <v>105600</v>
+        <v>62100</v>
       </c>
       <c r="G101" s="3">
-        <v>-75500</v>
+        <v>97500</v>
       </c>
       <c r="H101" s="3">
-        <v>-58800</v>
+        <v>-69700</v>
       </c>
       <c r="I101" s="3">
-        <v>379100</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-54300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>349900</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>72600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-518300</v>
+        <v>2272200</v>
       </c>
       <c r="E102" s="3">
-        <v>198600</v>
+        <v>-478400</v>
       </c>
       <c r="F102" s="3">
-        <v>-424900</v>
+        <v>183400</v>
       </c>
       <c r="G102" s="3">
-        <v>-120800</v>
+        <v>-392200</v>
       </c>
       <c r="H102" s="3">
-        <v>483600</v>
+        <v>-111500</v>
       </c>
       <c r="I102" s="3">
-        <v>-277600</v>
+        <v>446400</v>
       </c>
       <c r="J102" s="3">
+        <v>-256300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-308600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>243200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>269600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1012100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22018600</v>
+        <v>21101100</v>
       </c>
       <c r="E8" s="3">
-        <v>12006400</v>
+        <v>11506100</v>
       </c>
       <c r="F8" s="3">
-        <v>17003200</v>
+        <v>16294800</v>
       </c>
       <c r="G8" s="3">
-        <v>16276800</v>
+        <v>15598600</v>
       </c>
       <c r="H8" s="3">
-        <v>13250500</v>
+        <v>12698400</v>
       </c>
       <c r="I8" s="3">
-        <v>11455800</v>
+        <v>10978400</v>
       </c>
       <c r="J8" s="3">
-        <v>12501800</v>
+        <v>11980900</v>
       </c>
       <c r="K8" s="3">
         <v>17152700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13339600</v>
+        <v>12783800</v>
       </c>
       <c r="E9" s="3">
-        <v>9012600</v>
+        <v>8637100</v>
       </c>
       <c r="F9" s="3">
-        <v>10789800</v>
+        <v>10340200</v>
       </c>
       <c r="G9" s="3">
-        <v>9880700</v>
+        <v>9469000</v>
       </c>
       <c r="H9" s="3">
-        <v>8854400</v>
+        <v>8485500</v>
       </c>
       <c r="I9" s="3">
-        <v>8216800</v>
+        <v>7874400</v>
       </c>
       <c r="J9" s="3">
-        <v>8878700</v>
+        <v>8508700</v>
       </c>
       <c r="K9" s="3">
         <v>11331900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8679000</v>
+        <v>8317300</v>
       </c>
       <c r="E10" s="3">
-        <v>2993700</v>
+        <v>2869000</v>
       </c>
       <c r="F10" s="3">
-        <v>6213400</v>
+        <v>5954500</v>
       </c>
       <c r="G10" s="3">
-        <v>6396100</v>
+        <v>6129600</v>
       </c>
       <c r="H10" s="3">
-        <v>4396000</v>
+        <v>4212900</v>
       </c>
       <c r="I10" s="3">
-        <v>3239000</v>
+        <v>3104000</v>
       </c>
       <c r="J10" s="3">
-        <v>3623100</v>
+        <v>3472200</v>
       </c>
       <c r="K10" s="3">
         <v>5820800</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>230300</v>
+        <v>220700</v>
       </c>
       <c r="E12" s="3">
-        <v>165400</v>
+        <v>158500</v>
       </c>
       <c r="F12" s="3">
-        <v>183200</v>
+        <v>175600</v>
       </c>
       <c r="G12" s="3">
-        <v>333000</v>
+        <v>319100</v>
       </c>
       <c r="H12" s="3">
-        <v>322100</v>
+        <v>308600</v>
       </c>
       <c r="I12" s="3">
-        <v>174900</v>
+        <v>167600</v>
       </c>
       <c r="J12" s="3">
-        <v>380200</v>
+        <v>364400</v>
       </c>
       <c r="K12" s="3">
         <v>669800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28100</v>
+        <v>26900</v>
       </c>
       <c r="E14" s="3">
-        <v>-171700</v>
+        <v>-164500</v>
       </c>
       <c r="F14" s="3">
-        <v>191200</v>
+        <v>183200</v>
       </c>
       <c r="G14" s="3">
-        <v>102500</v>
+        <v>98200</v>
       </c>
       <c r="H14" s="3">
-        <v>-420400</v>
+        <v>-402900</v>
       </c>
       <c r="I14" s="3">
-        <v>175000</v>
+        <v>167700</v>
       </c>
       <c r="J14" s="3">
-        <v>1938700</v>
+        <v>1857900</v>
       </c>
       <c r="K14" s="3">
         <v>546200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>134700</v>
+        <v>129000</v>
       </c>
       <c r="E15" s="3">
-        <v>77900</v>
+        <v>74600</v>
       </c>
       <c r="F15" s="3">
-        <v>66700</v>
+        <v>63900</v>
       </c>
       <c r="G15" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="H15" s="3">
-        <v>35800</v>
+        <v>34300</v>
       </c>
       <c r="I15" s="3">
-        <v>53500</v>
+        <v>51300</v>
       </c>
       <c r="J15" s="3">
-        <v>41000</v>
+        <v>39200</v>
       </c>
       <c r="K15" s="3">
         <v>128500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14924000</v>
+        <v>14302200</v>
       </c>
       <c r="E17" s="3">
-        <v>10323400</v>
+        <v>9893300</v>
       </c>
       <c r="F17" s="3">
-        <v>12103600</v>
+        <v>11599300</v>
       </c>
       <c r="G17" s="3">
-        <v>11066100</v>
+        <v>10605000</v>
       </c>
       <c r="H17" s="3">
-        <v>9529400</v>
+        <v>9132300</v>
       </c>
       <c r="I17" s="3">
-        <v>9475100</v>
+        <v>9080300</v>
       </c>
       <c r="J17" s="3">
-        <v>12152400</v>
+        <v>11646000</v>
       </c>
       <c r="K17" s="3">
         <v>13395900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7094500</v>
+        <v>6798900</v>
       </c>
       <c r="E18" s="3">
-        <v>1682900</v>
+        <v>1612800</v>
       </c>
       <c r="F18" s="3">
-        <v>4899600</v>
+        <v>4695500</v>
       </c>
       <c r="G18" s="3">
-        <v>5210700</v>
+        <v>4993600</v>
       </c>
       <c r="H18" s="3">
-        <v>3721100</v>
+        <v>3566100</v>
       </c>
       <c r="I18" s="3">
-        <v>1980700</v>
+        <v>1898200</v>
       </c>
       <c r="J18" s="3">
-        <v>349400</v>
+        <v>334900</v>
       </c>
       <c r="K18" s="3">
         <v>3756700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42400</v>
+        <v>-40600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>138800</v>
+        <v>133000</v>
       </c>
       <c r="G20" s="3">
-        <v>130500</v>
+        <v>125100</v>
       </c>
       <c r="H20" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>377200</v>
+        <v>361500</v>
       </c>
       <c r="J20" s="3">
-        <v>-519300</v>
+        <v>-497600</v>
       </c>
       <c r="K20" s="3">
         <v>-670000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9592100</v>
+        <v>9095100</v>
       </c>
       <c r="E21" s="3">
-        <v>4008200</v>
+        <v>3752000</v>
       </c>
       <c r="F21" s="3">
-        <v>7180400</v>
+        <v>6799100</v>
       </c>
       <c r="G21" s="3">
-        <v>7263800</v>
+        <v>6887400</v>
       </c>
       <c r="H21" s="3">
-        <v>5768100</v>
+        <v>5448600</v>
       </c>
       <c r="I21" s="3">
-        <v>4256000</v>
+        <v>4005900</v>
       </c>
       <c r="J21" s="3">
-        <v>1522800</v>
+        <v>1394400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>742900</v>
+        <v>711900</v>
       </c>
       <c r="E22" s="3">
-        <v>572200</v>
+        <v>548400</v>
       </c>
       <c r="F22" s="3">
-        <v>454700</v>
+        <v>435700</v>
       </c>
       <c r="G22" s="3">
-        <v>575900</v>
+        <v>551900</v>
       </c>
       <c r="H22" s="3">
-        <v>572600</v>
+        <v>548800</v>
       </c>
       <c r="I22" s="3">
-        <v>663600</v>
+        <v>636000</v>
       </c>
       <c r="J22" s="3">
-        <v>424500</v>
+        <v>406800</v>
       </c>
       <c r="K22" s="3">
         <v>196100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6309300</v>
+        <v>6046400</v>
       </c>
       <c r="E23" s="3">
-        <v>1108600</v>
+        <v>1062400</v>
       </c>
       <c r="F23" s="3">
-        <v>4583700</v>
+        <v>4392700</v>
       </c>
       <c r="G23" s="3">
-        <v>4765400</v>
+        <v>4566800</v>
       </c>
       <c r="H23" s="3">
-        <v>3128800</v>
+        <v>2998500</v>
       </c>
       <c r="I23" s="3">
-        <v>1694300</v>
+        <v>1623700</v>
       </c>
       <c r="J23" s="3">
-        <v>-594300</v>
+        <v>-569500</v>
       </c>
       <c r="K23" s="3">
         <v>2890600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1814900</v>
+        <v>1739300</v>
       </c>
       <c r="E24" s="3">
-        <v>426400</v>
+        <v>408700</v>
       </c>
       <c r="F24" s="3">
-        <v>1103100</v>
+        <v>1057200</v>
       </c>
       <c r="G24" s="3">
-        <v>1757300</v>
+        <v>1684100</v>
       </c>
       <c r="H24" s="3">
-        <v>1352400</v>
+        <v>1296000</v>
       </c>
       <c r="I24" s="3">
-        <v>1117300</v>
+        <v>1070800</v>
       </c>
       <c r="J24" s="3">
-        <v>145600</v>
+        <v>139500</v>
       </c>
       <c r="K24" s="3">
         <v>1240000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4494400</v>
+        <v>4307100</v>
       </c>
       <c r="E26" s="3">
-        <v>682100</v>
+        <v>653700</v>
       </c>
       <c r="F26" s="3">
-        <v>3480600</v>
+        <v>3335600</v>
       </c>
       <c r="G26" s="3">
-        <v>3008100</v>
+        <v>2882800</v>
       </c>
       <c r="H26" s="3">
-        <v>1776500</v>
+        <v>1702400</v>
       </c>
       <c r="I26" s="3">
-        <v>577000</v>
+        <v>553000</v>
       </c>
       <c r="J26" s="3">
-        <v>-739900</v>
+        <v>-709100</v>
       </c>
       <c r="K26" s="3">
         <v>1650600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4006700</v>
+        <v>3839800</v>
       </c>
       <c r="E27" s="3">
-        <v>405100</v>
+        <v>388300</v>
       </c>
       <c r="F27" s="3">
-        <v>3180400</v>
+        <v>3047800</v>
       </c>
       <c r="G27" s="3">
-        <v>2773500</v>
+        <v>2658000</v>
       </c>
       <c r="H27" s="3">
-        <v>1588900</v>
+        <v>1522700</v>
       </c>
       <c r="I27" s="3">
-        <v>375500</v>
+        <v>359900</v>
       </c>
       <c r="J27" s="3">
-        <v>-957100</v>
+        <v>-917200</v>
       </c>
       <c r="K27" s="3">
         <v>1488600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42400</v>
+        <v>40600</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-138800</v>
+        <v>-133000</v>
       </c>
       <c r="G32" s="3">
-        <v>-130500</v>
+        <v>-125100</v>
       </c>
       <c r="H32" s="3">
-        <v>19600</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>-377200</v>
+        <v>-361500</v>
       </c>
       <c r="J32" s="3">
-        <v>519300</v>
+        <v>497600</v>
       </c>
       <c r="K32" s="3">
         <v>670000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4006700</v>
+        <v>3839800</v>
       </c>
       <c r="E33" s="3">
-        <v>405100</v>
+        <v>388300</v>
       </c>
       <c r="F33" s="3">
-        <v>3180400</v>
+        <v>3047800</v>
       </c>
       <c r="G33" s="3">
-        <v>2773500</v>
+        <v>2658000</v>
       </c>
       <c r="H33" s="3">
-        <v>1588900</v>
+        <v>1522700</v>
       </c>
       <c r="I33" s="3">
-        <v>375500</v>
+        <v>359900</v>
       </c>
       <c r="J33" s="3">
-        <v>-957100</v>
+        <v>-917200</v>
       </c>
       <c r="K33" s="3">
         <v>1488600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4006700</v>
+        <v>3839800</v>
       </c>
       <c r="E35" s="3">
-        <v>405100</v>
+        <v>388300</v>
       </c>
       <c r="F35" s="3">
-        <v>3180400</v>
+        <v>3047800</v>
       </c>
       <c r="G35" s="3">
-        <v>2773500</v>
+        <v>2658000</v>
       </c>
       <c r="H35" s="3">
-        <v>1588900</v>
+        <v>1522700</v>
       </c>
       <c r="I35" s="3">
-        <v>375500</v>
+        <v>359900</v>
       </c>
       <c r="J35" s="3">
-        <v>-957100</v>
+        <v>-917200</v>
       </c>
       <c r="K35" s="3">
         <v>1488600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3492000</v>
+        <v>3346500</v>
       </c>
       <c r="E41" s="3">
-        <v>1219800</v>
+        <v>1168900</v>
       </c>
       <c r="F41" s="3">
-        <v>1698200</v>
+        <v>1627400</v>
       </c>
       <c r="G41" s="3">
-        <v>1514800</v>
+        <v>1451700</v>
       </c>
       <c r="H41" s="3">
-        <v>1907000</v>
+        <v>1827600</v>
       </c>
       <c r="I41" s="3">
-        <v>2018500</v>
+        <v>1934400</v>
       </c>
       <c r="J41" s="3">
-        <v>1572100</v>
+        <v>1506600</v>
       </c>
       <c r="K41" s="3">
         <v>1703100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>517100</v>
+        <v>495600</v>
       </c>
       <c r="E42" s="3">
-        <v>579100</v>
+        <v>554900</v>
       </c>
       <c r="F42" s="3">
-        <v>424500</v>
+        <v>406800</v>
       </c>
       <c r="G42" s="3">
-        <v>1277100</v>
+        <v>1223900</v>
       </c>
       <c r="H42" s="3">
-        <v>712300</v>
+        <v>682600</v>
       </c>
       <c r="I42" s="3">
-        <v>1288100</v>
+        <v>1234400</v>
       </c>
       <c r="J42" s="3">
-        <v>298300</v>
+        <v>285800</v>
       </c>
       <c r="K42" s="3">
         <v>323100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6087200</v>
+        <v>5833600</v>
       </c>
       <c r="E43" s="3">
-        <v>2240800</v>
+        <v>2147400</v>
       </c>
       <c r="F43" s="3">
-        <v>1967600</v>
+        <v>1885600</v>
       </c>
       <c r="G43" s="3">
-        <v>2343400</v>
+        <v>2245800</v>
       </c>
       <c r="H43" s="3">
-        <v>1755800</v>
+        <v>1682600</v>
       </c>
       <c r="I43" s="3">
-        <v>1460200</v>
+        <v>1399300</v>
       </c>
       <c r="J43" s="3">
-        <v>2013400</v>
+        <v>1929500</v>
       </c>
       <c r="K43" s="3">
         <v>2181200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2015600</v>
+        <v>1931600</v>
       </c>
       <c r="E44" s="3">
-        <v>1213000</v>
+        <v>1162400</v>
       </c>
       <c r="F44" s="3">
-        <v>1357900</v>
+        <v>1301400</v>
       </c>
       <c r="G44" s="3">
-        <v>1224100</v>
+        <v>1173100</v>
       </c>
       <c r="H44" s="3">
-        <v>1104300</v>
+        <v>1058300</v>
       </c>
       <c r="I44" s="3">
-        <v>922100</v>
+        <v>883600</v>
       </c>
       <c r="J44" s="3">
-        <v>733900</v>
+        <v>703300</v>
       </c>
       <c r="K44" s="3">
         <v>795100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>295100</v>
+        <v>282800</v>
       </c>
       <c r="E45" s="3">
-        <v>227700</v>
+        <v>218200</v>
       </c>
       <c r="F45" s="3">
-        <v>159300</v>
+        <v>152600</v>
       </c>
       <c r="G45" s="3">
-        <v>128000</v>
+        <v>122600</v>
       </c>
       <c r="H45" s="3">
-        <v>94400</v>
+        <v>90400</v>
       </c>
       <c r="I45" s="3">
-        <v>102200</v>
+        <v>97900</v>
       </c>
       <c r="J45" s="3">
-        <v>209500</v>
+        <v>200800</v>
       </c>
       <c r="K45" s="3">
         <v>226900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12407000</v>
+        <v>11890000</v>
       </c>
       <c r="E46" s="3">
-        <v>5480200</v>
+        <v>5251900</v>
       </c>
       <c r="F46" s="3">
-        <v>5607500</v>
+        <v>5373800</v>
       </c>
       <c r="G46" s="3">
-        <v>6487300</v>
+        <v>6217000</v>
       </c>
       <c r="H46" s="3">
-        <v>5573800</v>
+        <v>5341500</v>
       </c>
       <c r="I46" s="3">
-        <v>5791000</v>
+        <v>5549700</v>
       </c>
       <c r="J46" s="3">
-        <v>4827200</v>
+        <v>4626100</v>
       </c>
       <c r="K46" s="3">
         <v>5229500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8117900</v>
+        <v>7779600</v>
       </c>
       <c r="E47" s="3">
-        <v>1134800</v>
+        <v>1087500</v>
       </c>
       <c r="F47" s="3">
-        <v>1772900</v>
+        <v>1699000</v>
       </c>
       <c r="G47" s="3">
-        <v>1302400</v>
+        <v>1248100</v>
       </c>
       <c r="H47" s="3">
-        <v>1361600</v>
+        <v>1304900</v>
       </c>
       <c r="I47" s="3">
-        <v>876800</v>
+        <v>840300</v>
       </c>
       <c r="J47" s="3">
-        <v>905400</v>
+        <v>867700</v>
       </c>
       <c r="K47" s="3">
         <v>980900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30365200</v>
+        <v>29100000</v>
       </c>
       <c r="E48" s="3">
-        <v>23716900</v>
+        <v>22728700</v>
       </c>
       <c r="F48" s="3">
-        <v>22495000</v>
+        <v>21557700</v>
       </c>
       <c r="G48" s="3">
-        <v>20603000</v>
+        <v>19744500</v>
       </c>
       <c r="H48" s="3">
-        <v>19840300</v>
+        <v>19013700</v>
       </c>
       <c r="I48" s="3">
-        <v>20306400</v>
+        <v>19460300</v>
       </c>
       <c r="J48" s="3">
-        <v>21377800</v>
+        <v>20487000</v>
       </c>
       <c r="K48" s="3">
         <v>23159300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4626800</v>
+        <v>4434000</v>
       </c>
       <c r="E49" s="3">
-        <v>458100</v>
+        <v>439000</v>
       </c>
       <c r="F49" s="3">
-        <v>336600</v>
+        <v>322600</v>
       </c>
       <c r="G49" s="3">
-        <v>319200</v>
+        <v>305900</v>
       </c>
       <c r="H49" s="3">
-        <v>311900</v>
+        <v>298900</v>
       </c>
       <c r="I49" s="3">
-        <v>286000</v>
+        <v>274100</v>
       </c>
       <c r="J49" s="3">
-        <v>313800</v>
+        <v>300700</v>
       </c>
       <c r="K49" s="3">
         <v>339900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3103100</v>
+        <v>2973800</v>
       </c>
       <c r="E52" s="3">
-        <v>2670100</v>
+        <v>2558800</v>
       </c>
       <c r="F52" s="3">
-        <v>2295600</v>
+        <v>2199900</v>
       </c>
       <c r="G52" s="3">
-        <v>1585800</v>
+        <v>1519700</v>
       </c>
       <c r="H52" s="3">
-        <v>1446600</v>
+        <v>1386300</v>
       </c>
       <c r="I52" s="3">
-        <v>1853500</v>
+        <v>1776300</v>
       </c>
       <c r="J52" s="3">
-        <v>2094800</v>
+        <v>2007500</v>
       </c>
       <c r="K52" s="3">
         <v>2269400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58620000</v>
+        <v>56177500</v>
       </c>
       <c r="E54" s="3">
-        <v>33460100</v>
+        <v>32065900</v>
       </c>
       <c r="F54" s="3">
-        <v>32507500</v>
+        <v>31153000</v>
       </c>
       <c r="G54" s="3">
-        <v>30297700</v>
+        <v>29035300</v>
       </c>
       <c r="H54" s="3">
-        <v>28534200</v>
+        <v>27345300</v>
       </c>
       <c r="I54" s="3">
-        <v>29113800</v>
+        <v>27900700</v>
       </c>
       <c r="J54" s="3">
-        <v>29519000</v>
+        <v>28289100</v>
       </c>
       <c r="K54" s="3">
         <v>31978900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2512900</v>
+        <v>2408200</v>
       </c>
       <c r="E57" s="3">
-        <v>1558100</v>
+        <v>1493100</v>
       </c>
       <c r="F57" s="3">
-        <v>1947600</v>
+        <v>1866500</v>
       </c>
       <c r="G57" s="3">
-        <v>1650800</v>
+        <v>1582100</v>
       </c>
       <c r="H57" s="3">
-        <v>1221300</v>
+        <v>1170500</v>
       </c>
       <c r="I57" s="3">
-        <v>1120700</v>
+        <v>1074000</v>
       </c>
       <c r="J57" s="3">
-        <v>1195200</v>
+        <v>1145400</v>
       </c>
       <c r="K57" s="3">
         <v>1294800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2209500</v>
+        <v>2117400</v>
       </c>
       <c r="E58" s="3">
-        <v>1181600</v>
+        <v>1132400</v>
       </c>
       <c r="F58" s="3">
-        <v>1202900</v>
+        <v>1152800</v>
       </c>
       <c r="G58" s="3">
-        <v>964800</v>
+        <v>924600</v>
       </c>
       <c r="H58" s="3">
-        <v>1234700</v>
+        <v>1183200</v>
       </c>
       <c r="I58" s="3">
-        <v>990300</v>
+        <v>949000</v>
       </c>
       <c r="J58" s="3">
-        <v>1097700</v>
+        <v>1051900</v>
       </c>
       <c r="K58" s="3">
         <v>1189100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2537300</v>
+        <v>2431600</v>
       </c>
       <c r="E59" s="3">
-        <v>1648100</v>
+        <v>1579500</v>
       </c>
       <c r="F59" s="3">
-        <v>2067600</v>
+        <v>1981500</v>
       </c>
       <c r="G59" s="3">
-        <v>1662300</v>
+        <v>1593000</v>
       </c>
       <c r="H59" s="3">
-        <v>1587200</v>
+        <v>1521000</v>
       </c>
       <c r="I59" s="3">
-        <v>1822000</v>
+        <v>1746100</v>
       </c>
       <c r="J59" s="3">
-        <v>1893600</v>
+        <v>1814700</v>
       </c>
       <c r="K59" s="3">
         <v>2051400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7259700</v>
+        <v>6957200</v>
       </c>
       <c r="E60" s="3">
-        <v>4387800</v>
+        <v>4205000</v>
       </c>
       <c r="F60" s="3">
-        <v>5218200</v>
+        <v>5000700</v>
       </c>
       <c r="G60" s="3">
-        <v>4277900</v>
+        <v>4099700</v>
       </c>
       <c r="H60" s="3">
-        <v>4043200</v>
+        <v>3874700</v>
       </c>
       <c r="I60" s="3">
-        <v>3933000</v>
+        <v>3769100</v>
       </c>
       <c r="J60" s="3">
-        <v>4186500</v>
+        <v>4012000</v>
       </c>
       <c r="K60" s="3">
         <v>4535300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20605100</v>
+        <v>19746600</v>
       </c>
       <c r="E61" s="3">
-        <v>10034000</v>
+        <v>9615900</v>
       </c>
       <c r="F61" s="3">
-        <v>7974500</v>
+        <v>7642200</v>
       </c>
       <c r="G61" s="3">
-        <v>8170300</v>
+        <v>7829800</v>
       </c>
       <c r="H61" s="3">
-        <v>9216800</v>
+        <v>8832800</v>
       </c>
       <c r="I61" s="3">
-        <v>11543000</v>
+        <v>11062000</v>
       </c>
       <c r="J61" s="3">
-        <v>11675900</v>
+        <v>11189400</v>
       </c>
       <c r="K61" s="3">
         <v>12648900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8254700</v>
+        <v>7910800</v>
       </c>
       <c r="E62" s="3">
-        <v>5641700</v>
+        <v>5406600</v>
       </c>
       <c r="F62" s="3">
-        <v>4832300</v>
+        <v>4631000</v>
       </c>
       <c r="G62" s="3">
-        <v>3616500</v>
+        <v>3465800</v>
       </c>
       <c r="H62" s="3">
-        <v>3326700</v>
+        <v>3188100</v>
       </c>
       <c r="I62" s="3">
-        <v>2761100</v>
+        <v>2646000</v>
       </c>
       <c r="J62" s="3">
-        <v>2801000</v>
+        <v>2684300</v>
       </c>
       <c r="K62" s="3">
         <v>3034400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41404100</v>
+        <v>39678900</v>
       </c>
       <c r="E66" s="3">
-        <v>20957200</v>
+        <v>20084000</v>
       </c>
       <c r="F66" s="3">
-        <v>18968600</v>
+        <v>18178200</v>
       </c>
       <c r="G66" s="3">
-        <v>16566500</v>
+        <v>15876200</v>
       </c>
       <c r="H66" s="3">
-        <v>17038500</v>
+        <v>16328600</v>
       </c>
       <c r="I66" s="3">
-        <v>18632100</v>
+        <v>17855700</v>
       </c>
       <c r="J66" s="3">
-        <v>19113400</v>
+        <v>18317000</v>
       </c>
       <c r="K66" s="3">
         <v>20706200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6914900</v>
+        <v>6626700</v>
       </c>
       <c r="E72" s="3">
-        <v>3021000</v>
+        <v>2895100</v>
       </c>
       <c r="F72" s="3">
-        <v>4392100</v>
+        <v>4209100</v>
       </c>
       <c r="G72" s="3">
-        <v>4268100</v>
+        <v>4090300</v>
       </c>
       <c r="H72" s="3">
-        <v>2372800</v>
+        <v>2273900</v>
       </c>
       <c r="I72" s="3">
-        <v>1011100</v>
+        <v>969000</v>
       </c>
       <c r="J72" s="3">
-        <v>641300</v>
+        <v>614600</v>
       </c>
       <c r="K72" s="3">
         <v>694700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17215900</v>
+        <v>16498600</v>
       </c>
       <c r="E76" s="3">
-        <v>12502900</v>
+        <v>11981900</v>
       </c>
       <c r="F76" s="3">
-        <v>13539000</v>
+        <v>12974800</v>
       </c>
       <c r="G76" s="3">
-        <v>13731300</v>
+        <v>13159100</v>
       </c>
       <c r="H76" s="3">
-        <v>11495700</v>
+        <v>11016700</v>
       </c>
       <c r="I76" s="3">
-        <v>10481700</v>
+        <v>10045000</v>
       </c>
       <c r="J76" s="3">
-        <v>10405600</v>
+        <v>9972000</v>
       </c>
       <c r="K76" s="3">
         <v>11272700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4006700</v>
+        <v>3839800</v>
       </c>
       <c r="E81" s="3">
-        <v>405100</v>
+        <v>388300</v>
       </c>
       <c r="F81" s="3">
-        <v>3180400</v>
+        <v>3047800</v>
       </c>
       <c r="G81" s="3">
-        <v>2773500</v>
+        <v>2658000</v>
       </c>
       <c r="H81" s="3">
-        <v>1588900</v>
+        <v>1522700</v>
       </c>
       <c r="I81" s="3">
-        <v>375500</v>
+        <v>359900</v>
       </c>
       <c r="J81" s="3">
-        <v>-957100</v>
+        <v>-917200</v>
       </c>
       <c r="K81" s="3">
         <v>1488600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2438400</v>
+        <v>2336800</v>
       </c>
       <c r="E83" s="3">
-        <v>2234300</v>
+        <v>2141200</v>
       </c>
       <c r="F83" s="3">
-        <v>2056300</v>
+        <v>1970600</v>
       </c>
       <c r="G83" s="3">
-        <v>1845600</v>
+        <v>1768700</v>
       </c>
       <c r="H83" s="3">
-        <v>1984000</v>
+        <v>1901300</v>
       </c>
       <c r="I83" s="3">
-        <v>1822100</v>
+        <v>1746200</v>
       </c>
       <c r="J83" s="3">
-        <v>1624900</v>
+        <v>1557200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5408600</v>
+        <v>5183300</v>
       </c>
       <c r="E89" s="3">
-        <v>2204800</v>
+        <v>2112900</v>
       </c>
       <c r="F89" s="3">
-        <v>6650800</v>
+        <v>6373700</v>
       </c>
       <c r="G89" s="3">
-        <v>5374200</v>
+        <v>5150300</v>
       </c>
       <c r="H89" s="3">
-        <v>4073700</v>
+        <v>3903900</v>
       </c>
       <c r="I89" s="3">
-        <v>3465100</v>
+        <v>3320700</v>
       </c>
       <c r="J89" s="3">
-        <v>2498800</v>
+        <v>2394600</v>
       </c>
       <c r="K89" s="3">
         <v>4309000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3084100</v>
+        <v>-2955600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2646400</v>
+        <v>-2536200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3314600</v>
+        <v>-3176500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2005100</v>
+        <v>-1921600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1389500</v>
+        <v>-1331600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1384400</v>
+        <v>-1326700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3393400</v>
+        <v>-3252000</v>
       </c>
       <c r="K91" s="3">
         <v>-3630100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4924400</v>
+        <v>-4719200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2046900</v>
+        <v>-1961600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2408600</v>
+        <v>-2308300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2074100</v>
+        <v>-1987700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1052100</v>
+        <v>-1008300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2301300</v>
+        <v>-2205400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2770800</v>
+        <v>-2655400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-665100</v>
+        <v>-637400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2096200</v>
+        <v>-2008900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3328100</v>
+        <v>-3189400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1062600</v>
+        <v>-1018400</v>
       </c>
       <c r="H96" s="3">
-        <v>-361100</v>
+        <v>-346100</v>
       </c>
       <c r="I96" s="3">
-        <v>-411000</v>
+        <v>-393800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1318400</v>
+        <v>-1263500</v>
       </c>
       <c r="K96" s="3">
         <v>-465200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1670000</v>
+        <v>1600400</v>
       </c>
       <c r="E100" s="3">
-        <v>-631000</v>
+        <v>-604700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4120900</v>
+        <v>-3949200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3789800</v>
+        <v>-3631900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3063400</v>
+        <v>-2935800</v>
       </c>
       <c r="I100" s="3">
-        <v>-663100</v>
+        <v>-635500</v>
       </c>
       <c r="J100" s="3">
-        <v>-334100</v>
+        <v>-320200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>117900</v>
+        <v>113000</v>
       </c>
       <c r="E101" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3">
-        <v>62100</v>
+        <v>59500</v>
       </c>
       <c r="G101" s="3">
-        <v>97500</v>
+        <v>93400</v>
       </c>
       <c r="H101" s="3">
-        <v>-69700</v>
+        <v>-66800</v>
       </c>
       <c r="I101" s="3">
-        <v>-54300</v>
+        <v>-52100</v>
       </c>
       <c r="J101" s="3">
-        <v>349900</v>
+        <v>335300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2272200</v>
+        <v>2177500</v>
       </c>
       <c r="E102" s="3">
-        <v>-478400</v>
+        <v>-458500</v>
       </c>
       <c r="F102" s="3">
-        <v>183400</v>
+        <v>175700</v>
       </c>
       <c r="G102" s="3">
-        <v>-392200</v>
+        <v>-375900</v>
       </c>
       <c r="H102" s="3">
-        <v>-111500</v>
+        <v>-106900</v>
       </c>
       <c r="I102" s="3">
-        <v>446400</v>
+        <v>427800</v>
       </c>
       <c r="J102" s="3">
-        <v>-256300</v>
+        <v>-245600</v>
       </c>
       <c r="K102" s="3">
         <v>-308600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21101100</v>
+        <v>19266300</v>
       </c>
       <c r="E8" s="3">
-        <v>11506100</v>
+        <v>10505600</v>
       </c>
       <c r="F8" s="3">
-        <v>16294800</v>
+        <v>14877800</v>
       </c>
       <c r="G8" s="3">
-        <v>15598600</v>
+        <v>14242200</v>
       </c>
       <c r="H8" s="3">
-        <v>12698400</v>
+        <v>11594100</v>
       </c>
       <c r="I8" s="3">
-        <v>10978400</v>
+        <v>10023800</v>
       </c>
       <c r="J8" s="3">
-        <v>11980900</v>
+        <v>10939100</v>
       </c>
       <c r="K8" s="3">
         <v>17152700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12783800</v>
+        <v>11672200</v>
       </c>
       <c r="E9" s="3">
-        <v>8637100</v>
+        <v>7886100</v>
       </c>
       <c r="F9" s="3">
-        <v>10340200</v>
+        <v>9441100</v>
       </c>
       <c r="G9" s="3">
-        <v>9469000</v>
+        <v>8645600</v>
       </c>
       <c r="H9" s="3">
-        <v>8485500</v>
+        <v>7747600</v>
       </c>
       <c r="I9" s="3">
-        <v>7874400</v>
+        <v>7189700</v>
       </c>
       <c r="J9" s="3">
-        <v>8508700</v>
+        <v>7768800</v>
       </c>
       <c r="K9" s="3">
         <v>11331900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8317300</v>
+        <v>7594100</v>
       </c>
       <c r="E10" s="3">
-        <v>2869000</v>
+        <v>2619500</v>
       </c>
       <c r="F10" s="3">
-        <v>5954500</v>
+        <v>5436700</v>
       </c>
       <c r="G10" s="3">
-        <v>6129600</v>
+        <v>5596600</v>
       </c>
       <c r="H10" s="3">
-        <v>4212900</v>
+        <v>3846500</v>
       </c>
       <c r="I10" s="3">
-        <v>3104000</v>
+        <v>2834100</v>
       </c>
       <c r="J10" s="3">
-        <v>3472200</v>
+        <v>3170200</v>
       </c>
       <c r="K10" s="3">
         <v>5820800</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>220700</v>
+        <v>201500</v>
       </c>
       <c r="E12" s="3">
-        <v>158500</v>
+        <v>144700</v>
       </c>
       <c r="F12" s="3">
-        <v>175600</v>
+        <v>160300</v>
       </c>
       <c r="G12" s="3">
-        <v>319100</v>
+        <v>291300</v>
       </c>
       <c r="H12" s="3">
-        <v>308600</v>
+        <v>281800</v>
       </c>
       <c r="I12" s="3">
-        <v>167600</v>
+        <v>153000</v>
       </c>
       <c r="J12" s="3">
-        <v>364400</v>
+        <v>332700</v>
       </c>
       <c r="K12" s="3">
         <v>669800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26900</v>
+        <v>24600</v>
       </c>
       <c r="E14" s="3">
-        <v>-164500</v>
+        <v>-150200</v>
       </c>
       <c r="F14" s="3">
-        <v>183200</v>
+        <v>167300</v>
       </c>
       <c r="G14" s="3">
-        <v>98200</v>
+        <v>89700</v>
       </c>
       <c r="H14" s="3">
-        <v>-402900</v>
+        <v>-367900</v>
       </c>
       <c r="I14" s="3">
-        <v>167700</v>
+        <v>153100</v>
       </c>
       <c r="J14" s="3">
-        <v>1857900</v>
+        <v>1696400</v>
       </c>
       <c r="K14" s="3">
         <v>546200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>129000</v>
+        <v>117800</v>
       </c>
       <c r="E15" s="3">
-        <v>74600</v>
+        <v>68100</v>
       </c>
       <c r="F15" s="3">
-        <v>63900</v>
+        <v>58400</v>
       </c>
       <c r="G15" s="3">
-        <v>19600</v>
+        <v>17900</v>
       </c>
       <c r="H15" s="3">
-        <v>34300</v>
+        <v>31400</v>
       </c>
       <c r="I15" s="3">
-        <v>51300</v>
+        <v>46800</v>
       </c>
       <c r="J15" s="3">
-        <v>39200</v>
+        <v>35800</v>
       </c>
       <c r="K15" s="3">
         <v>128500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14302200</v>
+        <v>13058500</v>
       </c>
       <c r="E17" s="3">
-        <v>9893300</v>
+        <v>9033000</v>
       </c>
       <c r="F17" s="3">
-        <v>11599300</v>
+        <v>10590600</v>
       </c>
       <c r="G17" s="3">
-        <v>10605000</v>
+        <v>9682800</v>
       </c>
       <c r="H17" s="3">
-        <v>9132300</v>
+        <v>8338200</v>
       </c>
       <c r="I17" s="3">
-        <v>9080300</v>
+        <v>8290700</v>
       </c>
       <c r="J17" s="3">
-        <v>11646000</v>
+        <v>10633300</v>
       </c>
       <c r="K17" s="3">
         <v>13395900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6798900</v>
+        <v>6207700</v>
       </c>
       <c r="E18" s="3">
-        <v>1612800</v>
+        <v>1472600</v>
       </c>
       <c r="F18" s="3">
-        <v>4695500</v>
+        <v>4287200</v>
       </c>
       <c r="G18" s="3">
-        <v>4993600</v>
+        <v>4559400</v>
       </c>
       <c r="H18" s="3">
-        <v>3566100</v>
+        <v>3256000</v>
       </c>
       <c r="I18" s="3">
-        <v>1898200</v>
+        <v>1733100</v>
       </c>
       <c r="J18" s="3">
-        <v>334900</v>
+        <v>305700</v>
       </c>
       <c r="K18" s="3">
         <v>3756700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40600</v>
+        <v>-37100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>133000</v>
+        <v>121400</v>
       </c>
       <c r="G20" s="3">
-        <v>125100</v>
+        <v>114200</v>
       </c>
       <c r="H20" s="3">
-        <v>-18800</v>
+        <v>-17200</v>
       </c>
       <c r="I20" s="3">
-        <v>361500</v>
+        <v>330100</v>
       </c>
       <c r="J20" s="3">
-        <v>-497600</v>
+        <v>-454400</v>
       </c>
       <c r="K20" s="3">
         <v>-670000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9095100</v>
+        <v>8202600</v>
       </c>
       <c r="E21" s="3">
-        <v>3752000</v>
+        <v>3332700</v>
       </c>
       <c r="F21" s="3">
-        <v>6799100</v>
+        <v>6122200</v>
       </c>
       <c r="G21" s="3">
-        <v>6887400</v>
+        <v>6211600</v>
       </c>
       <c r="H21" s="3">
-        <v>5448600</v>
+        <v>4892100</v>
       </c>
       <c r="I21" s="3">
-        <v>4005900</v>
+        <v>3581600</v>
       </c>
       <c r="J21" s="3">
-        <v>1394400</v>
+        <v>1205500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>711900</v>
+        <v>650000</v>
       </c>
       <c r="E22" s="3">
-        <v>548400</v>
+        <v>500700</v>
       </c>
       <c r="F22" s="3">
-        <v>435700</v>
+        <v>397800</v>
       </c>
       <c r="G22" s="3">
-        <v>551900</v>
+        <v>503900</v>
       </c>
       <c r="H22" s="3">
-        <v>548800</v>
+        <v>501100</v>
       </c>
       <c r="I22" s="3">
-        <v>636000</v>
+        <v>580700</v>
       </c>
       <c r="J22" s="3">
-        <v>406800</v>
+        <v>371400</v>
       </c>
       <c r="K22" s="3">
         <v>196100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6046400</v>
+        <v>5520600</v>
       </c>
       <c r="E23" s="3">
-        <v>1062400</v>
+        <v>970000</v>
       </c>
       <c r="F23" s="3">
-        <v>4392700</v>
+        <v>4010800</v>
       </c>
       <c r="G23" s="3">
-        <v>4566800</v>
+        <v>4169700</v>
       </c>
       <c r="H23" s="3">
-        <v>2998500</v>
+        <v>2737700</v>
       </c>
       <c r="I23" s="3">
-        <v>1623700</v>
+        <v>1482500</v>
       </c>
       <c r="J23" s="3">
-        <v>-569500</v>
+        <v>-520000</v>
       </c>
       <c r="K23" s="3">
         <v>2890600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1739300</v>
+        <v>1588100</v>
       </c>
       <c r="E24" s="3">
-        <v>408700</v>
+        <v>373100</v>
       </c>
       <c r="F24" s="3">
-        <v>1057200</v>
+        <v>965200</v>
       </c>
       <c r="G24" s="3">
-        <v>1684100</v>
+        <v>1537600</v>
       </c>
       <c r="H24" s="3">
-        <v>1296000</v>
+        <v>1183300</v>
       </c>
       <c r="I24" s="3">
-        <v>1070800</v>
+        <v>977700</v>
       </c>
       <c r="J24" s="3">
-        <v>139500</v>
+        <v>127400</v>
       </c>
       <c r="K24" s="3">
         <v>1240000</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4307100</v>
+        <v>3932600</v>
       </c>
       <c r="E26" s="3">
-        <v>653700</v>
+        <v>596900</v>
       </c>
       <c r="F26" s="3">
-        <v>3335600</v>
+        <v>3045500</v>
       </c>
       <c r="G26" s="3">
-        <v>2882800</v>
+        <v>2632100</v>
       </c>
       <c r="H26" s="3">
-        <v>1702400</v>
+        <v>1554400</v>
       </c>
       <c r="I26" s="3">
-        <v>553000</v>
+        <v>504900</v>
       </c>
       <c r="J26" s="3">
-        <v>-709100</v>
+        <v>-647400</v>
       </c>
       <c r="K26" s="3">
         <v>1650600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3839800</v>
+        <v>3505900</v>
       </c>
       <c r="E27" s="3">
-        <v>388300</v>
+        <v>354500</v>
       </c>
       <c r="F27" s="3">
-        <v>3047800</v>
+        <v>2782800</v>
       </c>
       <c r="G27" s="3">
-        <v>2658000</v>
+        <v>2426800</v>
       </c>
       <c r="H27" s="3">
-        <v>1522700</v>
+        <v>1390300</v>
       </c>
       <c r="I27" s="3">
-        <v>359900</v>
+        <v>328600</v>
       </c>
       <c r="J27" s="3">
-        <v>-917200</v>
+        <v>-837400</v>
       </c>
       <c r="K27" s="3">
         <v>1488600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40600</v>
+        <v>37100</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>-133000</v>
+        <v>-121400</v>
       </c>
       <c r="G32" s="3">
-        <v>-125100</v>
+        <v>-114200</v>
       </c>
       <c r="H32" s="3">
-        <v>18800</v>
+        <v>17200</v>
       </c>
       <c r="I32" s="3">
-        <v>-361500</v>
+        <v>-330100</v>
       </c>
       <c r="J32" s="3">
-        <v>497600</v>
+        <v>454400</v>
       </c>
       <c r="K32" s="3">
         <v>670000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3839800</v>
+        <v>3505900</v>
       </c>
       <c r="E33" s="3">
-        <v>388300</v>
+        <v>354500</v>
       </c>
       <c r="F33" s="3">
-        <v>3047800</v>
+        <v>2782800</v>
       </c>
       <c r="G33" s="3">
-        <v>2658000</v>
+        <v>2426800</v>
       </c>
       <c r="H33" s="3">
-        <v>1522700</v>
+        <v>1390300</v>
       </c>
       <c r="I33" s="3">
-        <v>359900</v>
+        <v>328600</v>
       </c>
       <c r="J33" s="3">
-        <v>-917200</v>
+        <v>-837400</v>
       </c>
       <c r="K33" s="3">
         <v>1488600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3839800</v>
+        <v>3505900</v>
       </c>
       <c r="E35" s="3">
-        <v>388300</v>
+        <v>354500</v>
       </c>
       <c r="F35" s="3">
-        <v>3047800</v>
+        <v>2782800</v>
       </c>
       <c r="G35" s="3">
-        <v>2658000</v>
+        <v>2426800</v>
       </c>
       <c r="H35" s="3">
-        <v>1522700</v>
+        <v>1390300</v>
       </c>
       <c r="I35" s="3">
-        <v>359900</v>
+        <v>328600</v>
       </c>
       <c r="J35" s="3">
-        <v>-917200</v>
+        <v>-837400</v>
       </c>
       <c r="K35" s="3">
         <v>1488600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3346500</v>
+        <v>3055500</v>
       </c>
       <c r="E41" s="3">
-        <v>1168900</v>
+        <v>1067300</v>
       </c>
       <c r="F41" s="3">
-        <v>1627400</v>
+        <v>1485900</v>
       </c>
       <c r="G41" s="3">
-        <v>1451700</v>
+        <v>1325500</v>
       </c>
       <c r="H41" s="3">
-        <v>1827600</v>
+        <v>1668600</v>
       </c>
       <c r="I41" s="3">
-        <v>1934400</v>
+        <v>1766200</v>
       </c>
       <c r="J41" s="3">
-        <v>1506600</v>
+        <v>1375600</v>
       </c>
       <c r="K41" s="3">
         <v>1703100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>495600</v>
+        <v>452500</v>
       </c>
       <c r="E42" s="3">
-        <v>554900</v>
+        <v>506700</v>
       </c>
       <c r="F42" s="3">
-        <v>406800</v>
+        <v>371500</v>
       </c>
       <c r="G42" s="3">
-        <v>1223900</v>
+        <v>1117400</v>
       </c>
       <c r="H42" s="3">
-        <v>682600</v>
+        <v>623300</v>
       </c>
       <c r="I42" s="3">
-        <v>1234400</v>
+        <v>1127100</v>
       </c>
       <c r="J42" s="3">
-        <v>285800</v>
+        <v>261000</v>
       </c>
       <c r="K42" s="3">
         <v>323100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5833600</v>
+        <v>5326300</v>
       </c>
       <c r="E43" s="3">
-        <v>2147400</v>
+        <v>1960700</v>
       </c>
       <c r="F43" s="3">
-        <v>1885600</v>
+        <v>1721600</v>
       </c>
       <c r="G43" s="3">
-        <v>2245800</v>
+        <v>2050500</v>
       </c>
       <c r="H43" s="3">
-        <v>1682600</v>
+        <v>1536300</v>
       </c>
       <c r="I43" s="3">
-        <v>1399300</v>
+        <v>1277600</v>
       </c>
       <c r="J43" s="3">
-        <v>1929500</v>
+        <v>1761800</v>
       </c>
       <c r="K43" s="3">
         <v>2181200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1931600</v>
+        <v>1763600</v>
       </c>
       <c r="E44" s="3">
-        <v>1162400</v>
+        <v>1061300</v>
       </c>
       <c r="F44" s="3">
-        <v>1301400</v>
+        <v>1188200</v>
       </c>
       <c r="G44" s="3">
-        <v>1173100</v>
+        <v>1071100</v>
       </c>
       <c r="H44" s="3">
-        <v>1058300</v>
+        <v>966300</v>
       </c>
       <c r="I44" s="3">
-        <v>883600</v>
+        <v>806800</v>
       </c>
       <c r="J44" s="3">
-        <v>703300</v>
+        <v>642200</v>
       </c>
       <c r="K44" s="3">
         <v>795100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282800</v>
+        <v>258200</v>
       </c>
       <c r="E45" s="3">
-        <v>218200</v>
+        <v>199200</v>
       </c>
       <c r="F45" s="3">
-        <v>152600</v>
+        <v>139400</v>
       </c>
       <c r="G45" s="3">
-        <v>122600</v>
+        <v>112000</v>
       </c>
       <c r="H45" s="3">
-        <v>90400</v>
+        <v>82600</v>
       </c>
       <c r="I45" s="3">
-        <v>97900</v>
+        <v>89400</v>
       </c>
       <c r="J45" s="3">
-        <v>200800</v>
+        <v>183300</v>
       </c>
       <c r="K45" s="3">
         <v>226900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11890000</v>
+        <v>10856100</v>
       </c>
       <c r="E46" s="3">
-        <v>5251900</v>
+        <v>4795200</v>
       </c>
       <c r="F46" s="3">
-        <v>5373800</v>
+        <v>4906500</v>
       </c>
       <c r="G46" s="3">
-        <v>6217000</v>
+        <v>5676400</v>
       </c>
       <c r="H46" s="3">
-        <v>5341500</v>
+        <v>4877000</v>
       </c>
       <c r="I46" s="3">
-        <v>5549700</v>
+        <v>5067100</v>
       </c>
       <c r="J46" s="3">
-        <v>4626100</v>
+        <v>4223800</v>
       </c>
       <c r="K46" s="3">
         <v>5229500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7779600</v>
+        <v>7103100</v>
       </c>
       <c r="E47" s="3">
-        <v>1087500</v>
+        <v>992900</v>
       </c>
       <c r="F47" s="3">
-        <v>1699000</v>
+        <v>1551300</v>
       </c>
       <c r="G47" s="3">
-        <v>1248100</v>
+        <v>1139600</v>
       </c>
       <c r="H47" s="3">
-        <v>1304900</v>
+        <v>1191400</v>
       </c>
       <c r="I47" s="3">
-        <v>840300</v>
+        <v>767200</v>
       </c>
       <c r="J47" s="3">
-        <v>867700</v>
+        <v>792300</v>
       </c>
       <c r="K47" s="3">
         <v>980900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29100000</v>
+        <v>26569600</v>
       </c>
       <c r="E48" s="3">
-        <v>22728700</v>
+        <v>20752300</v>
       </c>
       <c r="F48" s="3">
-        <v>21557700</v>
+        <v>19683100</v>
       </c>
       <c r="G48" s="3">
-        <v>19744500</v>
+        <v>18027600</v>
       </c>
       <c r="H48" s="3">
-        <v>19013700</v>
+        <v>17360300</v>
       </c>
       <c r="I48" s="3">
-        <v>19460300</v>
+        <v>17768100</v>
       </c>
       <c r="J48" s="3">
-        <v>20487000</v>
+        <v>18705600</v>
       </c>
       <c r="K48" s="3">
         <v>23159300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4434000</v>
+        <v>4048500</v>
       </c>
       <c r="E49" s="3">
-        <v>439000</v>
+        <v>400900</v>
       </c>
       <c r="F49" s="3">
-        <v>322600</v>
+        <v>294500</v>
       </c>
       <c r="G49" s="3">
-        <v>305900</v>
+        <v>279300</v>
       </c>
       <c r="H49" s="3">
-        <v>298900</v>
+        <v>272900</v>
       </c>
       <c r="I49" s="3">
-        <v>274100</v>
+        <v>250200</v>
       </c>
       <c r="J49" s="3">
-        <v>300700</v>
+        <v>274600</v>
       </c>
       <c r="K49" s="3">
         <v>339900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2973800</v>
+        <v>2715200</v>
       </c>
       <c r="E52" s="3">
-        <v>2558800</v>
+        <v>2336300</v>
       </c>
       <c r="F52" s="3">
-        <v>2199900</v>
+        <v>2008600</v>
       </c>
       <c r="G52" s="3">
-        <v>1519700</v>
+        <v>1387600</v>
       </c>
       <c r="H52" s="3">
-        <v>1386300</v>
+        <v>1265700</v>
       </c>
       <c r="I52" s="3">
-        <v>1776300</v>
+        <v>1621800</v>
       </c>
       <c r="J52" s="3">
-        <v>2007500</v>
+        <v>1833000</v>
       </c>
       <c r="K52" s="3">
         <v>2269400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56177500</v>
+        <v>51292500</v>
       </c>
       <c r="E54" s="3">
-        <v>32065900</v>
+        <v>29277600</v>
       </c>
       <c r="F54" s="3">
-        <v>31153000</v>
+        <v>28444100</v>
       </c>
       <c r="G54" s="3">
-        <v>29035300</v>
+        <v>26510500</v>
       </c>
       <c r="H54" s="3">
-        <v>27345300</v>
+        <v>24967400</v>
       </c>
       <c r="I54" s="3">
-        <v>27900700</v>
+        <v>25474600</v>
       </c>
       <c r="J54" s="3">
-        <v>28289100</v>
+        <v>25829100</v>
       </c>
       <c r="K54" s="3">
         <v>31978900</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2408200</v>
+        <v>2198800</v>
       </c>
       <c r="E57" s="3">
-        <v>1493100</v>
+        <v>1363300</v>
       </c>
       <c r="F57" s="3">
-        <v>1866500</v>
+        <v>1704200</v>
       </c>
       <c r="G57" s="3">
-        <v>1582100</v>
+        <v>1444500</v>
       </c>
       <c r="H57" s="3">
-        <v>1170500</v>
+        <v>1068700</v>
       </c>
       <c r="I57" s="3">
-        <v>1074000</v>
+        <v>980600</v>
       </c>
       <c r="J57" s="3">
-        <v>1145400</v>
+        <v>1045800</v>
       </c>
       <c r="K57" s="3">
         <v>1294800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2117400</v>
+        <v>1933300</v>
       </c>
       <c r="E58" s="3">
-        <v>1132400</v>
+        <v>1033900</v>
       </c>
       <c r="F58" s="3">
-        <v>1152800</v>
+        <v>1052600</v>
       </c>
       <c r="G58" s="3">
-        <v>924600</v>
+        <v>844200</v>
       </c>
       <c r="H58" s="3">
-        <v>1183200</v>
+        <v>1080300</v>
       </c>
       <c r="I58" s="3">
-        <v>949000</v>
+        <v>866500</v>
       </c>
       <c r="J58" s="3">
-        <v>1051900</v>
+        <v>960500</v>
       </c>
       <c r="K58" s="3">
         <v>1189100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2431600</v>
+        <v>2220200</v>
       </c>
       <c r="E59" s="3">
-        <v>1579500</v>
+        <v>1442100</v>
       </c>
       <c r="F59" s="3">
-        <v>1981500</v>
+        <v>1809200</v>
       </c>
       <c r="G59" s="3">
-        <v>1593000</v>
+        <v>1454500</v>
       </c>
       <c r="H59" s="3">
-        <v>1521000</v>
+        <v>1388800</v>
       </c>
       <c r="I59" s="3">
-        <v>1746100</v>
+        <v>1594200</v>
       </c>
       <c r="J59" s="3">
-        <v>1814700</v>
+        <v>1656900</v>
       </c>
       <c r="K59" s="3">
         <v>2051400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6957200</v>
+        <v>6352200</v>
       </c>
       <c r="E60" s="3">
-        <v>4205000</v>
+        <v>3839300</v>
       </c>
       <c r="F60" s="3">
-        <v>5000700</v>
+        <v>4565900</v>
       </c>
       <c r="G60" s="3">
-        <v>4099700</v>
+        <v>3743200</v>
       </c>
       <c r="H60" s="3">
-        <v>3874700</v>
+        <v>3537800</v>
       </c>
       <c r="I60" s="3">
-        <v>3769100</v>
+        <v>3441300</v>
       </c>
       <c r="J60" s="3">
-        <v>4012000</v>
+        <v>3663200</v>
       </c>
       <c r="K60" s="3">
         <v>4535300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19746600</v>
+        <v>18029500</v>
       </c>
       <c r="E61" s="3">
-        <v>9615900</v>
+        <v>8779800</v>
       </c>
       <c r="F61" s="3">
-        <v>7642200</v>
+        <v>6977700</v>
       </c>
       <c r="G61" s="3">
-        <v>7829800</v>
+        <v>7149000</v>
       </c>
       <c r="H61" s="3">
-        <v>8832800</v>
+        <v>8064700</v>
       </c>
       <c r="I61" s="3">
-        <v>11062000</v>
+        <v>10100100</v>
       </c>
       <c r="J61" s="3">
-        <v>11189400</v>
+        <v>10216400</v>
       </c>
       <c r="K61" s="3">
         <v>12648900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7910800</v>
+        <v>7222900</v>
       </c>
       <c r="E62" s="3">
-        <v>5406600</v>
+        <v>4936500</v>
       </c>
       <c r="F62" s="3">
-        <v>4631000</v>
+        <v>4228300</v>
       </c>
       <c r="G62" s="3">
-        <v>3465800</v>
+        <v>3164500</v>
       </c>
       <c r="H62" s="3">
-        <v>3188100</v>
+        <v>2910900</v>
       </c>
       <c r="I62" s="3">
-        <v>2646000</v>
+        <v>2415900</v>
       </c>
       <c r="J62" s="3">
-        <v>2684300</v>
+        <v>2450900</v>
       </c>
       <c r="K62" s="3">
         <v>3034400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39678900</v>
+        <v>36228600</v>
       </c>
       <c r="E66" s="3">
-        <v>20084000</v>
+        <v>18337600</v>
       </c>
       <c r="F66" s="3">
-        <v>18178200</v>
+        <v>16597500</v>
       </c>
       <c r="G66" s="3">
-        <v>15876200</v>
+        <v>14495700</v>
       </c>
       <c r="H66" s="3">
-        <v>16328600</v>
+        <v>14908700</v>
       </c>
       <c r="I66" s="3">
-        <v>17855700</v>
+        <v>16303000</v>
       </c>
       <c r="J66" s="3">
-        <v>18317000</v>
+        <v>16724200</v>
       </c>
       <c r="K66" s="3">
         <v>20706200</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6626700</v>
+        <v>6050500</v>
       </c>
       <c r="E72" s="3">
-        <v>2895100</v>
+        <v>2643400</v>
       </c>
       <c r="F72" s="3">
-        <v>4209100</v>
+        <v>3843100</v>
       </c>
       <c r="G72" s="3">
-        <v>4090300</v>
+        <v>3734600</v>
       </c>
       <c r="H72" s="3">
-        <v>2273900</v>
+        <v>2076200</v>
       </c>
       <c r="I72" s="3">
-        <v>969000</v>
+        <v>884700</v>
       </c>
       <c r="J72" s="3">
-        <v>614600</v>
+        <v>561100</v>
       </c>
       <c r="K72" s="3">
         <v>694700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16498600</v>
+        <v>15063900</v>
       </c>
       <c r="E76" s="3">
-        <v>11981900</v>
+        <v>10940000</v>
       </c>
       <c r="F76" s="3">
-        <v>12974800</v>
+        <v>11846600</v>
       </c>
       <c r="G76" s="3">
-        <v>13159100</v>
+        <v>12014900</v>
       </c>
       <c r="H76" s="3">
-        <v>11016700</v>
+        <v>10058700</v>
       </c>
       <c r="I76" s="3">
-        <v>10045000</v>
+        <v>9171500</v>
       </c>
       <c r="J76" s="3">
-        <v>9972000</v>
+        <v>9104900</v>
       </c>
       <c r="K76" s="3">
         <v>11272700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3839800</v>
+        <v>3505900</v>
       </c>
       <c r="E81" s="3">
-        <v>388300</v>
+        <v>354500</v>
       </c>
       <c r="F81" s="3">
-        <v>3047800</v>
+        <v>2782800</v>
       </c>
       <c r="G81" s="3">
-        <v>2658000</v>
+        <v>2426800</v>
       </c>
       <c r="H81" s="3">
-        <v>1522700</v>
+        <v>1390300</v>
       </c>
       <c r="I81" s="3">
-        <v>359900</v>
+        <v>328600</v>
       </c>
       <c r="J81" s="3">
-        <v>-917200</v>
+        <v>-837400</v>
       </c>
       <c r="K81" s="3">
         <v>1488600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2336800</v>
+        <v>2133600</v>
       </c>
       <c r="E83" s="3">
-        <v>2141200</v>
+        <v>1955000</v>
       </c>
       <c r="F83" s="3">
-        <v>1970600</v>
+        <v>1799300</v>
       </c>
       <c r="G83" s="3">
-        <v>1768700</v>
+        <v>1614900</v>
       </c>
       <c r="H83" s="3">
-        <v>1901300</v>
+        <v>1736000</v>
       </c>
       <c r="I83" s="3">
-        <v>1746200</v>
+        <v>1594400</v>
       </c>
       <c r="J83" s="3">
-        <v>1557200</v>
+        <v>1421800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5183300</v>
+        <v>4732600</v>
       </c>
       <c r="E89" s="3">
-        <v>2112900</v>
+        <v>1929200</v>
       </c>
       <c r="F89" s="3">
-        <v>6373700</v>
+        <v>5819500</v>
       </c>
       <c r="G89" s="3">
-        <v>5150300</v>
+        <v>4702400</v>
       </c>
       <c r="H89" s="3">
-        <v>3903900</v>
+        <v>3564500</v>
       </c>
       <c r="I89" s="3">
-        <v>3320700</v>
+        <v>3032000</v>
       </c>
       <c r="J89" s="3">
-        <v>2394600</v>
+        <v>2186400</v>
       </c>
       <c r="K89" s="3">
         <v>4309000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2955600</v>
+        <v>-2698600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2536200</v>
+        <v>-2315600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3176500</v>
+        <v>-2900300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1921600</v>
+        <v>-1754500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1331600</v>
+        <v>-1215800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1326700</v>
+        <v>-1211300</v>
       </c>
       <c r="J91" s="3">
-        <v>-3252000</v>
+        <v>-2969200</v>
       </c>
       <c r="K91" s="3">
         <v>-3630100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4719200</v>
+        <v>-4308800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1961600</v>
+        <v>-1791000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2308300</v>
+        <v>-2107600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1987700</v>
+        <v>-1814800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1008300</v>
+        <v>-920600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2205400</v>
+        <v>-2013600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2655400</v>
+        <v>-2424500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-637400</v>
+        <v>-582000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2008900</v>
+        <v>-1834200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3189400</v>
+        <v>-2912100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1018400</v>
+        <v>-929800</v>
       </c>
       <c r="H96" s="3">
-        <v>-346100</v>
+        <v>-316000</v>
       </c>
       <c r="I96" s="3">
-        <v>-393800</v>
+        <v>-359600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1263500</v>
+        <v>-1153600</v>
       </c>
       <c r="K96" s="3">
         <v>-465200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1600400</v>
+        <v>1461300</v>
       </c>
       <c r="E100" s="3">
-        <v>-604700</v>
+        <v>-552100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3949200</v>
+        <v>-3605800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3631900</v>
+        <v>-3316100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2935800</v>
+        <v>-2680500</v>
       </c>
       <c r="I100" s="3">
-        <v>-635500</v>
+        <v>-580200</v>
       </c>
       <c r="J100" s="3">
-        <v>-320200</v>
+        <v>-292400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>113000</v>
+        <v>103200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5100</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>59500</v>
+        <v>54300</v>
       </c>
       <c r="G101" s="3">
-        <v>93400</v>
+        <v>85300</v>
       </c>
       <c r="H101" s="3">
-        <v>-66800</v>
+        <v>-61000</v>
       </c>
       <c r="I101" s="3">
-        <v>-52100</v>
+        <v>-47500</v>
       </c>
       <c r="J101" s="3">
-        <v>335300</v>
+        <v>306200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2177500</v>
+        <v>1988200</v>
       </c>
       <c r="E102" s="3">
-        <v>-458500</v>
+        <v>-418600</v>
       </c>
       <c r="F102" s="3">
-        <v>175700</v>
+        <v>160400</v>
       </c>
       <c r="G102" s="3">
-        <v>-375900</v>
+        <v>-343200</v>
       </c>
       <c r="H102" s="3">
-        <v>-106900</v>
+        <v>-97600</v>
       </c>
       <c r="I102" s="3">
-        <v>427800</v>
+        <v>390600</v>
       </c>
       <c r="J102" s="3">
-        <v>-245600</v>
+        <v>-224200</v>
       </c>
       <c r="K102" s="3">
         <v>-308600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>EC</t>
   </si>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8202600</v>
+        <v>8125700</v>
       </c>
       <c r="E21" s="3">
-        <v>3332700</v>
+        <v>3270000</v>
       </c>
       <c r="F21" s="3">
-        <v>6122200</v>
+        <v>6023500</v>
       </c>
       <c r="G21" s="3">
-        <v>6211600</v>
+        <v>6409600</v>
       </c>
       <c r="H21" s="3">
-        <v>4892100</v>
+        <v>4833200</v>
       </c>
       <c r="I21" s="3">
-        <v>3581600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1205500</v>
+        <v>3485000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2133600</v>
+        <v>1955000</v>
       </c>
       <c r="E83" s="3">
-        <v>1955000</v>
+        <v>1799300</v>
       </c>
       <c r="F83" s="3">
-        <v>1799300</v>
+        <v>1614900</v>
       </c>
       <c r="G83" s="3">
-        <v>1614900</v>
+        <v>1736000</v>
       </c>
       <c r="H83" s="3">
-        <v>1736000</v>
+        <v>1594400</v>
       </c>
       <c r="I83" s="3">
-        <v>1594400</v>
-      </c>
-      <c r="J83" s="3">
         <v>1421800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4732600</v>
+        <v>1929200</v>
       </c>
       <c r="E89" s="3">
-        <v>1929200</v>
+        <v>5819500</v>
       </c>
       <c r="F89" s="3">
-        <v>5819500</v>
+        <v>4702400</v>
       </c>
       <c r="G89" s="3">
-        <v>4702400</v>
+        <v>3564500</v>
       </c>
       <c r="H89" s="3">
-        <v>3564500</v>
+        <v>3032000</v>
       </c>
       <c r="I89" s="3">
-        <v>3032000</v>
+        <v>2186400</v>
       </c>
       <c r="J89" s="3">
-        <v>2186400</v>
+        <v>3480300</v>
       </c>
       <c r="K89" s="3">
         <v>4309000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2698600</v>
+        <v>-2315600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2315600</v>
+        <v>-2900300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900300</v>
+        <v>-1754500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1754500</v>
+        <v>-1215800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1215800</v>
+        <v>-1211300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1211300</v>
+        <v>-2969200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2969200</v>
+        <v>-2932000</v>
       </c>
       <c r="K91" s="3">
         <v>-3630100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4308800</v>
+        <v>-1791000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1791000</v>
+        <v>-2107600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2107600</v>
+        <v>-1814800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1814800</v>
+        <v>-920600</v>
       </c>
       <c r="H94" s="3">
-        <v>-920600</v>
+        <v>-2013600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2013600</v>
-      </c>
-      <c r="J94" s="3">
         <v>-2424500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-582000</v>
+        <v>-1834200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1834200</v>
+        <v>-2912100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2912100</v>
+        <v>-929800</v>
       </c>
       <c r="G96" s="3">
-        <v>-929800</v>
+        <v>-316000</v>
       </c>
       <c r="H96" s="3">
-        <v>-316000</v>
+        <v>-359600</v>
       </c>
       <c r="I96" s="3">
-        <v>-359600</v>
+        <v>-1153600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1153600</v>
+        <v>-375800</v>
       </c>
       <c r="K96" s="3">
         <v>-465200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1461300</v>
+        <v>-552100</v>
       </c>
       <c r="E100" s="3">
-        <v>-552100</v>
+        <v>-3605800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3605800</v>
+        <v>-3316100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3316100</v>
+        <v>-2680500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2680500</v>
+        <v>-580200</v>
       </c>
       <c r="I100" s="3">
-        <v>-580200</v>
-      </c>
-      <c r="J100" s="3">
         <v>-292400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>103200</v>
+        <v>-4700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>54300</v>
       </c>
       <c r="F101" s="3">
-        <v>54300</v>
+        <v>85300</v>
       </c>
       <c r="G101" s="3">
-        <v>85300</v>
+        <v>-61000</v>
       </c>
       <c r="H101" s="3">
-        <v>-61000</v>
+        <v>-47500</v>
       </c>
       <c r="I101" s="3">
-        <v>-47500</v>
-      </c>
-      <c r="J101" s="3">
         <v>306200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1988200</v>
+        <v>-418600</v>
       </c>
       <c r="E102" s="3">
-        <v>-418600</v>
+        <v>160400</v>
       </c>
       <c r="F102" s="3">
-        <v>160400</v>
+        <v>-343200</v>
       </c>
       <c r="G102" s="3">
-        <v>-343200</v>
+        <v>-97600</v>
       </c>
       <c r="H102" s="3">
-        <v>-97600</v>
+        <v>390600</v>
       </c>
       <c r="I102" s="3">
-        <v>390600</v>
+        <v>-224200</v>
       </c>
       <c r="J102" s="3">
-        <v>-224200</v>
+        <v>-249300</v>
       </c>
       <c r="K102" s="3">
         <v>-308600</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19266300</v>
+        <v>35084300</v>
       </c>
       <c r="E8" s="3">
-        <v>10505600</v>
+        <v>20183700</v>
       </c>
       <c r="F8" s="3">
-        <v>14877800</v>
+        <v>11005800</v>
       </c>
       <c r="G8" s="3">
-        <v>14242200</v>
+        <v>15586300</v>
       </c>
       <c r="H8" s="3">
-        <v>11594100</v>
+        <v>14920400</v>
       </c>
       <c r="I8" s="3">
-        <v>10023800</v>
+        <v>12146200</v>
       </c>
       <c r="J8" s="3">
+        <v>10501100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10939100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17152700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19015800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20060100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20069100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11672200</v>
+        <v>19680800</v>
       </c>
       <c r="E9" s="3">
-        <v>7886100</v>
+        <v>12228000</v>
       </c>
       <c r="F9" s="3">
-        <v>9441100</v>
+        <v>8261600</v>
       </c>
       <c r="G9" s="3">
-        <v>8645600</v>
+        <v>9890700</v>
       </c>
       <c r="H9" s="3">
-        <v>7747600</v>
+        <v>9057300</v>
       </c>
       <c r="I9" s="3">
-        <v>7189700</v>
+        <v>8116600</v>
       </c>
       <c r="J9" s="3">
+        <v>7532000</v>
+      </c>
+      <c r="K9" s="3">
         <v>7768800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11331900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22363600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11506100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10726200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7594100</v>
+        <v>15403500</v>
       </c>
       <c r="E10" s="3">
-        <v>2619500</v>
+        <v>7955700</v>
       </c>
       <c r="F10" s="3">
-        <v>5436700</v>
+        <v>2744300</v>
       </c>
       <c r="G10" s="3">
-        <v>5596600</v>
+        <v>5695600</v>
       </c>
       <c r="H10" s="3">
-        <v>3846500</v>
+        <v>5863100</v>
       </c>
       <c r="I10" s="3">
-        <v>2834100</v>
+        <v>4029700</v>
       </c>
       <c r="J10" s="3">
+        <v>2969100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3170200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5820800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3347900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8554000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9342800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>201500</v>
+        <v>332700</v>
       </c>
       <c r="E12" s="3">
-        <v>144700</v>
+        <v>211100</v>
       </c>
       <c r="F12" s="3">
+        <v>151600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>168000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>305200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>295200</v>
+      </c>
+      <c r="J12" s="3">
         <v>160300</v>
       </c>
-      <c r="G12" s="3">
-        <v>291300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>281800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>153000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>332700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>669800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>365900</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,38 +944,41 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24600</v>
+        <v>85800</v>
       </c>
       <c r="E14" s="3">
-        <v>-150200</v>
+        <v>25800</v>
       </c>
       <c r="F14" s="3">
-        <v>167300</v>
+        <v>-157400</v>
       </c>
       <c r="G14" s="3">
-        <v>89700</v>
+        <v>175300</v>
       </c>
       <c r="H14" s="3">
-        <v>-367900</v>
+        <v>94000</v>
       </c>
       <c r="I14" s="3">
-        <v>153100</v>
+        <v>-385400</v>
       </c>
       <c r="J14" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K14" s="3">
         <v>1696400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>546200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -967,48 +986,54 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>117800</v>
+        <v>158100</v>
       </c>
       <c r="E15" s="3">
-        <v>68100</v>
+        <v>123400</v>
       </c>
       <c r="F15" s="3">
-        <v>58400</v>
+        <v>71400</v>
       </c>
       <c r="G15" s="3">
-        <v>17900</v>
+        <v>61200</v>
       </c>
       <c r="H15" s="3">
-        <v>31400</v>
+        <v>18700</v>
       </c>
       <c r="I15" s="3">
-        <v>46800</v>
+        <v>32800</v>
       </c>
       <c r="J15" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K15" s="3">
         <v>35800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>128500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>102600</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13058500</v>
+        <v>21863900</v>
       </c>
       <c r="E17" s="3">
-        <v>9033000</v>
+        <v>13680400</v>
       </c>
       <c r="F17" s="3">
-        <v>10590600</v>
+        <v>9463200</v>
       </c>
       <c r="G17" s="3">
-        <v>9682800</v>
+        <v>11095000</v>
       </c>
       <c r="H17" s="3">
-        <v>8338200</v>
+        <v>10143900</v>
       </c>
       <c r="I17" s="3">
-        <v>8290700</v>
+        <v>8735200</v>
       </c>
       <c r="J17" s="3">
+        <v>8685500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10633300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13395900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13120400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12993100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12493400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6207700</v>
+        <v>13220400</v>
       </c>
       <c r="E18" s="3">
-        <v>1472600</v>
+        <v>6503300</v>
       </c>
       <c r="F18" s="3">
-        <v>4287200</v>
+        <v>1542700</v>
       </c>
       <c r="G18" s="3">
-        <v>4559400</v>
+        <v>4491300</v>
       </c>
       <c r="H18" s="3">
-        <v>3256000</v>
+        <v>4776500</v>
       </c>
       <c r="I18" s="3">
-        <v>1733100</v>
+        <v>3411000</v>
       </c>
       <c r="J18" s="3">
+        <v>1815700</v>
+      </c>
+      <c r="K18" s="3">
         <v>305700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3756700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5895400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7067100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7575600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-37100</v>
+        <v>-120800</v>
       </c>
       <c r="E20" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
-        <v>121400</v>
-      </c>
       <c r="G20" s="3">
-        <v>114200</v>
+        <v>127200</v>
       </c>
       <c r="H20" s="3">
-        <v>-17200</v>
+        <v>119700</v>
       </c>
       <c r="I20" s="3">
-        <v>330100</v>
+        <v>-18000</v>
       </c>
       <c r="J20" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-454400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-670000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>172800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-343000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-69500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8125700</v>
+        <v>15768000</v>
       </c>
       <c r="E21" s="3">
-        <v>3270000</v>
+        <v>8699600</v>
       </c>
       <c r="F21" s="3">
-        <v>6023500</v>
+        <v>3588900</v>
       </c>
       <c r="G21" s="3">
-        <v>6409600</v>
+        <v>6503500</v>
       </c>
       <c r="H21" s="3">
-        <v>4833200</v>
+        <v>6588000</v>
       </c>
       <c r="I21" s="3">
-        <v>3485000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>5211700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3831700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>7558100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8217100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9141300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>650000</v>
+        <v>1213800</v>
       </c>
       <c r="E22" s="3">
-        <v>500700</v>
+        <v>680900</v>
       </c>
       <c r="F22" s="3">
-        <v>397800</v>
+        <v>524600</v>
       </c>
       <c r="G22" s="3">
-        <v>503900</v>
+        <v>416800</v>
       </c>
       <c r="H22" s="3">
-        <v>501100</v>
+        <v>527900</v>
       </c>
       <c r="I22" s="3">
-        <v>580700</v>
+        <v>524900</v>
       </c>
       <c r="J22" s="3">
+        <v>608300</v>
+      </c>
+      <c r="K22" s="3">
         <v>371400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>196100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>160000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5520600</v>
+        <v>11885800</v>
       </c>
       <c r="E23" s="3">
-        <v>970000</v>
+        <v>5783500</v>
       </c>
       <c r="F23" s="3">
-        <v>4010800</v>
+        <v>1016200</v>
       </c>
       <c r="G23" s="3">
-        <v>4169700</v>
+        <v>4201800</v>
       </c>
       <c r="H23" s="3">
-        <v>2737700</v>
+        <v>4368300</v>
       </c>
       <c r="I23" s="3">
-        <v>1482500</v>
+        <v>2868100</v>
       </c>
       <c r="J23" s="3">
+        <v>1553100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-520000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2890600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5908200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6724000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7506100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1588100</v>
+        <v>3737900</v>
       </c>
       <c r="E24" s="3">
-        <v>373100</v>
+        <v>1663700</v>
       </c>
       <c r="F24" s="3">
-        <v>965200</v>
+        <v>390900</v>
       </c>
       <c r="G24" s="3">
-        <v>1537600</v>
+        <v>1011200</v>
       </c>
       <c r="H24" s="3">
-        <v>1183300</v>
+        <v>1610800</v>
       </c>
       <c r="I24" s="3">
-        <v>977700</v>
+        <v>1239700</v>
       </c>
       <c r="J24" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="K24" s="3">
         <v>127400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1240000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2184000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2257800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2687700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3932600</v>
+        <v>8147900</v>
       </c>
       <c r="E26" s="3">
-        <v>596900</v>
+        <v>4119800</v>
       </c>
       <c r="F26" s="3">
-        <v>3045500</v>
+        <v>625300</v>
       </c>
       <c r="G26" s="3">
-        <v>2632100</v>
+        <v>3190500</v>
       </c>
       <c r="H26" s="3">
-        <v>1554400</v>
+        <v>2757400</v>
       </c>
       <c r="I26" s="3">
-        <v>504900</v>
+        <v>1628400</v>
       </c>
       <c r="J26" s="3">
+        <v>528900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-647400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1650600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3724200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4466200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4818400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3505900</v>
+        <v>7349400</v>
       </c>
       <c r="E27" s="3">
-        <v>354500</v>
+        <v>3672800</v>
       </c>
       <c r="F27" s="3">
-        <v>2782800</v>
+        <v>371400</v>
       </c>
       <c r="G27" s="3">
-        <v>2426800</v>
+        <v>2915300</v>
       </c>
       <c r="H27" s="3">
-        <v>1390300</v>
+        <v>2542400</v>
       </c>
       <c r="I27" s="3">
-        <v>328600</v>
+        <v>1456500</v>
       </c>
       <c r="J27" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-837400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1488600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3538800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4408700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4741500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37100</v>
+        <v>120800</v>
       </c>
       <c r="E32" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-121400</v>
-      </c>
       <c r="G32" s="3">
-        <v>-114200</v>
+        <v>-127200</v>
       </c>
       <c r="H32" s="3">
-        <v>17200</v>
+        <v>-119700</v>
       </c>
       <c r="I32" s="3">
-        <v>-330100</v>
+        <v>18000</v>
       </c>
       <c r="J32" s="3">
+        <v>-345800</v>
+      </c>
+      <c r="K32" s="3">
         <v>454400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>670000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-172800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>343000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>69500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3505900</v>
+        <v>7349400</v>
       </c>
       <c r="E33" s="3">
-        <v>354500</v>
+        <v>3672800</v>
       </c>
       <c r="F33" s="3">
-        <v>2782800</v>
+        <v>371400</v>
       </c>
       <c r="G33" s="3">
-        <v>2426800</v>
+        <v>2915300</v>
       </c>
       <c r="H33" s="3">
-        <v>1390300</v>
+        <v>2542400</v>
       </c>
       <c r="I33" s="3">
-        <v>328600</v>
+        <v>1456500</v>
       </c>
       <c r="J33" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-837400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1488600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3538800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4408700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4741500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3505900</v>
+        <v>7349400</v>
       </c>
       <c r="E35" s="3">
-        <v>354500</v>
+        <v>3672800</v>
       </c>
       <c r="F35" s="3">
-        <v>2782800</v>
+        <v>371400</v>
       </c>
       <c r="G35" s="3">
-        <v>2426800</v>
+        <v>2915300</v>
       </c>
       <c r="H35" s="3">
-        <v>1390300</v>
+        <v>2542400</v>
       </c>
       <c r="I35" s="3">
-        <v>328600</v>
+        <v>1456500</v>
       </c>
       <c r="J35" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-837400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1488600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3538800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4408700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4741500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3055500</v>
+        <v>3388200</v>
       </c>
       <c r="E41" s="3">
-        <v>1067300</v>
+        <v>3201000</v>
       </c>
       <c r="F41" s="3">
-        <v>1485900</v>
+        <v>1118100</v>
       </c>
       <c r="G41" s="3">
-        <v>1325500</v>
+        <v>1556700</v>
       </c>
       <c r="H41" s="3">
-        <v>1668600</v>
+        <v>1388600</v>
       </c>
       <c r="I41" s="3">
-        <v>1766200</v>
+        <v>1748100</v>
       </c>
       <c r="J41" s="3">
+        <v>1850300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1375600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1703100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4749700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2391700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2263500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>452500</v>
+        <v>367200</v>
       </c>
       <c r="E42" s="3">
-        <v>506700</v>
+        <v>474000</v>
       </c>
       <c r="F42" s="3">
-        <v>371500</v>
+        <v>530800</v>
       </c>
       <c r="G42" s="3">
-        <v>1117400</v>
+        <v>389100</v>
       </c>
       <c r="H42" s="3">
-        <v>623300</v>
+        <v>1170600</v>
       </c>
       <c r="I42" s="3">
-        <v>1127100</v>
+        <v>652900</v>
       </c>
       <c r="J42" s="3">
+        <v>1180800</v>
+      </c>
+      <c r="K42" s="3">
         <v>261000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>323100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>889700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>802000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>297000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5326300</v>
+        <v>10314000</v>
       </c>
       <c r="E43" s="3">
-        <v>1960700</v>
+        <v>5579900</v>
       </c>
       <c r="F43" s="3">
-        <v>1721600</v>
+        <v>2054100</v>
       </c>
       <c r="G43" s="3">
-        <v>2050500</v>
+        <v>1803600</v>
       </c>
       <c r="H43" s="3">
-        <v>1536300</v>
+        <v>2148100</v>
       </c>
       <c r="I43" s="3">
-        <v>1277600</v>
+        <v>1609400</v>
       </c>
       <c r="J43" s="3">
+        <v>1338500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1761800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2181200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1667800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1822800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1752000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1763600</v>
+        <v>2613600</v>
       </c>
       <c r="E44" s="3">
-        <v>1061300</v>
+        <v>1847600</v>
       </c>
       <c r="F44" s="3">
-        <v>1188200</v>
+        <v>1111900</v>
       </c>
       <c r="G44" s="3">
-        <v>1071100</v>
+        <v>1244800</v>
       </c>
       <c r="H44" s="3">
-        <v>966300</v>
+        <v>1122100</v>
       </c>
       <c r="I44" s="3">
-        <v>806800</v>
+        <v>1012300</v>
       </c>
       <c r="J44" s="3">
+        <v>845200</v>
+      </c>
+      <c r="K44" s="3">
         <v>642200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>795100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1845600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>801100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>862800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>258200</v>
+        <v>317800</v>
       </c>
       <c r="E45" s="3">
-        <v>199200</v>
+        <v>270500</v>
       </c>
       <c r="F45" s="3">
-        <v>139400</v>
+        <v>208700</v>
       </c>
       <c r="G45" s="3">
-        <v>112000</v>
+        <v>146000</v>
       </c>
       <c r="H45" s="3">
-        <v>82600</v>
+        <v>117300</v>
       </c>
       <c r="I45" s="3">
-        <v>89400</v>
+        <v>86500</v>
       </c>
       <c r="J45" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K45" s="3">
         <v>183300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>226900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2566800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>740000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>523800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10856100</v>
+        <v>17000900</v>
       </c>
       <c r="E46" s="3">
-        <v>4795200</v>
+        <v>11373100</v>
       </c>
       <c r="F46" s="3">
-        <v>4906500</v>
+        <v>5023600</v>
       </c>
       <c r="G46" s="3">
-        <v>5676400</v>
+        <v>5140200</v>
       </c>
       <c r="H46" s="3">
-        <v>4877000</v>
+        <v>5946700</v>
       </c>
       <c r="I46" s="3">
-        <v>5067100</v>
+        <v>5109300</v>
       </c>
       <c r="J46" s="3">
+        <v>5308400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4223800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5229500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7915800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6048800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5699000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7103100</v>
+        <v>9507400</v>
       </c>
       <c r="E47" s="3">
-        <v>992900</v>
+        <v>7441400</v>
       </c>
       <c r="F47" s="3">
-        <v>1551300</v>
+        <v>1040200</v>
       </c>
       <c r="G47" s="3">
-        <v>1139600</v>
+        <v>1625200</v>
       </c>
       <c r="H47" s="3">
-        <v>1191400</v>
+        <v>1193900</v>
       </c>
       <c r="I47" s="3">
-        <v>767200</v>
+        <v>1248200</v>
       </c>
       <c r="J47" s="3">
+        <v>803800</v>
+      </c>
+      <c r="K47" s="3">
         <v>792300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>980900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1429200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4023200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2246100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26569600</v>
+        <v>31668800</v>
       </c>
       <c r="E48" s="3">
-        <v>20752300</v>
+        <v>27834800</v>
       </c>
       <c r="F48" s="3">
-        <v>19683100</v>
+        <v>21740500</v>
       </c>
       <c r="G48" s="3">
-        <v>18027600</v>
+        <v>20620400</v>
       </c>
       <c r="H48" s="3">
-        <v>17360300</v>
+        <v>18886100</v>
       </c>
       <c r="I48" s="3">
-        <v>17768100</v>
+        <v>18187000</v>
       </c>
       <c r="J48" s="3">
+        <v>18614200</v>
+      </c>
+      <c r="K48" s="3">
         <v>18705600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23159300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34819700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25117800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13214700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4048500</v>
+        <v>5116400</v>
       </c>
       <c r="E49" s="3">
-        <v>400900</v>
+        <v>4241300</v>
       </c>
       <c r="F49" s="3">
-        <v>294500</v>
+        <v>419900</v>
       </c>
       <c r="G49" s="3">
-        <v>279300</v>
+        <v>308600</v>
       </c>
       <c r="H49" s="3">
-        <v>272900</v>
+        <v>292600</v>
       </c>
       <c r="I49" s="3">
-        <v>250200</v>
+        <v>285900</v>
       </c>
       <c r="J49" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K49" s="3">
         <v>274600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>339900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>962100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>379300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>444300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2715200</v>
+        <v>4107800</v>
       </c>
       <c r="E52" s="3">
-        <v>2336300</v>
+        <v>2844500</v>
       </c>
       <c r="F52" s="3">
-        <v>2008600</v>
+        <v>2447600</v>
       </c>
       <c r="G52" s="3">
-        <v>1387600</v>
+        <v>2104300</v>
       </c>
       <c r="H52" s="3">
-        <v>1265700</v>
+        <v>1453600</v>
       </c>
       <c r="I52" s="3">
-        <v>1621800</v>
+        <v>1326000</v>
       </c>
       <c r="J52" s="3">
+        <v>1699100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1833000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2269400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9089100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>981000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1086700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51292500</v>
+        <v>67401300</v>
       </c>
       <c r="E54" s="3">
-        <v>29277600</v>
+        <v>53735000</v>
       </c>
       <c r="F54" s="3">
-        <v>28444100</v>
+        <v>30671800</v>
       </c>
       <c r="G54" s="3">
-        <v>26510500</v>
+        <v>29798600</v>
       </c>
       <c r="H54" s="3">
-        <v>24967400</v>
+        <v>27772900</v>
       </c>
       <c r="I54" s="3">
-        <v>25474600</v>
+        <v>26156400</v>
       </c>
       <c r="J54" s="3">
+        <v>26687600</v>
+      </c>
+      <c r="K54" s="3">
         <v>25829100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31978900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35755600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24455800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22690900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2198800</v>
+        <v>3307600</v>
       </c>
       <c r="E57" s="3">
-        <v>1363300</v>
+        <v>2303500</v>
       </c>
       <c r="F57" s="3">
-        <v>1704200</v>
+        <v>1428200</v>
       </c>
       <c r="G57" s="3">
-        <v>1444500</v>
+        <v>1785300</v>
       </c>
       <c r="H57" s="3">
-        <v>1068700</v>
+        <v>1513300</v>
       </c>
       <c r="I57" s="3">
-        <v>980600</v>
+        <v>1119600</v>
       </c>
       <c r="J57" s="3">
+        <v>1027300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1045800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1294800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3672400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2170000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1613900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1933300</v>
+        <v>4883700</v>
       </c>
       <c r="E58" s="3">
-        <v>1033900</v>
+        <v>2025400</v>
       </c>
       <c r="F58" s="3">
-        <v>1052600</v>
+        <v>1083100</v>
       </c>
       <c r="G58" s="3">
-        <v>844200</v>
+        <v>1102700</v>
       </c>
       <c r="H58" s="3">
-        <v>1080300</v>
+        <v>884400</v>
       </c>
       <c r="I58" s="3">
-        <v>866500</v>
+        <v>1131800</v>
       </c>
       <c r="J58" s="3">
+        <v>907800</v>
+      </c>
+      <c r="K58" s="3">
         <v>960500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1189100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>243300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>647700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>302800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2220200</v>
+        <v>4300800</v>
       </c>
       <c r="E59" s="3">
-        <v>1442100</v>
+        <v>2325900</v>
       </c>
       <c r="F59" s="3">
-        <v>1809200</v>
+        <v>1510800</v>
       </c>
       <c r="G59" s="3">
-        <v>1454500</v>
+        <v>1895300</v>
       </c>
       <c r="H59" s="3">
-        <v>1388800</v>
+        <v>1523800</v>
       </c>
       <c r="I59" s="3">
-        <v>1594200</v>
+        <v>1454900</v>
       </c>
       <c r="J59" s="3">
+        <v>1670200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1656900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2051400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4327100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2920800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2558000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6352200</v>
+        <v>12492100</v>
       </c>
       <c r="E60" s="3">
-        <v>3839300</v>
+        <v>6654700</v>
       </c>
       <c r="F60" s="3">
-        <v>4565900</v>
+        <v>4022100</v>
       </c>
       <c r="G60" s="3">
-        <v>3743200</v>
+        <v>4783300</v>
       </c>
       <c r="H60" s="3">
-        <v>3537800</v>
+        <v>3921400</v>
       </c>
       <c r="I60" s="3">
-        <v>3441300</v>
+        <v>3706300</v>
       </c>
       <c r="J60" s="3">
+        <v>3605200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3663200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4535300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6003600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5337600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4474700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18029500</v>
+        <v>20446000</v>
       </c>
       <c r="E61" s="3">
-        <v>8779800</v>
+        <v>18888000</v>
       </c>
       <c r="F61" s="3">
-        <v>6977700</v>
+        <v>9197800</v>
       </c>
       <c r="G61" s="3">
-        <v>7149000</v>
+        <v>7309900</v>
       </c>
       <c r="H61" s="3">
-        <v>8064700</v>
+        <v>7489400</v>
       </c>
       <c r="I61" s="3">
-        <v>10100100</v>
+        <v>8448700</v>
       </c>
       <c r="J61" s="3">
+        <v>10581100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10216400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12648900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5784500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4013200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2799300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7222900</v>
+        <v>8264000</v>
       </c>
       <c r="E62" s="3">
-        <v>4936500</v>
+        <v>7566800</v>
       </c>
       <c r="F62" s="3">
-        <v>4228300</v>
+        <v>5171500</v>
       </c>
       <c r="G62" s="3">
-        <v>3164500</v>
+        <v>4429600</v>
       </c>
       <c r="H62" s="3">
-        <v>2910900</v>
+        <v>3315100</v>
       </c>
       <c r="I62" s="3">
-        <v>2415900</v>
+        <v>3049500</v>
       </c>
       <c r="J62" s="3">
+        <v>2531000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2450900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3034400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3612900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3242300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3147000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36228600</v>
+        <v>47373700</v>
       </c>
       <c r="E66" s="3">
-        <v>18337600</v>
+        <v>37953800</v>
       </c>
       <c r="F66" s="3">
-        <v>16597500</v>
+        <v>19210800</v>
       </c>
       <c r="G66" s="3">
-        <v>14495700</v>
+        <v>17387900</v>
       </c>
       <c r="H66" s="3">
-        <v>14908700</v>
+        <v>15185900</v>
       </c>
       <c r="I66" s="3">
-        <v>16303000</v>
+        <v>15618700</v>
       </c>
       <c r="J66" s="3">
+        <v>17079400</v>
+      </c>
+      <c r="K66" s="3">
         <v>16724200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20706200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16553400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13161300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11153200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6050500</v>
+        <v>9644800</v>
       </c>
       <c r="E72" s="3">
-        <v>2643400</v>
+        <v>6338600</v>
       </c>
       <c r="F72" s="3">
-        <v>3843100</v>
+        <v>2769200</v>
       </c>
       <c r="G72" s="3">
-        <v>3734600</v>
+        <v>4026100</v>
       </c>
       <c r="H72" s="3">
-        <v>2076200</v>
+        <v>3912400</v>
       </c>
       <c r="I72" s="3">
-        <v>884700</v>
+        <v>2175100</v>
       </c>
       <c r="J72" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K72" s="3">
         <v>561100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>694700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21481900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15050300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7271700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15063900</v>
+        <v>20027600</v>
       </c>
       <c r="E76" s="3">
-        <v>10940000</v>
+        <v>15781300</v>
       </c>
       <c r="F76" s="3">
-        <v>11846600</v>
+        <v>11461000</v>
       </c>
       <c r="G76" s="3">
-        <v>12014900</v>
+        <v>12410700</v>
       </c>
       <c r="H76" s="3">
-        <v>10058700</v>
+        <v>12587000</v>
       </c>
       <c r="I76" s="3">
-        <v>9171500</v>
+        <v>10537700</v>
       </c>
       <c r="J76" s="3">
+        <v>9608200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9104900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11272700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19202200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11294500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11537700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3505900</v>
+        <v>7349400</v>
       </c>
       <c r="E81" s="3">
-        <v>354500</v>
+        <v>3672800</v>
       </c>
       <c r="F81" s="3">
-        <v>2782800</v>
+        <v>371400</v>
       </c>
       <c r="G81" s="3">
-        <v>2426800</v>
+        <v>2915300</v>
       </c>
       <c r="H81" s="3">
-        <v>1390300</v>
+        <v>2542400</v>
       </c>
       <c r="I81" s="3">
-        <v>328600</v>
+        <v>1456500</v>
       </c>
       <c r="J81" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-837400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1488600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3538800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4408700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4741500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1955000</v>
+        <v>2668400</v>
       </c>
       <c r="E83" s="3">
-        <v>1799300</v>
+        <v>2235200</v>
       </c>
       <c r="F83" s="3">
-        <v>1614900</v>
+        <v>2048100</v>
       </c>
       <c r="G83" s="3">
-        <v>1736000</v>
+        <v>1884900</v>
       </c>
       <c r="H83" s="3">
-        <v>1594400</v>
+        <v>1691800</v>
       </c>
       <c r="I83" s="3">
-        <v>1421800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>1818600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1670300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1489900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1493100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1635100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1929200</v>
+        <v>7971600</v>
       </c>
       <c r="E89" s="3">
-        <v>5819500</v>
+        <v>4957900</v>
       </c>
       <c r="F89" s="3">
-        <v>4702400</v>
+        <v>2021100</v>
       </c>
       <c r="G89" s="3">
-        <v>3564500</v>
+        <v>6096600</v>
       </c>
       <c r="H89" s="3">
-        <v>3032000</v>
+        <v>4926300</v>
       </c>
       <c r="I89" s="3">
-        <v>2186400</v>
+        <v>3734200</v>
       </c>
       <c r="J89" s="3">
+        <v>3176400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3480300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4731100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6038200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7091300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2315600</v>
+        <v>-4560700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2900300</v>
+        <v>-2827100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1754500</v>
+        <v>-2425900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1215800</v>
+        <v>-3038400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1211300</v>
+        <v>-1838000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2969200</v>
+        <v>-1273700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1269000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2932000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3630100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2149200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2805000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3232100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1791000</v>
+        <v>-3980900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2107600</v>
+        <v>-4514000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1814800</v>
+        <v>-1876300</v>
       </c>
       <c r="G94" s="3">
-        <v>-920600</v>
+        <v>-2207900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2013600</v>
+        <v>-1901300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2424500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-964400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2109500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2608900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4804000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4673200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1834200</v>
+        <v>-2938500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2912100</v>
+        <v>-609700</v>
       </c>
       <c r="F96" s="3">
-        <v>-929800</v>
+        <v>-1921600</v>
       </c>
       <c r="G96" s="3">
-        <v>-316000</v>
+        <v>-3050700</v>
       </c>
       <c r="H96" s="3">
-        <v>-359600</v>
+        <v>-974100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1153600</v>
+        <v>-331000</v>
       </c>
       <c r="J96" s="3">
+        <v>-376700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-375800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-465200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3934000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2525800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1890200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-552100</v>
+        <v>-4165500</v>
       </c>
       <c r="E100" s="3">
-        <v>-3605800</v>
+        <v>1530800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3316100</v>
+        <v>-578400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2680500</v>
+        <v>-3777500</v>
       </c>
       <c r="H100" s="3">
-        <v>-580200</v>
+        <v>-3474000</v>
       </c>
       <c r="I100" s="3">
-        <v>-292400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-2808100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-607900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1911000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1037200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1400900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4700</v>
+        <v>362000</v>
       </c>
       <c r="E101" s="3">
-        <v>54300</v>
+        <v>108100</v>
       </c>
       <c r="F101" s="3">
-        <v>85300</v>
+        <v>-4900</v>
       </c>
       <c r="G101" s="3">
-        <v>-61000</v>
+        <v>56900</v>
       </c>
       <c r="H101" s="3">
-        <v>-47500</v>
+        <v>89400</v>
       </c>
       <c r="I101" s="3">
-        <v>306200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-63900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-49800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>31900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>72600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-418600</v>
+        <v>187300</v>
       </c>
       <c r="E102" s="3">
-        <v>160400</v>
+        <v>2082900</v>
       </c>
       <c r="F102" s="3">
-        <v>-343200</v>
+        <v>-438600</v>
       </c>
       <c r="G102" s="3">
-        <v>-97600</v>
+        <v>168100</v>
       </c>
       <c r="H102" s="3">
-        <v>390600</v>
+        <v>-359500</v>
       </c>
       <c r="I102" s="3">
-        <v>-224200</v>
+        <v>-102200</v>
       </c>
       <c r="J102" s="3">
+        <v>409200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-249300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-308600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>243200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>269600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1012100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35084300</v>
+        <v>38273700</v>
       </c>
       <c r="E8" s="3">
-        <v>20183700</v>
+        <v>22018600</v>
       </c>
       <c r="F8" s="3">
-        <v>11005800</v>
+        <v>12006400</v>
       </c>
       <c r="G8" s="3">
-        <v>15586300</v>
+        <v>17003200</v>
       </c>
       <c r="H8" s="3">
-        <v>14920400</v>
+        <v>16276800</v>
       </c>
       <c r="I8" s="3">
-        <v>12146200</v>
+        <v>13250500</v>
       </c>
       <c r="J8" s="3">
-        <v>10501100</v>
+        <v>11455800</v>
       </c>
       <c r="K8" s="3">
         <v>10939100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19680800</v>
+        <v>21470000</v>
       </c>
       <c r="E9" s="3">
-        <v>12228000</v>
+        <v>13339600</v>
       </c>
       <c r="F9" s="3">
-        <v>8261600</v>
+        <v>9012600</v>
       </c>
       <c r="G9" s="3">
-        <v>9890700</v>
+        <v>10789800</v>
       </c>
       <c r="H9" s="3">
-        <v>9057300</v>
+        <v>9880700</v>
       </c>
       <c r="I9" s="3">
-        <v>8116600</v>
+        <v>8854400</v>
       </c>
       <c r="J9" s="3">
-        <v>7532000</v>
+        <v>8216800</v>
       </c>
       <c r="K9" s="3">
         <v>7768800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15403500</v>
+        <v>16803800</v>
       </c>
       <c r="E10" s="3">
-        <v>7955700</v>
+        <v>8679000</v>
       </c>
       <c r="F10" s="3">
-        <v>2744300</v>
+        <v>2993700</v>
       </c>
       <c r="G10" s="3">
-        <v>5695600</v>
+        <v>6213400</v>
       </c>
       <c r="H10" s="3">
-        <v>5863100</v>
+        <v>6396100</v>
       </c>
       <c r="I10" s="3">
-        <v>4029700</v>
+        <v>4396000</v>
       </c>
       <c r="J10" s="3">
-        <v>2969100</v>
+        <v>3239000</v>
       </c>
       <c r="K10" s="3">
         <v>3170200</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>332700</v>
+        <v>362900</v>
       </c>
       <c r="E12" s="3">
-        <v>211100</v>
+        <v>230300</v>
       </c>
       <c r="F12" s="3">
-        <v>151600</v>
+        <v>165400</v>
       </c>
       <c r="G12" s="3">
-        <v>168000</v>
+        <v>183200</v>
       </c>
       <c r="H12" s="3">
-        <v>305200</v>
+        <v>333000</v>
       </c>
       <c r="I12" s="3">
-        <v>295200</v>
+        <v>322100</v>
       </c>
       <c r="J12" s="3">
-        <v>160300</v>
+        <v>174900</v>
       </c>
       <c r="K12" s="3">
         <v>332700</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85800</v>
+        <v>93600</v>
       </c>
       <c r="E14" s="3">
-        <v>25800</v>
+        <v>28100</v>
       </c>
       <c r="F14" s="3">
-        <v>-157400</v>
+        <v>-171700</v>
       </c>
       <c r="G14" s="3">
-        <v>175300</v>
+        <v>191200</v>
       </c>
       <c r="H14" s="3">
-        <v>94000</v>
+        <v>102500</v>
       </c>
       <c r="I14" s="3">
-        <v>-385400</v>
+        <v>-420400</v>
       </c>
       <c r="J14" s="3">
-        <v>160400</v>
+        <v>175000</v>
       </c>
       <c r="K14" s="3">
         <v>1696400</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>158100</v>
+        <v>172500</v>
       </c>
       <c r="E15" s="3">
-        <v>123400</v>
+        <v>134700</v>
       </c>
       <c r="F15" s="3">
-        <v>71400</v>
+        <v>77900</v>
       </c>
       <c r="G15" s="3">
-        <v>61200</v>
+        <v>66700</v>
       </c>
       <c r="H15" s="3">
-        <v>18700</v>
+        <v>20400</v>
       </c>
       <c r="I15" s="3">
-        <v>32800</v>
+        <v>35800</v>
       </c>
       <c r="J15" s="3">
-        <v>49100</v>
+        <v>53500</v>
       </c>
       <c r="K15" s="3">
         <v>35800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21863900</v>
+        <v>23851500</v>
       </c>
       <c r="E17" s="3">
-        <v>13680400</v>
+        <v>14924000</v>
       </c>
       <c r="F17" s="3">
-        <v>9463200</v>
+        <v>10323400</v>
       </c>
       <c r="G17" s="3">
-        <v>11095000</v>
+        <v>12103600</v>
       </c>
       <c r="H17" s="3">
-        <v>10143900</v>
+        <v>11066100</v>
       </c>
       <c r="I17" s="3">
-        <v>8735200</v>
+        <v>9529400</v>
       </c>
       <c r="J17" s="3">
-        <v>8685500</v>
+        <v>9475100</v>
       </c>
       <c r="K17" s="3">
         <v>10633300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13220400</v>
+        <v>14422200</v>
       </c>
       <c r="E18" s="3">
-        <v>6503300</v>
+        <v>7094500</v>
       </c>
       <c r="F18" s="3">
-        <v>1542700</v>
+        <v>1682900</v>
       </c>
       <c r="G18" s="3">
-        <v>4491300</v>
+        <v>4899600</v>
       </c>
       <c r="H18" s="3">
-        <v>4776500</v>
+        <v>5210700</v>
       </c>
       <c r="I18" s="3">
-        <v>3411000</v>
+        <v>3721100</v>
       </c>
       <c r="J18" s="3">
-        <v>1815700</v>
+        <v>1980700</v>
       </c>
       <c r="K18" s="3">
         <v>305700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-120800</v>
+        <v>-131700</v>
       </c>
       <c r="E20" s="3">
-        <v>-38900</v>
+        <v>-42400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="G20" s="3">
-        <v>127200</v>
+        <v>138800</v>
       </c>
       <c r="H20" s="3">
-        <v>119700</v>
+        <v>130500</v>
       </c>
       <c r="I20" s="3">
-        <v>-18000</v>
+        <v>-19600</v>
       </c>
       <c r="J20" s="3">
-        <v>345800</v>
+        <v>377200</v>
       </c>
       <c r="K20" s="3">
         <v>-454400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15768000</v>
+        <v>17201400</v>
       </c>
       <c r="E21" s="3">
-        <v>8699600</v>
+        <v>9490500</v>
       </c>
       <c r="F21" s="3">
-        <v>3588900</v>
+        <v>3915100</v>
       </c>
       <c r="G21" s="3">
-        <v>6503500</v>
+        <v>7094700</v>
       </c>
       <c r="H21" s="3">
-        <v>6588000</v>
+        <v>7186900</v>
       </c>
       <c r="I21" s="3">
-        <v>5211700</v>
+        <v>5685400</v>
       </c>
       <c r="J21" s="3">
-        <v>3831700</v>
+        <v>4180100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1213800</v>
+        <v>1324200</v>
       </c>
       <c r="E22" s="3">
-        <v>680900</v>
+        <v>742900</v>
       </c>
       <c r="F22" s="3">
-        <v>524600</v>
+        <v>572200</v>
       </c>
       <c r="G22" s="3">
-        <v>416800</v>
+        <v>454700</v>
       </c>
       <c r="H22" s="3">
-        <v>527900</v>
+        <v>575900</v>
       </c>
       <c r="I22" s="3">
-        <v>524900</v>
+        <v>572600</v>
       </c>
       <c r="J22" s="3">
-        <v>608300</v>
+        <v>663600</v>
       </c>
       <c r="K22" s="3">
         <v>371400</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11885800</v>
+        <v>12966300</v>
       </c>
       <c r="E23" s="3">
-        <v>5783500</v>
+        <v>6309300</v>
       </c>
       <c r="F23" s="3">
-        <v>1016200</v>
+        <v>1108600</v>
       </c>
       <c r="G23" s="3">
-        <v>4201800</v>
+        <v>4583700</v>
       </c>
       <c r="H23" s="3">
-        <v>4368300</v>
+        <v>4765400</v>
       </c>
       <c r="I23" s="3">
-        <v>2868100</v>
+        <v>3128800</v>
       </c>
       <c r="J23" s="3">
-        <v>1553100</v>
+        <v>1694300</v>
       </c>
       <c r="K23" s="3">
         <v>-520000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3737900</v>
+        <v>4077700</v>
       </c>
       <c r="E24" s="3">
-        <v>1663700</v>
+        <v>1814900</v>
       </c>
       <c r="F24" s="3">
-        <v>390900</v>
+        <v>426400</v>
       </c>
       <c r="G24" s="3">
-        <v>1011200</v>
+        <v>1103100</v>
       </c>
       <c r="H24" s="3">
-        <v>1610800</v>
+        <v>1757300</v>
       </c>
       <c r="I24" s="3">
-        <v>1239700</v>
+        <v>1352400</v>
       </c>
       <c r="J24" s="3">
-        <v>1024200</v>
+        <v>1117300</v>
       </c>
       <c r="K24" s="3">
         <v>127400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8147900</v>
+        <v>8888600</v>
       </c>
       <c r="E26" s="3">
-        <v>4119800</v>
+        <v>4494400</v>
       </c>
       <c r="F26" s="3">
-        <v>625300</v>
+        <v>682100</v>
       </c>
       <c r="G26" s="3">
-        <v>3190500</v>
+        <v>3480600</v>
       </c>
       <c r="H26" s="3">
-        <v>2757400</v>
+        <v>3008100</v>
       </c>
       <c r="I26" s="3">
-        <v>1628400</v>
+        <v>1776500</v>
       </c>
       <c r="J26" s="3">
-        <v>528900</v>
+        <v>577000</v>
       </c>
       <c r="K26" s="3">
         <v>-647400</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7349400</v>
+        <v>8017500</v>
       </c>
       <c r="E27" s="3">
-        <v>3672800</v>
+        <v>4006700</v>
       </c>
       <c r="F27" s="3">
-        <v>371400</v>
+        <v>405100</v>
       </c>
       <c r="G27" s="3">
-        <v>2915300</v>
+        <v>3180400</v>
       </c>
       <c r="H27" s="3">
-        <v>2542400</v>
+        <v>2773500</v>
       </c>
       <c r="I27" s="3">
-        <v>1456500</v>
+        <v>1588900</v>
       </c>
       <c r="J27" s="3">
-        <v>344200</v>
+        <v>375500</v>
       </c>
       <c r="K27" s="3">
         <v>-837400</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>120800</v>
+        <v>131700</v>
       </c>
       <c r="E32" s="3">
-        <v>38900</v>
+        <v>42400</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="G32" s="3">
-        <v>-127200</v>
+        <v>-138800</v>
       </c>
       <c r="H32" s="3">
-        <v>-119700</v>
+        <v>-130500</v>
       </c>
       <c r="I32" s="3">
-        <v>18000</v>
+        <v>19600</v>
       </c>
       <c r="J32" s="3">
-        <v>-345800</v>
+        <v>-377200</v>
       </c>
       <c r="K32" s="3">
         <v>454400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7349400</v>
+        <v>8017500</v>
       </c>
       <c r="E33" s="3">
-        <v>3672800</v>
+        <v>4006700</v>
       </c>
       <c r="F33" s="3">
-        <v>371400</v>
+        <v>405100</v>
       </c>
       <c r="G33" s="3">
-        <v>2915300</v>
+        <v>3180400</v>
       </c>
       <c r="H33" s="3">
-        <v>2542400</v>
+        <v>2773500</v>
       </c>
       <c r="I33" s="3">
-        <v>1456500</v>
+        <v>1588900</v>
       </c>
       <c r="J33" s="3">
-        <v>344200</v>
+        <v>375500</v>
       </c>
       <c r="K33" s="3">
         <v>-837400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7349400</v>
+        <v>8017500</v>
       </c>
       <c r="E35" s="3">
-        <v>3672800</v>
+        <v>4006700</v>
       </c>
       <c r="F35" s="3">
-        <v>371400</v>
+        <v>405100</v>
       </c>
       <c r="G35" s="3">
-        <v>2915300</v>
+        <v>3180400</v>
       </c>
       <c r="H35" s="3">
-        <v>2542400</v>
+        <v>2773500</v>
       </c>
       <c r="I35" s="3">
-        <v>1456500</v>
+        <v>1588900</v>
       </c>
       <c r="J35" s="3">
-        <v>344200</v>
+        <v>375500</v>
       </c>
       <c r="K35" s="3">
         <v>-837400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3388200</v>
+        <v>3696300</v>
       </c>
       <c r="E41" s="3">
-        <v>3201000</v>
+        <v>3492000</v>
       </c>
       <c r="F41" s="3">
-        <v>1118100</v>
+        <v>1219800</v>
       </c>
       <c r="G41" s="3">
-        <v>1556700</v>
+        <v>1698200</v>
       </c>
       <c r="H41" s="3">
-        <v>1388600</v>
+        <v>1514800</v>
       </c>
       <c r="I41" s="3">
-        <v>1748100</v>
+        <v>1907000</v>
       </c>
       <c r="J41" s="3">
-        <v>1850300</v>
+        <v>2018500</v>
       </c>
       <c r="K41" s="3">
         <v>1375600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>367200</v>
+        <v>400600</v>
       </c>
       <c r="E42" s="3">
-        <v>474000</v>
+        <v>517100</v>
       </c>
       <c r="F42" s="3">
-        <v>530800</v>
+        <v>579100</v>
       </c>
       <c r="G42" s="3">
-        <v>389100</v>
+        <v>424500</v>
       </c>
       <c r="H42" s="3">
-        <v>1170600</v>
+        <v>1277100</v>
       </c>
       <c r="I42" s="3">
-        <v>652900</v>
+        <v>712300</v>
       </c>
       <c r="J42" s="3">
-        <v>1180800</v>
+        <v>1288100</v>
       </c>
       <c r="K42" s="3">
         <v>261000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10314000</v>
+        <v>11251700</v>
       </c>
       <c r="E43" s="3">
-        <v>5579900</v>
+        <v>6087200</v>
       </c>
       <c r="F43" s="3">
-        <v>2054100</v>
+        <v>2240800</v>
       </c>
       <c r="G43" s="3">
-        <v>1803600</v>
+        <v>1967600</v>
       </c>
       <c r="H43" s="3">
-        <v>2148100</v>
+        <v>2343400</v>
       </c>
       <c r="I43" s="3">
-        <v>1609400</v>
+        <v>1755800</v>
       </c>
       <c r="J43" s="3">
-        <v>1338500</v>
+        <v>1460200</v>
       </c>
       <c r="K43" s="3">
         <v>1761800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2613600</v>
+        <v>2851200</v>
       </c>
       <c r="E44" s="3">
-        <v>1847600</v>
+        <v>2015600</v>
       </c>
       <c r="F44" s="3">
-        <v>1111900</v>
+        <v>1213000</v>
       </c>
       <c r="G44" s="3">
-        <v>1244800</v>
+        <v>1357900</v>
       </c>
       <c r="H44" s="3">
-        <v>1122100</v>
+        <v>1224100</v>
       </c>
       <c r="I44" s="3">
-        <v>1012300</v>
+        <v>1104300</v>
       </c>
       <c r="J44" s="3">
-        <v>845200</v>
+        <v>922100</v>
       </c>
       <c r="K44" s="3">
         <v>642200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>317800</v>
+        <v>346700</v>
       </c>
       <c r="E45" s="3">
-        <v>270500</v>
+        <v>295100</v>
       </c>
       <c r="F45" s="3">
-        <v>208700</v>
+        <v>227700</v>
       </c>
       <c r="G45" s="3">
-        <v>146000</v>
+        <v>159300</v>
       </c>
       <c r="H45" s="3">
-        <v>117300</v>
+        <v>128000</v>
       </c>
       <c r="I45" s="3">
-        <v>86500</v>
+        <v>94400</v>
       </c>
       <c r="J45" s="3">
-        <v>93600</v>
+        <v>102200</v>
       </c>
       <c r="K45" s="3">
         <v>183300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17000900</v>
+        <v>18546400</v>
       </c>
       <c r="E46" s="3">
-        <v>11373100</v>
+        <v>12407000</v>
       </c>
       <c r="F46" s="3">
-        <v>5023600</v>
+        <v>5480200</v>
       </c>
       <c r="G46" s="3">
-        <v>5140200</v>
+        <v>5607500</v>
       </c>
       <c r="H46" s="3">
-        <v>5946700</v>
+        <v>6487300</v>
       </c>
       <c r="I46" s="3">
-        <v>5109300</v>
+        <v>5573800</v>
       </c>
       <c r="J46" s="3">
-        <v>5308400</v>
+        <v>5791000</v>
       </c>
       <c r="K46" s="3">
         <v>4223800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9507400</v>
+        <v>10371700</v>
       </c>
       <c r="E47" s="3">
-        <v>7441400</v>
+        <v>8117900</v>
       </c>
       <c r="F47" s="3">
-        <v>1040200</v>
+        <v>1134800</v>
       </c>
       <c r="G47" s="3">
-        <v>1625200</v>
+        <v>1772900</v>
       </c>
       <c r="H47" s="3">
-        <v>1193900</v>
+        <v>1302400</v>
       </c>
       <c r="I47" s="3">
-        <v>1248200</v>
+        <v>1361600</v>
       </c>
       <c r="J47" s="3">
-        <v>803800</v>
+        <v>876800</v>
       </c>
       <c r="K47" s="3">
         <v>792300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31668800</v>
+        <v>34547700</v>
       </c>
       <c r="E48" s="3">
-        <v>27834800</v>
+        <v>30365200</v>
       </c>
       <c r="F48" s="3">
-        <v>21740500</v>
+        <v>23716900</v>
       </c>
       <c r="G48" s="3">
-        <v>20620400</v>
+        <v>22495000</v>
       </c>
       <c r="H48" s="3">
-        <v>18886100</v>
+        <v>20603000</v>
       </c>
       <c r="I48" s="3">
-        <v>18187000</v>
+        <v>19840300</v>
       </c>
       <c r="J48" s="3">
-        <v>18614200</v>
+        <v>20306400</v>
       </c>
       <c r="K48" s="3">
         <v>18705600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5116400</v>
+        <v>5581500</v>
       </c>
       <c r="E49" s="3">
-        <v>4241300</v>
+        <v>4626800</v>
       </c>
       <c r="F49" s="3">
-        <v>419900</v>
+        <v>458100</v>
       </c>
       <c r="G49" s="3">
-        <v>308600</v>
+        <v>336600</v>
       </c>
       <c r="H49" s="3">
-        <v>292600</v>
+        <v>319200</v>
       </c>
       <c r="I49" s="3">
-        <v>285900</v>
+        <v>311900</v>
       </c>
       <c r="J49" s="3">
-        <v>262100</v>
+        <v>286000</v>
       </c>
       <c r="K49" s="3">
         <v>274600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4107800</v>
+        <v>4481300</v>
       </c>
       <c r="E52" s="3">
-        <v>2844500</v>
+        <v>3103100</v>
       </c>
       <c r="F52" s="3">
-        <v>2447600</v>
+        <v>2670100</v>
       </c>
       <c r="G52" s="3">
-        <v>2104300</v>
+        <v>2295600</v>
       </c>
       <c r="H52" s="3">
-        <v>1453600</v>
+        <v>1585800</v>
       </c>
       <c r="I52" s="3">
-        <v>1326000</v>
+        <v>1446600</v>
       </c>
       <c r="J52" s="3">
-        <v>1699100</v>
+        <v>1853500</v>
       </c>
       <c r="K52" s="3">
         <v>1833000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67401300</v>
+        <v>73528700</v>
       </c>
       <c r="E54" s="3">
-        <v>53735000</v>
+        <v>58620000</v>
       </c>
       <c r="F54" s="3">
-        <v>30671800</v>
+        <v>33460100</v>
       </c>
       <c r="G54" s="3">
-        <v>29798600</v>
+        <v>32507500</v>
       </c>
       <c r="H54" s="3">
-        <v>27772900</v>
+        <v>30297700</v>
       </c>
       <c r="I54" s="3">
-        <v>26156400</v>
+        <v>28534200</v>
       </c>
       <c r="J54" s="3">
-        <v>26687600</v>
+        <v>29113800</v>
       </c>
       <c r="K54" s="3">
         <v>25829100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3307600</v>
+        <v>3608300</v>
       </c>
       <c r="E57" s="3">
-        <v>2303500</v>
+        <v>2512900</v>
       </c>
       <c r="F57" s="3">
-        <v>1428200</v>
+        <v>1558100</v>
       </c>
       <c r="G57" s="3">
-        <v>1785300</v>
+        <v>1947600</v>
       </c>
       <c r="H57" s="3">
-        <v>1513300</v>
+        <v>1650800</v>
       </c>
       <c r="I57" s="3">
-        <v>1119600</v>
+        <v>1221300</v>
       </c>
       <c r="J57" s="3">
-        <v>1027300</v>
+        <v>1120700</v>
       </c>
       <c r="K57" s="3">
         <v>1045800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4883700</v>
+        <v>5327700</v>
       </c>
       <c r="E58" s="3">
-        <v>2025400</v>
+        <v>2209500</v>
       </c>
       <c r="F58" s="3">
-        <v>1083100</v>
+        <v>1181600</v>
       </c>
       <c r="G58" s="3">
-        <v>1102700</v>
+        <v>1202900</v>
       </c>
       <c r="H58" s="3">
-        <v>884400</v>
+        <v>964800</v>
       </c>
       <c r="I58" s="3">
-        <v>1131800</v>
+        <v>1234700</v>
       </c>
       <c r="J58" s="3">
-        <v>907800</v>
+        <v>990300</v>
       </c>
       <c r="K58" s="3">
         <v>960500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4300800</v>
+        <v>4691800</v>
       </c>
       <c r="E59" s="3">
-        <v>2325900</v>
+        <v>2537300</v>
       </c>
       <c r="F59" s="3">
-        <v>1510800</v>
+        <v>1648100</v>
       </c>
       <c r="G59" s="3">
-        <v>1895300</v>
+        <v>2067600</v>
       </c>
       <c r="H59" s="3">
-        <v>1523800</v>
+        <v>1662300</v>
       </c>
       <c r="I59" s="3">
-        <v>1454900</v>
+        <v>1587200</v>
       </c>
       <c r="J59" s="3">
-        <v>1670200</v>
+        <v>1822000</v>
       </c>
       <c r="K59" s="3">
         <v>1656900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12492100</v>
+        <v>13627800</v>
       </c>
       <c r="E60" s="3">
-        <v>6654700</v>
+        <v>7259700</v>
       </c>
       <c r="F60" s="3">
-        <v>4022100</v>
+        <v>4387800</v>
       </c>
       <c r="G60" s="3">
-        <v>4783300</v>
+        <v>5218200</v>
       </c>
       <c r="H60" s="3">
-        <v>3921400</v>
+        <v>4277900</v>
       </c>
       <c r="I60" s="3">
-        <v>3706300</v>
+        <v>4043200</v>
       </c>
       <c r="J60" s="3">
-        <v>3605200</v>
+        <v>3933000</v>
       </c>
       <c r="K60" s="3">
         <v>3663200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20446000</v>
+        <v>22304700</v>
       </c>
       <c r="E61" s="3">
-        <v>18888000</v>
+        <v>20605100</v>
       </c>
       <c r="F61" s="3">
-        <v>9197800</v>
+        <v>10034000</v>
       </c>
       <c r="G61" s="3">
-        <v>7309900</v>
+        <v>7974500</v>
       </c>
       <c r="H61" s="3">
-        <v>7489400</v>
+        <v>8170300</v>
       </c>
       <c r="I61" s="3">
-        <v>8448700</v>
+        <v>9216800</v>
       </c>
       <c r="J61" s="3">
-        <v>10581100</v>
+        <v>11543000</v>
       </c>
       <c r="K61" s="3">
         <v>10216400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8264000</v>
+        <v>9015300</v>
       </c>
       <c r="E62" s="3">
-        <v>7566800</v>
+        <v>8254700</v>
       </c>
       <c r="F62" s="3">
-        <v>5171500</v>
+        <v>5641700</v>
       </c>
       <c r="G62" s="3">
-        <v>4429600</v>
+        <v>4832300</v>
       </c>
       <c r="H62" s="3">
-        <v>3315100</v>
+        <v>3616500</v>
       </c>
       <c r="I62" s="3">
-        <v>3049500</v>
+        <v>3326700</v>
       </c>
       <c r="J62" s="3">
-        <v>2531000</v>
+        <v>2761100</v>
       </c>
       <c r="K62" s="3">
         <v>2450900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47373700</v>
+        <v>51680400</v>
       </c>
       <c r="E66" s="3">
-        <v>37953800</v>
+        <v>41404100</v>
       </c>
       <c r="F66" s="3">
-        <v>19210800</v>
+        <v>20957200</v>
       </c>
       <c r="G66" s="3">
-        <v>17387900</v>
+        <v>18968600</v>
       </c>
       <c r="H66" s="3">
-        <v>15185900</v>
+        <v>16566500</v>
       </c>
       <c r="I66" s="3">
-        <v>15618700</v>
+        <v>17038500</v>
       </c>
       <c r="J66" s="3">
-        <v>17079400</v>
+        <v>18632100</v>
       </c>
       <c r="K66" s="3">
         <v>16724200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9644800</v>
+        <v>10521600</v>
       </c>
       <c r="E72" s="3">
-        <v>6338600</v>
+        <v>6914900</v>
       </c>
       <c r="F72" s="3">
-        <v>2769200</v>
+        <v>3021000</v>
       </c>
       <c r="G72" s="3">
-        <v>4026100</v>
+        <v>4392100</v>
       </c>
       <c r="H72" s="3">
-        <v>3912400</v>
+        <v>4268100</v>
       </c>
       <c r="I72" s="3">
-        <v>2175100</v>
+        <v>2372800</v>
       </c>
       <c r="J72" s="3">
-        <v>926900</v>
+        <v>1011100</v>
       </c>
       <c r="K72" s="3">
         <v>561100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20027600</v>
+        <v>21848300</v>
       </c>
       <c r="E76" s="3">
-        <v>15781300</v>
+        <v>17215900</v>
       </c>
       <c r="F76" s="3">
-        <v>11461000</v>
+        <v>12502900</v>
       </c>
       <c r="G76" s="3">
-        <v>12410700</v>
+        <v>13539000</v>
       </c>
       <c r="H76" s="3">
-        <v>12587000</v>
+        <v>13731300</v>
       </c>
       <c r="I76" s="3">
-        <v>10537700</v>
+        <v>11495700</v>
       </c>
       <c r="J76" s="3">
-        <v>9608200</v>
+        <v>10481700</v>
       </c>
       <c r="K76" s="3">
         <v>9104900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7349400</v>
+        <v>8017500</v>
       </c>
       <c r="E81" s="3">
-        <v>3672800</v>
+        <v>4006700</v>
       </c>
       <c r="F81" s="3">
-        <v>371400</v>
+        <v>405100</v>
       </c>
       <c r="G81" s="3">
-        <v>2915300</v>
+        <v>3180400</v>
       </c>
       <c r="H81" s="3">
-        <v>2542400</v>
+        <v>2773500</v>
       </c>
       <c r="I81" s="3">
-        <v>1456500</v>
+        <v>1588900</v>
       </c>
       <c r="J81" s="3">
-        <v>344200</v>
+        <v>375500</v>
       </c>
       <c r="K81" s="3">
         <v>-837400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2668400</v>
+        <v>2911000</v>
       </c>
       <c r="E83" s="3">
-        <v>2235200</v>
+        <v>2438400</v>
       </c>
       <c r="F83" s="3">
-        <v>2048100</v>
+        <v>2234300</v>
       </c>
       <c r="G83" s="3">
-        <v>1884900</v>
+        <v>2056300</v>
       </c>
       <c r="H83" s="3">
-        <v>1691800</v>
+        <v>1845600</v>
       </c>
       <c r="I83" s="3">
-        <v>1818600</v>
+        <v>1984000</v>
       </c>
       <c r="J83" s="3">
-        <v>1670300</v>
+        <v>1822100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7971600</v>
+        <v>8696300</v>
       </c>
       <c r="E89" s="3">
-        <v>4957900</v>
+        <v>5408600</v>
       </c>
       <c r="F89" s="3">
-        <v>2021100</v>
+        <v>2204800</v>
       </c>
       <c r="G89" s="3">
-        <v>6096600</v>
+        <v>6650800</v>
       </c>
       <c r="H89" s="3">
-        <v>4926300</v>
+        <v>5374200</v>
       </c>
       <c r="I89" s="3">
-        <v>3734200</v>
+        <v>4073700</v>
       </c>
       <c r="J89" s="3">
-        <v>3176400</v>
+        <v>3465100</v>
       </c>
       <c r="K89" s="3">
         <v>3480300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4560700</v>
+        <v>-4975300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2827100</v>
+        <v>-3084100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2425900</v>
+        <v>-2646400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3038400</v>
+        <v>-3314600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1838000</v>
+        <v>-2005100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1273700</v>
+        <v>-1389500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1269000</v>
+        <v>-1384400</v>
       </c>
       <c r="K91" s="3">
         <v>-2932000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3980900</v>
+        <v>-4342800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4514000</v>
+        <v>-4924400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1876300</v>
+        <v>-2046900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2207900</v>
+        <v>-2408600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1901300</v>
+        <v>-2074100</v>
       </c>
       <c r="I94" s="3">
-        <v>-964400</v>
+        <v>-1052100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2109500</v>
+        <v>-2301300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2938500</v>
+        <v>-3205700</v>
       </c>
       <c r="E96" s="3">
-        <v>-609700</v>
+        <v>-665100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1921600</v>
+        <v>-2096200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3050700</v>
+        <v>-3328100</v>
       </c>
       <c r="H96" s="3">
-        <v>-974100</v>
+        <v>-1062600</v>
       </c>
       <c r="I96" s="3">
-        <v>-331000</v>
+        <v>-361100</v>
       </c>
       <c r="J96" s="3">
-        <v>-376700</v>
+        <v>-411000</v>
       </c>
       <c r="K96" s="3">
         <v>-375800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4165500</v>
+        <v>-4544200</v>
       </c>
       <c r="E100" s="3">
-        <v>1530800</v>
+        <v>1670000</v>
       </c>
       <c r="F100" s="3">
-        <v>-578400</v>
+        <v>-631000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3777500</v>
+        <v>-4120900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3474000</v>
+        <v>-3789800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2808100</v>
+        <v>-3063400</v>
       </c>
       <c r="J100" s="3">
-        <v>-607900</v>
+        <v>-663100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>362000</v>
+        <v>395000</v>
       </c>
       <c r="E101" s="3">
-        <v>108100</v>
+        <v>117900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4900</v>
+        <v>-5400</v>
       </c>
       <c r="G101" s="3">
-        <v>56900</v>
+        <v>62100</v>
       </c>
       <c r="H101" s="3">
-        <v>89400</v>
+        <v>97500</v>
       </c>
       <c r="I101" s="3">
-        <v>-63900</v>
+        <v>-69700</v>
       </c>
       <c r="J101" s="3">
-        <v>-49800</v>
+        <v>-54300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>187300</v>
+        <v>204300</v>
       </c>
       <c r="E102" s="3">
-        <v>2082900</v>
+        <v>2272200</v>
       </c>
       <c r="F102" s="3">
-        <v>-438600</v>
+        <v>-478400</v>
       </c>
       <c r="G102" s="3">
-        <v>168100</v>
+        <v>183400</v>
       </c>
       <c r="H102" s="3">
-        <v>-359500</v>
+        <v>-392200</v>
       </c>
       <c r="I102" s="3">
-        <v>-102200</v>
+        <v>-111500</v>
       </c>
       <c r="J102" s="3">
-        <v>409200</v>
+        <v>446400</v>
       </c>
       <c r="K102" s="3">
         <v>-249300</v>

--- a/AAII_Financials/Yearly/EC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EC_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17201400</v>
+        <v>17322700</v>
       </c>
       <c r="E21" s="3">
-        <v>9490500</v>
+        <v>9592100</v>
       </c>
       <c r="F21" s="3">
-        <v>3915100</v>
+        <v>4008200</v>
       </c>
       <c r="G21" s="3">
-        <v>7094700</v>
+        <v>7180400</v>
       </c>
       <c r="H21" s="3">
-        <v>7186900</v>
+        <v>7263800</v>
       </c>
       <c r="I21" s="3">
-        <v>5685400</v>
+        <v>5768100</v>
       </c>
       <c r="J21" s="3">
-        <v>4180100</v>
+        <v>4256000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
